--- a/BackTest/2020-01-23 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-23 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.47</v>
+        <v>11.45</v>
       </c>
       <c r="C2" t="n">
-        <v>11.47</v>
+        <v>11.45</v>
       </c>
       <c r="D2" t="n">
-        <v>11.47</v>
+        <v>11.45</v>
       </c>
       <c r="E2" t="n">
-        <v>11.47</v>
+        <v>11.45</v>
       </c>
       <c r="F2" t="n">
-        <v>56853.3192</v>
+        <v>115000</v>
       </c>
       <c r="G2" t="n">
-        <v>11.72200000000002</v>
+        <v>11.73416666666669</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>11.47</v>
       </c>
       <c r="F3" t="n">
-        <v>18437.8858</v>
+        <v>56853.3192</v>
       </c>
       <c r="G3" t="n">
-        <v>11.70983333333336</v>
+        <v>11.72200000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.46</v>
+        <v>11.47</v>
       </c>
       <c r="C4" t="n">
-        <v>11.46</v>
+        <v>11.47</v>
       </c>
       <c r="D4" t="n">
-        <v>11.46</v>
+        <v>11.47</v>
       </c>
       <c r="E4" t="n">
-        <v>11.46</v>
+        <v>11.47</v>
       </c>
       <c r="F4" t="n">
-        <v>4824.7277</v>
+        <v>18437.8858</v>
       </c>
       <c r="G4" t="n">
-        <v>11.69916666666669</v>
+        <v>11.70983333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="C5" t="n">
-        <v>11.67</v>
+        <v>11.46</v>
       </c>
       <c r="D5" t="n">
-        <v>11.67</v>
+        <v>11.46</v>
       </c>
       <c r="E5" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="F5" t="n">
-        <v>111341.5748</v>
+        <v>4824.7277</v>
       </c>
       <c r="G5" t="n">
-        <v>11.69700000000002</v>
+        <v>11.69916666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.58</v>
+        <v>11.57</v>
       </c>
       <c r="C6" t="n">
-        <v>11.58</v>
+        <v>11.67</v>
       </c>
       <c r="D6" t="n">
-        <v>11.58</v>
+        <v>11.67</v>
       </c>
       <c r="E6" t="n">
-        <v>11.58</v>
+        <v>11.57</v>
       </c>
       <c r="F6" t="n">
-        <v>62906.5511</v>
+        <v>111341.5748</v>
       </c>
       <c r="G6" t="n">
-        <v>11.68850000000002</v>
+        <v>11.69700000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.67</v>
+        <v>11.58</v>
       </c>
       <c r="C7" t="n">
-        <v>11.67</v>
+        <v>11.58</v>
       </c>
       <c r="D7" t="n">
-        <v>11.67</v>
+        <v>11.58</v>
       </c>
       <c r="E7" t="n">
-        <v>11.67</v>
+        <v>11.58</v>
       </c>
       <c r="F7" t="n">
-        <v>25301</v>
+        <v>62906.5511</v>
       </c>
       <c r="G7" t="n">
-        <v>11.68150000000002</v>
+        <v>11.68850000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6</v>
+        <v>11.67</v>
       </c>
       <c r="C8" t="n">
-        <v>11.57</v>
+        <v>11.67</v>
       </c>
       <c r="D8" t="n">
-        <v>11.6</v>
+        <v>11.67</v>
       </c>
       <c r="E8" t="n">
-        <v>11.57</v>
+        <v>11.67</v>
       </c>
       <c r="F8" t="n">
-        <v>26060</v>
+        <v>25301</v>
       </c>
       <c r="G8" t="n">
-        <v>11.68100000000002</v>
+        <v>11.68150000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.69</v>
+        <v>11.6</v>
       </c>
       <c r="C9" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="D9" t="n">
         <v>11.6</v>
       </c>
-      <c r="D9" t="n">
-        <v>11.69</v>
-      </c>
       <c r="E9" t="n">
-        <v>11.6</v>
+        <v>11.57</v>
       </c>
       <c r="F9" t="n">
-        <v>44829.2585</v>
+        <v>26060</v>
       </c>
       <c r="G9" t="n">
-        <v>11.67933333333336</v>
+        <v>11.68100000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.57</v>
+        <v>11.69</v>
       </c>
       <c r="C10" t="n">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="D10" t="n">
-        <v>11.57</v>
+        <v>11.69</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="F10" t="n">
-        <v>65900</v>
+        <v>44829.2585</v>
       </c>
       <c r="G10" t="n">
-        <v>11.67716666666669</v>
+        <v>11.67933333333336</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>11.57</v>
       </c>
       <c r="F11" t="n">
-        <v>6933.0696</v>
+        <v>65900</v>
       </c>
       <c r="G11" t="n">
-        <v>11.67666666666669</v>
+        <v>11.67716666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>11.57</v>
       </c>
       <c r="F12" t="n">
-        <v>27449.1586</v>
+        <v>6933.0696</v>
       </c>
       <c r="G12" t="n">
-        <v>11.66966666666669</v>
+        <v>11.67666666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.5</v>
+        <v>11.57</v>
       </c>
       <c r="C13" t="n">
-        <v>11.5</v>
+        <v>11.57</v>
       </c>
       <c r="D13" t="n">
-        <v>11.5</v>
+        <v>11.57</v>
       </c>
       <c r="E13" t="n">
-        <v>11.5</v>
+        <v>11.57</v>
       </c>
       <c r="F13" t="n">
-        <v>42893.566</v>
+        <v>27449.1586</v>
       </c>
       <c r="G13" t="n">
-        <v>11.66383333333336</v>
+        <v>11.66966666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>42893.566</v>
       </c>
       <c r="G14" t="n">
-        <v>11.65883333333336</v>
+        <v>11.66383333333336</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>11.6</v>
       </c>
       <c r="F15" t="n">
-        <v>63944.383</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
         <v>11.65883333333336</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="C16" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="D16" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="E16" t="n">
-        <v>11.68</v>
+        <v>11.6</v>
       </c>
       <c r="F16" t="n">
-        <v>106795.7221</v>
+        <v>63944.383</v>
       </c>
       <c r="G16" t="n">
-        <v>11.66033333333336</v>
+        <v>11.65883333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>11.68</v>
       </c>
       <c r="C17" t="n">
-        <v>11.69</v>
+        <v>11.68</v>
       </c>
       <c r="D17" t="n">
-        <v>11.69</v>
+        <v>11.68</v>
       </c>
       <c r="E17" t="n">
         <v>11.68</v>
       </c>
       <c r="F17" t="n">
-        <v>17904.2779</v>
+        <v>106795.7221</v>
       </c>
       <c r="G17" t="n">
-        <v>11.65833333333336</v>
+        <v>11.66033333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.84</v>
+        <v>11.68</v>
       </c>
       <c r="C18" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="D18" t="n">
-        <v>11.85</v>
+        <v>11.69</v>
       </c>
       <c r="E18" t="n">
-        <v>11.84</v>
+        <v>11.68</v>
       </c>
       <c r="F18" t="n">
-        <v>3000</v>
+        <v>17904.2779</v>
       </c>
       <c r="G18" t="n">
-        <v>11.65900000000003</v>
+        <v>11.65833333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.68</v>
+        <v>11.84</v>
       </c>
       <c r="C19" t="n">
-        <v>11.75</v>
+        <v>11.85</v>
       </c>
       <c r="D19" t="n">
-        <v>11.75</v>
+        <v>11.85</v>
       </c>
       <c r="E19" t="n">
-        <v>11.68</v>
+        <v>11.84</v>
       </c>
       <c r="F19" t="n">
-        <v>11043.2747</v>
+        <v>3000</v>
       </c>
       <c r="G19" t="n">
-        <v>11.66116666666669</v>
+        <v>11.65900000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>11.68</v>
       </c>
       <c r="C20" t="n">
-        <v>11.52</v>
+        <v>11.75</v>
       </c>
       <c r="D20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E20" t="n">
         <v>11.68</v>
       </c>
-      <c r="E20" t="n">
-        <v>11.52</v>
-      </c>
       <c r="F20" t="n">
-        <v>65870.03939999999</v>
+        <v>11043.2747</v>
       </c>
       <c r="G20" t="n">
-        <v>11.65983333333336</v>
+        <v>11.66116666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.75</v>
+        <v>11.68</v>
       </c>
       <c r="C21" t="n">
-        <v>11.83</v>
+        <v>11.52</v>
       </c>
       <c r="D21" t="n">
-        <v>11.83</v>
+        <v>11.68</v>
       </c>
       <c r="E21" t="n">
-        <v>11.75</v>
+        <v>11.52</v>
       </c>
       <c r="F21" t="n">
-        <v>23989.01842020288</v>
+        <v>65870.03939999999</v>
       </c>
       <c r="G21" t="n">
-        <v>11.66533333333336</v>
+        <v>11.65983333333336</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.62</v>
+        <v>11.75</v>
       </c>
       <c r="C22" t="n">
-        <v>11.62</v>
+        <v>11.83</v>
       </c>
       <c r="D22" t="n">
-        <v>11.62</v>
+        <v>11.83</v>
       </c>
       <c r="E22" t="n">
-        <v>11.62</v>
+        <v>11.75</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>23989.01842020288</v>
       </c>
       <c r="G22" t="n">
-        <v>11.66733333333336</v>
+        <v>11.66533333333336</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.75</v>
+        <v>11.62</v>
       </c>
       <c r="C23" t="n">
-        <v>11.75</v>
+        <v>11.62</v>
       </c>
       <c r="D23" t="n">
-        <v>11.75</v>
+        <v>11.62</v>
       </c>
       <c r="E23" t="n">
-        <v>11.75</v>
+        <v>11.62</v>
       </c>
       <c r="F23" t="n">
-        <v>98.3999</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>11.67716666666669</v>
+        <v>11.66733333333336</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.65</v>
+        <v>11.75</v>
       </c>
       <c r="C24" t="n">
-        <v>11.63</v>
+        <v>11.75</v>
       </c>
       <c r="D24" t="n">
-        <v>11.65</v>
+        <v>11.75</v>
       </c>
       <c r="E24" t="n">
-        <v>11.63</v>
+        <v>11.75</v>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>98.3999</v>
       </c>
       <c r="G24" t="n">
-        <v>11.68383333333336</v>
+        <v>11.67716666666669</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.75</v>
+        <v>11.65</v>
       </c>
       <c r="C25" t="n">
-        <v>11.85</v>
+        <v>11.63</v>
       </c>
       <c r="D25" t="n">
-        <v>11.85</v>
+        <v>11.65</v>
       </c>
       <c r="E25" t="n">
-        <v>11.75</v>
+        <v>11.63</v>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G25" t="n">
-        <v>11.68950000000003</v>
+        <v>11.68383333333336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.63</v>
+        <v>11.75</v>
       </c>
       <c r="C26" t="n">
-        <v>11.52</v>
+        <v>11.85</v>
       </c>
       <c r="D26" t="n">
-        <v>11.63</v>
+        <v>11.85</v>
       </c>
       <c r="E26" t="n">
-        <v>11.52</v>
+        <v>11.75</v>
       </c>
       <c r="F26" t="n">
-        <v>113000</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="n">
-        <v>11.69583333333336</v>
+        <v>11.68950000000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.75</v>
+        <v>11.63</v>
       </c>
       <c r="C27" t="n">
-        <v>11.75</v>
+        <v>11.52</v>
       </c>
       <c r="D27" t="n">
-        <v>11.75</v>
+        <v>11.63</v>
       </c>
       <c r="E27" t="n">
-        <v>11.75</v>
+        <v>11.52</v>
       </c>
       <c r="F27" t="n">
-        <v>44.444</v>
+        <v>113000</v>
       </c>
       <c r="G27" t="n">
-        <v>11.70600000000003</v>
+        <v>11.69583333333336</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="C28" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="D28" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="E28" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="F28" t="n">
-        <v>46</v>
+        <v>44.444</v>
       </c>
       <c r="G28" t="n">
-        <v>11.71116666666669</v>
+        <v>11.70600000000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>11.9</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E29" t="n">
         <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>12961</v>
+        <v>46</v>
       </c>
       <c r="G29" t="n">
-        <v>11.71800000000002</v>
+        <v>11.71116666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C30" t="n">
         <v>12</v>
@@ -1422,13 +1422,13 @@
         <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>21170.5291</v>
+        <v>12961</v>
       </c>
       <c r="G30" t="n">
-        <v>11.72316666666669</v>
+        <v>11.71800000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>60046.982</v>
+        <v>21170.5291</v>
       </c>
       <c r="G31" t="n">
-        <v>11.72733333333336</v>
+        <v>11.72316666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.05</v>
+        <v>12.03</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="D32" t="n">
-        <v>12.05</v>
+        <v>12.04</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="F32" t="n">
-        <v>9805.571099999999</v>
+        <v>60046.982</v>
       </c>
       <c r="G32" t="n">
-        <v>11.72983333333336</v>
+        <v>11.72733333333336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="C33" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="E33" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>44.4444</v>
+        <v>9805.571099999999</v>
       </c>
       <c r="G33" t="n">
-        <v>11.73050000000002</v>
+        <v>11.72983333333336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="C34" t="n">
-        <v>11.99</v>
+        <v>12.04</v>
       </c>
       <c r="D34" t="n">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="E34" t="n">
-        <v>11.9</v>
+        <v>12.04</v>
       </c>
       <c r="F34" t="n">
-        <v>394.4444</v>
+        <v>44.4444</v>
       </c>
       <c r="G34" t="n">
-        <v>11.72550000000002</v>
+        <v>11.73050000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="C35" t="n">
-        <v>12.03</v>
+        <v>11.99</v>
       </c>
       <c r="D35" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="E35" t="n">
-        <v>12.03</v>
+        <v>11.9</v>
       </c>
       <c r="F35" t="n">
-        <v>557.8115</v>
+        <v>394.4444</v>
       </c>
       <c r="G35" t="n">
-        <v>11.72950000000002</v>
+        <v>11.72550000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.9</v>
+        <v>12.03</v>
       </c>
       <c r="C36" t="n">
-        <v>11.9</v>
+        <v>12.03</v>
       </c>
       <c r="D36" t="n">
-        <v>11.9</v>
+        <v>12.03</v>
       </c>
       <c r="E36" t="n">
-        <v>11.9</v>
+        <v>12.03</v>
       </c>
       <c r="F36" t="n">
-        <v>664.7686</v>
+        <v>557.8115</v>
       </c>
       <c r="G36" t="n">
-        <v>11.72883333333336</v>
+        <v>11.72950000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.71</v>
+        <v>11.9</v>
       </c>
       <c r="C37" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D37" t="n">
-        <v>11.71</v>
+        <v>11.9</v>
       </c>
       <c r="E37" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F37" t="n">
-        <v>42868.583</v>
+        <v>664.7686</v>
       </c>
       <c r="G37" t="n">
-        <v>11.72466666666669</v>
+        <v>11.72883333333336</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>11.71</v>
       </c>
       <c r="C38" t="n">
-        <v>11.89</v>
+        <v>11.7</v>
       </c>
       <c r="D38" t="n">
-        <v>11.89</v>
+        <v>11.71</v>
       </c>
       <c r="E38" t="n">
-        <v>11.61</v>
+        <v>11.7</v>
       </c>
       <c r="F38" t="n">
-        <v>7636.4257</v>
+        <v>42868.583</v>
       </c>
       <c r="G38" t="n">
-        <v>11.71883333333336</v>
+        <v>11.72466666666669</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.61</v>
+        <v>11.71</v>
       </c>
       <c r="C39" t="n">
-        <v>11.61</v>
+        <v>11.89</v>
       </c>
       <c r="D39" t="n">
-        <v>11.61</v>
+        <v>11.89</v>
       </c>
       <c r="E39" t="n">
         <v>11.61</v>
       </c>
       <c r="F39" t="n">
-        <v>13702.1086</v>
+        <v>7636.4257</v>
       </c>
       <c r="G39" t="n">
-        <v>11.70833333333336</v>
+        <v>11.71883333333336</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.78</v>
+        <v>11.61</v>
       </c>
       <c r="C40" t="n">
-        <v>11.78</v>
+        <v>11.61</v>
       </c>
       <c r="D40" t="n">
-        <v>11.78</v>
+        <v>11.61</v>
       </c>
       <c r="E40" t="n">
-        <v>11.78</v>
+        <v>11.61</v>
       </c>
       <c r="F40" t="n">
-        <v>28531</v>
+        <v>13702.1086</v>
       </c>
       <c r="G40" t="n">
-        <v>11.70033333333336</v>
+        <v>11.70833333333336</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="C41" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="D41" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="E41" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="F41" t="n">
-        <v>3285</v>
+        <v>28531</v>
       </c>
       <c r="G41" t="n">
-        <v>11.69833333333336</v>
+        <v>11.70033333333336</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="C42" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="D42" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="E42" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="F42" t="n">
-        <v>12505.6991</v>
+        <v>3285</v>
       </c>
       <c r="G42" t="n">
-        <v>11.69216666666669</v>
+        <v>11.69833333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>11.7</v>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>12505.6991</v>
       </c>
       <c r="G43" t="n">
-        <v>11.68600000000002</v>
+        <v>11.69216666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="C44" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="D44" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="E44" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="F44" t="n">
-        <v>44.4444</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="n">
-        <v>11.68866666666669</v>
+        <v>11.68600000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>44.4444</v>
       </c>
       <c r="G45" t="n">
-        <v>11.69050000000002</v>
+        <v>11.68866666666669</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="C46" t="n">
         <v>11.77</v>
@@ -1982,13 +1982,13 @@
         <v>11.77</v>
       </c>
       <c r="E46" t="n">
-        <v>11.7</v>
+        <v>11.77</v>
       </c>
       <c r="F46" t="n">
-        <v>7979.0294</v>
+        <v>44.4444</v>
       </c>
       <c r="G46" t="n">
-        <v>11.69266666666669</v>
+        <v>11.69050000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C47" t="n">
         <v>11.77</v>
-      </c>
-      <c r="C47" t="n">
-        <v>11.73</v>
       </c>
       <c r="D47" t="n">
         <v>11.77</v>
@@ -2020,10 +2020,10 @@
         <v>11.7</v>
       </c>
       <c r="F47" t="n">
-        <v>21834.3212</v>
+        <v>7979.0294</v>
       </c>
       <c r="G47" t="n">
-        <v>11.69416666666669</v>
+        <v>11.69266666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>11.77</v>
       </c>
       <c r="C48" t="n">
-        <v>11.77</v>
+        <v>11.73</v>
       </c>
       <c r="D48" t="n">
         <v>11.77</v>
       </c>
       <c r="E48" t="n">
-        <v>11.77</v>
+        <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>45.9963</v>
+        <v>21834.3212</v>
       </c>
       <c r="G48" t="n">
-        <v>11.69133333333335</v>
+        <v>11.69416666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.65</v>
+        <v>11.77</v>
       </c>
       <c r="C49" t="n">
-        <v>11.65</v>
+        <v>11.77</v>
       </c>
       <c r="D49" t="n">
-        <v>11.65</v>
+        <v>11.77</v>
       </c>
       <c r="E49" t="n">
-        <v>11.65</v>
+        <v>11.77</v>
       </c>
       <c r="F49" t="n">
-        <v>13058.3377</v>
+        <v>45.9963</v>
       </c>
       <c r="G49" t="n">
-        <v>11.69050000000002</v>
+        <v>11.69133333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>11.65</v>
       </c>
       <c r="F50" t="n">
-        <v>28487.0037</v>
+        <v>13058.3377</v>
       </c>
       <c r="G50" t="n">
-        <v>11.68966666666669</v>
+        <v>11.69050000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>11.65</v>
       </c>
       <c r="F51" t="n">
-        <v>18084.8042</v>
+        <v>28487.0037</v>
       </c>
       <c r="G51" t="n">
-        <v>11.69550000000002</v>
+        <v>11.68966666666669</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>11.65</v>
       </c>
       <c r="C52" t="n">
-        <v>11.59</v>
+        <v>11.65</v>
       </c>
       <c r="D52" t="n">
         <v>11.65</v>
       </c>
       <c r="E52" t="n">
-        <v>11.59</v>
+        <v>11.65</v>
       </c>
       <c r="F52" t="n">
-        <v>155671.9319</v>
+        <v>18084.8042</v>
       </c>
       <c r="G52" t="n">
-        <v>11.69950000000002</v>
+        <v>11.69550000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.77</v>
+        <v>11.65</v>
       </c>
       <c r="C53" t="n">
-        <v>11.77</v>
+        <v>11.59</v>
       </c>
       <c r="D53" t="n">
-        <v>11.77</v>
+        <v>11.65</v>
       </c>
       <c r="E53" t="n">
-        <v>11.77</v>
+        <v>11.59</v>
       </c>
       <c r="F53" t="n">
-        <v>45.9963</v>
+        <v>155671.9319</v>
       </c>
       <c r="G53" t="n">
-        <v>11.70650000000002</v>
+        <v>11.69950000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>11.77</v>
       </c>
       <c r="F54" t="n">
-        <v>175.0037</v>
+        <v>45.9963</v>
       </c>
       <c r="G54" t="n">
-        <v>11.71350000000002</v>
+        <v>11.70650000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>11.77</v>
       </c>
       <c r="C55" t="n">
-        <v>11.58</v>
+        <v>11.77</v>
       </c>
       <c r="D55" t="n">
         <v>11.77</v>
       </c>
       <c r="E55" t="n">
-        <v>11.58</v>
+        <v>11.77</v>
       </c>
       <c r="F55" t="n">
-        <v>126173.3262</v>
+        <v>175.0037</v>
       </c>
       <c r="G55" t="n">
-        <v>11.71733333333335</v>
+        <v>11.71350000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="C56" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="D56" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="E56" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="F56" t="n">
-        <v>44.4444</v>
+        <v>126173.3262</v>
       </c>
       <c r="G56" t="n">
         <v>11.71733333333335</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="C57" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="D57" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="E57" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="F57" t="n">
-        <v>81756.8518</v>
+        <v>44.4444</v>
       </c>
       <c r="G57" t="n">
-        <v>11.71133333333335</v>
+        <v>11.71733333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.53</v>
+        <v>11.58</v>
       </c>
       <c r="C58" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="D58" t="n">
-        <v>11.53</v>
+        <v>11.58</v>
       </c>
       <c r="E58" t="n">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
       <c r="F58" t="n">
-        <v>867.3026886383348</v>
+        <v>81756.8518</v>
       </c>
       <c r="G58" t="n">
-        <v>11.70550000000002</v>
+        <v>11.71133333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.47</v>
+        <v>11.53</v>
       </c>
       <c r="C59" t="n">
-        <v>11.47</v>
+        <v>11.53</v>
       </c>
       <c r="D59" t="n">
-        <v>11.47</v>
+        <v>11.53</v>
       </c>
       <c r="E59" t="n">
-        <v>11.47</v>
+        <v>11.53</v>
       </c>
       <c r="F59" t="n">
-        <v>7653.1143</v>
+        <v>867.3026886383348</v>
       </c>
       <c r="G59" t="n">
-        <v>11.70166666666668</v>
+        <v>11.70550000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.53</v>
+        <v>11.47</v>
       </c>
       <c r="C60" t="n">
-        <v>11.53</v>
+        <v>11.47</v>
       </c>
       <c r="D60" t="n">
-        <v>11.53</v>
+        <v>11.47</v>
       </c>
       <c r="E60" t="n">
-        <v>11.53</v>
+        <v>11.47</v>
       </c>
       <c r="F60" t="n">
-        <v>300</v>
+        <v>7653.1143</v>
       </c>
       <c r="G60" t="n">
-        <v>11.70050000000002</v>
+        <v>11.70166666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.47</v>
+        <v>11.53</v>
       </c>
       <c r="C61" t="n">
-        <v>11.34</v>
+        <v>11.53</v>
       </c>
       <c r="D61" t="n">
-        <v>11.47</v>
+        <v>11.53</v>
       </c>
       <c r="E61" t="n">
-        <v>11.34</v>
+        <v>11.53</v>
       </c>
       <c r="F61" t="n">
-        <v>95459.30039999999</v>
+        <v>300</v>
       </c>
       <c r="G61" t="n">
-        <v>11.69866666666668</v>
+        <v>11.70050000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.68</v>
+        <v>11.47</v>
       </c>
       <c r="C62" t="n">
-        <v>11.68</v>
+        <v>11.34</v>
       </c>
       <c r="D62" t="n">
-        <v>11.68</v>
+        <v>11.47</v>
       </c>
       <c r="E62" t="n">
-        <v>11.68</v>
+        <v>11.34</v>
       </c>
       <c r="F62" t="n">
-        <v>43</v>
+        <v>95459.30039999999</v>
       </c>
       <c r="G62" t="n">
-        <v>11.70216666666668</v>
+        <v>11.69866666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.49</v>
+        <v>11.68</v>
       </c>
       <c r="C63" t="n">
-        <v>11.49</v>
+        <v>11.68</v>
       </c>
       <c r="D63" t="n">
-        <v>11.49</v>
+        <v>11.68</v>
       </c>
       <c r="E63" t="n">
-        <v>11.49</v>
+        <v>11.68</v>
       </c>
       <c r="F63" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63" t="n">
-        <v>11.70250000000001</v>
+        <v>11.70216666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>11.49</v>
       </c>
       <c r="C64" t="n">
-        <v>11.48</v>
+        <v>11.49</v>
       </c>
       <c r="D64" t="n">
         <v>11.49</v>
       </c>
       <c r="E64" t="n">
-        <v>11.48</v>
+        <v>11.49</v>
       </c>
       <c r="F64" t="n">
-        <v>22488</v>
+        <v>44</v>
       </c>
       <c r="G64" t="n">
-        <v>11.70283333333335</v>
+        <v>11.70250000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.4</v>
+        <v>11.49</v>
       </c>
       <c r="C65" t="n">
-        <v>11.36</v>
+        <v>11.48</v>
       </c>
       <c r="D65" t="n">
-        <v>11.46</v>
+        <v>11.49</v>
       </c>
       <c r="E65" t="n">
-        <v>11.36</v>
+        <v>11.48</v>
       </c>
       <c r="F65" t="n">
-        <v>69341.9325</v>
+        <v>22488</v>
       </c>
       <c r="G65" t="n">
-        <v>11.69766666666668</v>
+        <v>11.70283333333335</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>11.4</v>
       </c>
       <c r="C66" t="n">
-        <v>11.4</v>
+        <v>11.36</v>
       </c>
       <c r="D66" t="n">
-        <v>11.4</v>
+        <v>11.46</v>
       </c>
       <c r="E66" t="n">
-        <v>11.4</v>
+        <v>11.36</v>
       </c>
       <c r="F66" t="n">
-        <v>867.3026</v>
+        <v>69341.9325</v>
       </c>
       <c r="G66" t="n">
-        <v>11.69466666666668</v>
+        <v>11.69766666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>11.4</v>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>867.3026</v>
       </c>
       <c r="G67" t="n">
-        <v>11.69016666666668</v>
+        <v>11.69466666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>11.4</v>
       </c>
       <c r="F68" t="n">
-        <v>1546.893</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>11.68733333333335</v>
+        <v>11.69016666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.69</v>
+        <v>11.4</v>
       </c>
       <c r="C69" t="n">
-        <v>11.69</v>
+        <v>11.4</v>
       </c>
       <c r="D69" t="n">
-        <v>11.69</v>
+        <v>11.4</v>
       </c>
       <c r="E69" t="n">
-        <v>11.69</v>
+        <v>11.4</v>
       </c>
       <c r="F69" t="n">
-        <v>8062</v>
+        <v>1546.893</v>
       </c>
       <c r="G69" t="n">
-        <v>11.68883333333335</v>
+        <v>11.68733333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,23 +2825,19 @@
         <v>11.69</v>
       </c>
       <c r="F70" t="n">
-        <v>7968.4292</v>
+        <v>8062</v>
       </c>
       <c r="G70" t="n">
-        <v>11.69083333333335</v>
+        <v>11.68883333333335</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K70" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
@@ -2852,40 +2848,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="C71" t="n">
-        <v>11.4</v>
+        <v>11.69</v>
       </c>
       <c r="D71" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="E71" t="n">
-        <v>11.4</v>
+        <v>11.69</v>
       </c>
       <c r="F71" t="n">
-        <v>109763.7252</v>
+        <v>7968.4292</v>
       </c>
       <c r="G71" t="n">
-        <v>11.68800000000001</v>
+        <v>11.69083333333335</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K71" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.41</v>
+        <v>11.5</v>
       </c>
       <c r="C72" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
       </c>
       <c r="D72" t="n">
-        <v>11.41</v>
+        <v>11.5</v>
       </c>
       <c r="E72" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
       </c>
       <c r="F72" t="n">
-        <v>9875.2698</v>
+        <v>109763.7252</v>
       </c>
       <c r="G72" t="n">
-        <v>11.68533333333334</v>
+        <v>11.68800000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2919,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2948,28 +2930,20 @@
         <v>11.41</v>
       </c>
       <c r="F73" t="n">
-        <v>1320</v>
+        <v>9875.2698</v>
       </c>
       <c r="G73" t="n">
-        <v>11.68383333333334</v>
+        <v>11.68533333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2982,19 +2956,19 @@
         <v>11.41</v>
       </c>
       <c r="C74" t="n">
-        <v>11.33</v>
+        <v>11.41</v>
       </c>
       <c r="D74" t="n">
         <v>11.41</v>
       </c>
       <c r="E74" t="n">
-        <v>11.33</v>
+        <v>11.41</v>
       </c>
       <c r="F74" t="n">
-        <v>30931.6558</v>
+        <v>1320</v>
       </c>
       <c r="G74" t="n">
-        <v>11.67933333333334</v>
+        <v>11.68383333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3003,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3020,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.4</v>
+        <v>11.41</v>
       </c>
       <c r="C75" t="n">
-        <v>11.4</v>
+        <v>11.33</v>
       </c>
       <c r="D75" t="n">
-        <v>11.4</v>
+        <v>11.41</v>
       </c>
       <c r="E75" t="n">
-        <v>11.4</v>
+        <v>11.33</v>
       </c>
       <c r="F75" t="n">
-        <v>6298.4444</v>
+        <v>30931.6558</v>
       </c>
       <c r="G75" t="n">
-        <v>11.67600000000001</v>
+        <v>11.67933333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3044,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3064,19 +3026,19 @@
         <v>11.4</v>
       </c>
       <c r="C76" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="D76" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="E76" t="n">
         <v>11.4</v>
       </c>
       <c r="F76" t="n">
-        <v>10000</v>
+        <v>6298.4444</v>
       </c>
       <c r="G76" t="n">
-        <v>11.67266666666668</v>
+        <v>11.67600000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3085,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3102,40 +3058,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.44</v>
+        <v>11.4</v>
       </c>
       <c r="C77" t="n">
-        <v>11.44</v>
+        <v>11.48</v>
       </c>
       <c r="D77" t="n">
-        <v>11.44</v>
+        <v>11.48</v>
       </c>
       <c r="E77" t="n">
-        <v>11.44</v>
+        <v>11.4</v>
       </c>
       <c r="F77" t="n">
-        <v>4620</v>
+        <v>10000</v>
       </c>
       <c r="G77" t="n">
-        <v>11.66850000000001</v>
+        <v>11.67266666666668</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3148,37 +3096,29 @@
         <v>11.44</v>
       </c>
       <c r="C78" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="D78" t="n">
         <v>11.44</v>
       </c>
       <c r="E78" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="F78" t="n">
-        <v>90</v>
+        <v>4620</v>
       </c>
       <c r="G78" t="n">
-        <v>11.66016666666668</v>
+        <v>11.66850000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K78" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3191,37 +3131,29 @@
         <v>11.44</v>
       </c>
       <c r="C79" t="n">
-        <v>11.44</v>
+        <v>11.35</v>
       </c>
       <c r="D79" t="n">
         <v>11.44</v>
       </c>
       <c r="E79" t="n">
-        <v>11.44</v>
+        <v>11.35</v>
       </c>
       <c r="F79" t="n">
-        <v>304.317</v>
+        <v>90</v>
       </c>
       <c r="G79" t="n">
-        <v>11.65500000000001</v>
+        <v>11.66016666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3231,40 +3163,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="C80" t="n">
-        <v>11.52</v>
+        <v>11.44</v>
       </c>
       <c r="D80" t="n">
-        <v>11.52</v>
+        <v>11.44</v>
       </c>
       <c r="E80" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="F80" t="n">
-        <v>691.1351</v>
+        <v>304.317</v>
       </c>
       <c r="G80" t="n">
         <v>11.65500000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3274,40 +3198,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.44</v>
+        <v>11.35</v>
       </c>
       <c r="C81" t="n">
-        <v>11.44</v>
+        <v>11.52</v>
       </c>
       <c r="D81" t="n">
-        <v>11.44</v>
+        <v>11.52</v>
       </c>
       <c r="E81" t="n">
-        <v>11.44</v>
+        <v>11.35</v>
       </c>
       <c r="F81" t="n">
-        <v>2026.3127</v>
+        <v>691.1351</v>
       </c>
       <c r="G81" t="n">
-        <v>11.64850000000001</v>
+        <v>11.65500000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3317,40 +3233,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="C82" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="D82" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="E82" t="n">
-        <v>11.35</v>
+        <v>11.44</v>
       </c>
       <c r="F82" t="n">
-        <v>24493.0858</v>
+        <v>2026.3127</v>
       </c>
       <c r="G82" t="n">
-        <v>11.64400000000001</v>
+        <v>11.64850000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K82" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3363,19 +3271,19 @@
         <v>11.35</v>
       </c>
       <c r="C83" t="n">
-        <v>11.33</v>
+        <v>11.35</v>
       </c>
       <c r="D83" t="n">
         <v>11.35</v>
       </c>
       <c r="E83" t="n">
-        <v>11.33</v>
+        <v>11.35</v>
       </c>
       <c r="F83" t="n">
-        <v>21439.9596</v>
+        <v>24493.0858</v>
       </c>
       <c r="G83" t="n">
-        <v>11.63700000000001</v>
+        <v>11.64400000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3384,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3401,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C84" t="n">
         <v>11.33</v>
       </c>
-      <c r="C84" t="n">
-        <v>11.32</v>
-      </c>
       <c r="D84" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E84" t="n">
         <v>11.33</v>
       </c>
-      <c r="E84" t="n">
-        <v>11.32</v>
-      </c>
       <c r="F84" t="n">
-        <v>17289.2597</v>
+        <v>21439.9596</v>
       </c>
       <c r="G84" t="n">
-        <v>11.63183333333335</v>
+        <v>11.63700000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3425,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3442,36 +3338,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.32</v>
+        <v>11.33</v>
       </c>
       <c r="C85" t="n">
         <v>11.32</v>
       </c>
       <c r="D85" t="n">
-        <v>11.32</v>
+        <v>11.33</v>
       </c>
       <c r="E85" t="n">
         <v>11.32</v>
       </c>
       <c r="F85" t="n">
-        <v>7793.2232</v>
+        <v>17289.2597</v>
       </c>
       <c r="G85" t="n">
-        <v>11.62300000000002</v>
+        <v>11.63183333333335</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J85" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3483,22 +3379,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="C86" t="n">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="D86" t="n">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="E86" t="n">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="F86" t="n">
         <v>7793.2232</v>
       </c>
       <c r="G86" t="n">
-        <v>11.61950000000001</v>
+        <v>11.62300000000002</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3509,9 +3405,7 @@
       <c r="J86" t="n">
         <v>11.32</v>
       </c>
-      <c r="K86" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,22 +3420,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.44</v>
+        <v>11.31</v>
       </c>
       <c r="C87" t="n">
-        <v>11.44</v>
+        <v>11.31</v>
       </c>
       <c r="D87" t="n">
-        <v>11.44</v>
+        <v>11.31</v>
       </c>
       <c r="E87" t="n">
-        <v>11.44</v>
+        <v>11.31</v>
       </c>
       <c r="F87" t="n">
-        <v>2187</v>
+        <v>7793.2232</v>
       </c>
       <c r="G87" t="n">
-        <v>11.61433333333335</v>
+        <v>11.61950000000001</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3550,11 +3444,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="K87" t="n">
-        <v>11.69</v>
-      </c>
+        <v>11.32</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,33 +3461,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.32</v>
+        <v>11.44</v>
       </c>
       <c r="C88" t="n">
-        <v>11.58</v>
+        <v>11.44</v>
       </c>
       <c r="D88" t="n">
-        <v>11.58</v>
+        <v>11.44</v>
       </c>
       <c r="E88" t="n">
-        <v>11.32</v>
+        <v>11.44</v>
       </c>
       <c r="F88" t="n">
-        <v>92317.895</v>
+        <v>2187</v>
       </c>
       <c r="G88" t="n">
-        <v>11.60900000000002</v>
+        <v>11.61433333333335</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J88" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,33 +3502,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.75</v>
+        <v>11.32</v>
       </c>
       <c r="C89" t="n">
-        <v>11.75</v>
+        <v>11.58</v>
       </c>
       <c r="D89" t="n">
-        <v>11.75</v>
+        <v>11.58</v>
       </c>
       <c r="E89" t="n">
-        <v>11.75</v>
+        <v>11.32</v>
       </c>
       <c r="F89" t="n">
-        <v>111</v>
+        <v>92317.895</v>
       </c>
       <c r="G89" t="n">
-        <v>11.60483333333335</v>
+        <v>11.60900000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J89" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,30 +3546,30 @@
         <v>11.75</v>
       </c>
       <c r="C90" t="n">
-        <v>11.95</v>
+        <v>11.75</v>
       </c>
       <c r="D90" t="n">
-        <v>11.95</v>
+        <v>11.75</v>
       </c>
       <c r="E90" t="n">
         <v>11.75</v>
       </c>
       <c r="F90" t="n">
-        <v>83568.1741</v>
+        <v>111</v>
       </c>
       <c r="G90" t="n">
-        <v>11.60400000000002</v>
+        <v>11.60483333333335</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J90" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,22 +3584,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.85</v>
+        <v>11.75</v>
       </c>
       <c r="C91" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="D91" t="n">
-        <v>11.85</v>
+        <v>11.95</v>
       </c>
       <c r="E91" t="n">
-        <v>11.85</v>
+        <v>11.75</v>
       </c>
       <c r="F91" t="n">
-        <v>180.573</v>
+        <v>83568.1741</v>
       </c>
       <c r="G91" t="n">
-        <v>11.60083333333335</v>
+        <v>11.60400000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3716,9 +3608,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,22 +3623,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.68</v>
+        <v>11.85</v>
       </c>
       <c r="C92" t="n">
-        <v>11.68</v>
+        <v>11.85</v>
       </c>
       <c r="D92" t="n">
-        <v>11.68</v>
+        <v>11.85</v>
       </c>
       <c r="E92" t="n">
-        <v>11.68</v>
+        <v>11.85</v>
       </c>
       <c r="F92" t="n">
-        <v>111</v>
+        <v>180.573</v>
       </c>
       <c r="G92" t="n">
-        <v>11.59550000000002</v>
+        <v>11.60083333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3757,9 +3647,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3774,22 +3662,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.46</v>
+        <v>11.68</v>
       </c>
       <c r="C93" t="n">
-        <v>11.46</v>
+        <v>11.68</v>
       </c>
       <c r="D93" t="n">
-        <v>11.46</v>
+        <v>11.68</v>
       </c>
       <c r="E93" t="n">
-        <v>11.46</v>
+        <v>11.68</v>
       </c>
       <c r="F93" t="n">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="G93" t="n">
-        <v>11.58583333333335</v>
+        <v>11.59550000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3798,9 +3686,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,22 +3701,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.85</v>
+        <v>11.46</v>
       </c>
       <c r="C94" t="n">
-        <v>11.85</v>
+        <v>11.46</v>
       </c>
       <c r="D94" t="n">
-        <v>11.85</v>
+        <v>11.46</v>
       </c>
       <c r="E94" t="n">
-        <v>11.85</v>
+        <v>11.46</v>
       </c>
       <c r="F94" t="n">
-        <v>13293.7685</v>
+        <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>11.58350000000002</v>
+        <v>11.58583333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3839,9 +3725,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3868,10 +3752,10 @@
         <v>11.85</v>
       </c>
       <c r="F95" t="n">
-        <v>444</v>
+        <v>13293.7685</v>
       </c>
       <c r="G95" t="n">
-        <v>11.58050000000002</v>
+        <v>11.58350000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3880,9 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,10 +3791,10 @@
         <v>11.85</v>
       </c>
       <c r="F96" t="n">
-        <v>5889.0538</v>
+        <v>444</v>
       </c>
       <c r="G96" t="n">
-        <v>11.57966666666669</v>
+        <v>11.58050000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3921,9 +3803,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,22 +3818,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.8</v>
+        <v>11.85</v>
       </c>
       <c r="C97" t="n">
-        <v>11.8</v>
+        <v>11.85</v>
       </c>
       <c r="D97" t="n">
-        <v>11.8</v>
+        <v>11.85</v>
       </c>
       <c r="E97" t="n">
-        <v>11.8</v>
+        <v>11.85</v>
       </c>
       <c r="F97" t="n">
-        <v>4741.0172</v>
+        <v>5889.0538</v>
       </c>
       <c r="G97" t="n">
-        <v>11.58133333333335</v>
+        <v>11.57966666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3962,9 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,22 +3857,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="C98" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="D98" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="E98" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="F98" t="n">
-        <v>19626.8223</v>
+        <v>4741.0172</v>
       </c>
       <c r="G98" t="n">
-        <v>11.57483333333335</v>
+        <v>11.58133333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4003,9 +3881,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4032,10 +3908,10 @@
         <v>11.5</v>
       </c>
       <c r="F99" t="n">
-        <v>2945</v>
+        <v>19626.8223</v>
       </c>
       <c r="G99" t="n">
-        <v>11.57300000000002</v>
+        <v>11.57483333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4044,9 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,10 +3947,10 @@
         <v>11.5</v>
       </c>
       <c r="F100" t="n">
-        <v>9430</v>
+        <v>2945</v>
       </c>
       <c r="G100" t="n">
-        <v>11.56833333333335</v>
+        <v>11.57300000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4085,9 +3959,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,22 +3974,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C101" t="n">
-        <v>11.45</v>
+        <v>11.5</v>
       </c>
       <c r="D101" t="n">
-        <v>11.45</v>
+        <v>11.5</v>
       </c>
       <c r="E101" t="n">
-        <v>11.36</v>
+        <v>11.5</v>
       </c>
       <c r="F101" t="n">
-        <v>49153.6949</v>
+        <v>9430</v>
       </c>
       <c r="G101" t="n">
-        <v>11.56300000000002</v>
+        <v>11.56833333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4126,9 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,22 +4013,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="C102" t="n">
-        <v>11.35</v>
+        <v>11.45</v>
       </c>
       <c r="D102" t="n">
-        <v>11.35</v>
+        <v>11.45</v>
       </c>
       <c r="E102" t="n">
-        <v>11.35</v>
+        <v>11.36</v>
       </c>
       <c r="F102" t="n">
-        <v>4741.0172</v>
+        <v>49153.6949</v>
       </c>
       <c r="G102" t="n">
-        <v>11.55716666666669</v>
+        <v>11.56300000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4167,9 +4037,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,22 +4052,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.45</v>
+        <v>11.35</v>
       </c>
       <c r="C103" t="n">
-        <v>11.45</v>
+        <v>11.35</v>
       </c>
       <c r="D103" t="n">
-        <v>11.45</v>
+        <v>11.35</v>
       </c>
       <c r="E103" t="n">
-        <v>11.45</v>
+        <v>11.35</v>
       </c>
       <c r="F103" t="n">
-        <v>3757.4542</v>
+        <v>4741.0172</v>
       </c>
       <c r="G103" t="n">
-        <v>11.55300000000002</v>
+        <v>11.55716666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4208,9 +4076,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,22 +4091,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.5</v>
+        <v>11.45</v>
       </c>
       <c r="C104" t="n">
-        <v>11.5</v>
+        <v>11.45</v>
       </c>
       <c r="D104" t="n">
-        <v>11.5</v>
+        <v>11.45</v>
       </c>
       <c r="E104" t="n">
-        <v>11.5</v>
+        <v>11.45</v>
       </c>
       <c r="F104" t="n">
-        <v>8227.8974</v>
+        <v>3757.4542</v>
       </c>
       <c r="G104" t="n">
-        <v>11.54850000000002</v>
+        <v>11.55300000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4249,9 +4115,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4278,10 +4142,10 @@
         <v>11.5</v>
       </c>
       <c r="F105" t="n">
-        <v>79931.2273</v>
+        <v>8227.8974</v>
       </c>
       <c r="G105" t="n">
-        <v>11.54400000000002</v>
+        <v>11.54850000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4290,9 +4154,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,22 +4169,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C106" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D106" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E106" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>79931.2273</v>
       </c>
       <c r="G106" t="n">
-        <v>11.54283333333336</v>
+        <v>11.54400000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4331,9 +4193,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4360,10 +4220,10 @@
         <v>11.7</v>
       </c>
       <c r="F107" t="n">
-        <v>10739.7796</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
-        <v>11.54233333333335</v>
+        <v>11.54283333333336</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4372,9 +4232,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,10 +4259,10 @@
         <v>11.7</v>
       </c>
       <c r="F108" t="n">
-        <v>12856.2204</v>
+        <v>10739.7796</v>
       </c>
       <c r="G108" t="n">
-        <v>11.54116666666669</v>
+        <v>11.54233333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4413,9 +4271,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4430,22 +4286,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C109" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D109" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E109" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F109" t="n">
-        <v>1312.6896</v>
+        <v>12856.2204</v>
       </c>
       <c r="G109" t="n">
-        <v>11.54366666666669</v>
+        <v>11.54116666666669</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4454,9 +4310,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4471,22 +4325,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="C110" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="D110" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="E110" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="F110" t="n">
-        <v>9528</v>
+        <v>1312.6896</v>
       </c>
       <c r="G110" t="n">
-        <v>11.54750000000002</v>
+        <v>11.54366666666669</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4495,9 +4349,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4524,10 +4376,10 @@
         <v>11.88</v>
       </c>
       <c r="F111" t="n">
-        <v>1362.6896</v>
+        <v>9528</v>
       </c>
       <c r="G111" t="n">
-        <v>11.55133333333336</v>
+        <v>11.54750000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4536,9 +4388,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,19 +4406,19 @@
         <v>11.88</v>
       </c>
       <c r="C112" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="D112" t="n">
         <v>11.88</v>
       </c>
       <c r="E112" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="F112" t="n">
-        <v>115087.2076</v>
+        <v>1362.6896</v>
       </c>
       <c r="G112" t="n">
-        <v>11.55316666666669</v>
+        <v>11.55133333333336</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4577,9 +4427,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4594,22 +4442,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="C113" t="n">
         <v>11.7</v>
       </c>
       <c r="D113" t="n">
-        <v>11.7</v>
+        <v>11.88</v>
       </c>
       <c r="E113" t="n">
         <v>11.7</v>
       </c>
       <c r="F113" t="n">
-        <v>57870.5607</v>
+        <v>115087.2076</v>
       </c>
       <c r="G113" t="n">
-        <v>11.55200000000002</v>
+        <v>11.55316666666669</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4618,9 +4466,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4635,22 +4481,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.47</v>
+        <v>11.7</v>
       </c>
       <c r="C114" t="n">
-        <v>11.33</v>
+        <v>11.7</v>
       </c>
       <c r="D114" t="n">
-        <v>11.47</v>
+        <v>11.7</v>
       </c>
       <c r="E114" t="n">
-        <v>11.33</v>
+        <v>11.7</v>
       </c>
       <c r="F114" t="n">
-        <v>41106.326</v>
+        <v>57870.5607</v>
       </c>
       <c r="G114" t="n">
-        <v>11.54466666666669</v>
+        <v>11.55200000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4659,9 +4505,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4676,22 +4520,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.33</v>
+        <v>11.47</v>
       </c>
       <c r="C115" t="n">
         <v>11.33</v>
       </c>
       <c r="D115" t="n">
-        <v>11.33</v>
+        <v>11.47</v>
       </c>
       <c r="E115" t="n">
         <v>11.33</v>
       </c>
       <c r="F115" t="n">
-        <v>6128.6504</v>
+        <v>41106.326</v>
       </c>
       <c r="G115" t="n">
-        <v>11.54050000000003</v>
+        <v>11.54466666666669</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4700,9 +4544,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4717,22 +4559,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.66</v>
+        <v>11.33</v>
       </c>
       <c r="C116" t="n">
-        <v>11.66</v>
+        <v>11.33</v>
       </c>
       <c r="D116" t="n">
-        <v>11.66</v>
+        <v>11.33</v>
       </c>
       <c r="E116" t="n">
-        <v>11.66</v>
+        <v>11.33</v>
       </c>
       <c r="F116" t="n">
-        <v>50</v>
+        <v>6128.6504</v>
       </c>
       <c r="G116" t="n">
-        <v>11.54000000000002</v>
+        <v>11.54050000000003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4741,9 +4583,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4758,22 +4598,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.34</v>
+        <v>11.66</v>
       </c>
       <c r="C117" t="n">
-        <v>11.34</v>
+        <v>11.66</v>
       </c>
       <c r="D117" t="n">
-        <v>11.34</v>
+        <v>11.66</v>
       </c>
       <c r="E117" t="n">
-        <v>11.34</v>
+        <v>11.66</v>
       </c>
       <c r="F117" t="n">
-        <v>27489.874</v>
+        <v>50</v>
       </c>
       <c r="G117" t="n">
-        <v>11.53733333333336</v>
+        <v>11.54000000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4782,9 +4622,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4799,22 +4637,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.33</v>
+        <v>11.34</v>
       </c>
       <c r="C118" t="n">
-        <v>11.31</v>
+        <v>11.34</v>
       </c>
       <c r="D118" t="n">
-        <v>11.33</v>
+        <v>11.34</v>
       </c>
       <c r="E118" t="n">
-        <v>11.31</v>
+        <v>11.34</v>
       </c>
       <c r="F118" t="n">
-        <v>160261.6636</v>
+        <v>27489.874</v>
       </c>
       <c r="G118" t="n">
-        <v>11.53366666666669</v>
+        <v>11.53733333333336</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4823,9 +4661,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,10 +4676,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C119" t="n">
         <v>11.31</v>
-      </c>
-      <c r="C119" t="n">
-        <v>11.33</v>
       </c>
       <c r="D119" t="n">
         <v>11.33</v>
@@ -4852,10 +4688,10 @@
         <v>11.31</v>
       </c>
       <c r="F119" t="n">
-        <v>206491.5558</v>
+        <v>160261.6636</v>
       </c>
       <c r="G119" t="n">
-        <v>11.53133333333336</v>
+        <v>11.53366666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4864,9 +4700,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,22 +4715,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.34</v>
+        <v>11.31</v>
       </c>
       <c r="C120" t="n">
-        <v>11.34</v>
+        <v>11.33</v>
       </c>
       <c r="D120" t="n">
-        <v>11.34</v>
+        <v>11.33</v>
       </c>
       <c r="E120" t="n">
-        <v>11.34</v>
+        <v>11.31</v>
       </c>
       <c r="F120" t="n">
-        <v>24343.9073</v>
+        <v>206491.5558</v>
       </c>
       <c r="G120" t="n">
-        <v>11.52816666666669</v>
+        <v>11.53133333333336</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4905,9 +4739,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,22 +4754,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.26</v>
+        <v>11.34</v>
       </c>
       <c r="C121" t="n">
-        <v>11.25</v>
+        <v>11.34</v>
       </c>
       <c r="D121" t="n">
-        <v>11.26</v>
+        <v>11.34</v>
       </c>
       <c r="E121" t="n">
-        <v>11.25</v>
+        <v>11.34</v>
       </c>
       <c r="F121" t="n">
-        <v>14185.1265</v>
+        <v>24343.9073</v>
       </c>
       <c r="G121" t="n">
-        <v>11.52666666666669</v>
+        <v>11.52816666666669</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4946,9 +4778,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,19 +4796,19 @@
         <v>11.26</v>
       </c>
       <c r="C122" t="n">
-        <v>11.16</v>
+        <v>11.25</v>
       </c>
       <c r="D122" t="n">
         <v>11.26</v>
       </c>
       <c r="E122" t="n">
-        <v>11.16</v>
+        <v>11.25</v>
       </c>
       <c r="F122" t="n">
-        <v>32414.9306</v>
+        <v>14185.1265</v>
       </c>
       <c r="G122" t="n">
-        <v>11.51800000000003</v>
+        <v>11.52666666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4987,9 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5004,22 +4832,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.46</v>
+        <v>11.26</v>
       </c>
       <c r="C123" t="n">
-        <v>11.46</v>
+        <v>11.16</v>
       </c>
       <c r="D123" t="n">
-        <v>11.46</v>
+        <v>11.26</v>
       </c>
       <c r="E123" t="n">
-        <v>11.46</v>
+        <v>11.16</v>
       </c>
       <c r="F123" t="n">
-        <v>63.4077</v>
+        <v>32414.9306</v>
       </c>
       <c r="G123" t="n">
-        <v>11.51750000000002</v>
+        <v>11.51800000000003</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5028,9 +4856,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,22 +4871,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.3</v>
+        <v>11.46</v>
       </c>
       <c r="C124" t="n">
-        <v>11.3</v>
+        <v>11.46</v>
       </c>
       <c r="D124" t="n">
-        <v>11.3</v>
+        <v>11.46</v>
       </c>
       <c r="E124" t="n">
-        <v>11.3</v>
+        <v>11.46</v>
       </c>
       <c r="F124" t="n">
-        <v>5196.5185</v>
+        <v>63.4077</v>
       </c>
       <c r="G124" t="n">
-        <v>11.51450000000002</v>
+        <v>11.51750000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5069,9 +4895,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,10 +4922,10 @@
         <v>11.3</v>
       </c>
       <c r="F125" t="n">
-        <v>46768.6673</v>
+        <v>5196.5185</v>
       </c>
       <c r="G125" t="n">
-        <v>11.51350000000002</v>
+        <v>11.51450000000002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5110,9 +4934,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,10 +4961,10 @@
         <v>11.3</v>
       </c>
       <c r="F126" t="n">
-        <v>59686.2418</v>
+        <v>46768.6673</v>
       </c>
       <c r="G126" t="n">
-        <v>11.51183333333336</v>
+        <v>11.51350000000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5151,9 +4973,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5171,19 +4991,19 @@
         <v>11.3</v>
       </c>
       <c r="C127" t="n">
-        <v>11.16</v>
+        <v>11.3</v>
       </c>
       <c r="D127" t="n">
         <v>11.3</v>
       </c>
       <c r="E127" t="n">
-        <v>11.16</v>
+        <v>11.3</v>
       </c>
       <c r="F127" t="n">
-        <v>105957.3537</v>
+        <v>59686.2418</v>
       </c>
       <c r="G127" t="n">
-        <v>11.50783333333336</v>
+        <v>11.51183333333336</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5192,9 +5012,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,22 +5027,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.16</v>
+        <v>11.3</v>
       </c>
       <c r="C128" t="n">
         <v>11.16</v>
       </c>
       <c r="D128" t="n">
-        <v>11.16</v>
+        <v>11.3</v>
       </c>
       <c r="E128" t="n">
         <v>11.16</v>
       </c>
       <c r="F128" t="n">
-        <v>16895.602</v>
+        <v>105957.3537</v>
       </c>
       <c r="G128" t="n">
-        <v>11.50383333333336</v>
+        <v>11.50783333333336</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5233,9 +5051,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5253,19 +5069,19 @@
         <v>11.16</v>
       </c>
       <c r="C129" t="n">
-        <v>11.15</v>
+        <v>11.16</v>
       </c>
       <c r="D129" t="n">
         <v>11.16</v>
       </c>
       <c r="E129" t="n">
-        <v>11.15</v>
+        <v>11.16</v>
       </c>
       <c r="F129" t="n">
-        <v>10739.7796</v>
+        <v>16895.602</v>
       </c>
       <c r="G129" t="n">
-        <v>11.49483333333336</v>
+        <v>11.50383333333336</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5274,9 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,22 +5105,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.15</v>
+        <v>11.16</v>
       </c>
       <c r="C130" t="n">
         <v>11.15</v>
       </c>
       <c r="D130" t="n">
-        <v>11.15</v>
+        <v>11.16</v>
       </c>
       <c r="E130" t="n">
         <v>11.15</v>
       </c>
       <c r="F130" t="n">
-        <v>35740.6077</v>
+        <v>10739.7796</v>
       </c>
       <c r="G130" t="n">
-        <v>11.48583333333335</v>
+        <v>11.49483333333336</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5315,9 +5129,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,22 +5144,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.16</v>
+        <v>11.15</v>
       </c>
       <c r="C131" t="n">
         <v>11.15</v>
       </c>
       <c r="D131" t="n">
-        <v>11.16</v>
+        <v>11.15</v>
       </c>
       <c r="E131" t="n">
         <v>11.15</v>
       </c>
       <c r="F131" t="n">
-        <v>118354.2658</v>
+        <v>35740.6077</v>
       </c>
       <c r="G131" t="n">
-        <v>11.48166666666669</v>
+        <v>11.48583333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5356,9 +5168,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,33 +5183,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.21</v>
+        <v>11.16</v>
       </c>
       <c r="C132" t="n">
         <v>11.15</v>
       </c>
       <c r="D132" t="n">
-        <v>11.21</v>
+        <v>11.16</v>
       </c>
       <c r="E132" t="n">
         <v>11.15</v>
       </c>
       <c r="F132" t="n">
-        <v>105549.8255</v>
+        <v>118354.2658</v>
       </c>
       <c r="G132" t="n">
-        <v>11.47733333333335</v>
+        <v>11.48166666666669</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J132" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,22 +5224,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.34</v>
+        <v>11.21</v>
       </c>
       <c r="C133" t="n">
-        <v>11.57</v>
+        <v>11.15</v>
       </c>
       <c r="D133" t="n">
-        <v>11.57</v>
+        <v>11.21</v>
       </c>
       <c r="E133" t="n">
-        <v>11.34</v>
+        <v>11.15</v>
       </c>
       <c r="F133" t="n">
-        <v>174</v>
+        <v>105549.8255</v>
       </c>
       <c r="G133" t="n">
-        <v>11.48000000000002</v>
+        <v>11.47733333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5438,9 +5248,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5455,22 +5263,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.16</v>
+        <v>11.34</v>
       </c>
       <c r="C134" t="n">
-        <v>11.14</v>
+        <v>11.57</v>
       </c>
       <c r="D134" t="n">
-        <v>11.16</v>
+        <v>11.57</v>
       </c>
       <c r="E134" t="n">
-        <v>11.14</v>
+        <v>11.34</v>
       </c>
       <c r="F134" t="n">
-        <v>445536.7452</v>
+        <v>174</v>
       </c>
       <c r="G134" t="n">
-        <v>11.47683333333335</v>
+        <v>11.48000000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5479,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,22 +5302,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.56</v>
+        <v>11.16</v>
       </c>
       <c r="C135" t="n">
-        <v>11.56</v>
+        <v>11.14</v>
       </c>
       <c r="D135" t="n">
-        <v>11.56</v>
+        <v>11.16</v>
       </c>
       <c r="E135" t="n">
-        <v>11.56</v>
+        <v>11.14</v>
       </c>
       <c r="F135" t="n">
-        <v>44</v>
+        <v>445536.7452</v>
       </c>
       <c r="G135" t="n">
-        <v>11.47950000000002</v>
+        <v>11.47683333333335</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5520,9 +5326,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,22 +5341,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.38</v>
+        <v>11.56</v>
       </c>
       <c r="C136" t="n">
-        <v>11.54</v>
+        <v>11.56</v>
       </c>
       <c r="D136" t="n">
-        <v>11.54</v>
+        <v>11.56</v>
       </c>
       <c r="E136" t="n">
-        <v>11.38</v>
+        <v>11.56</v>
       </c>
       <c r="F136" t="n">
-        <v>36247.252</v>
+        <v>44</v>
       </c>
       <c r="G136" t="n">
-        <v>11.48050000000002</v>
+        <v>11.47950000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5561,9 +5365,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,22 +5380,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.55</v>
+        <v>11.38</v>
       </c>
       <c r="C137" t="n">
-        <v>11.55</v>
+        <v>11.54</v>
       </c>
       <c r="D137" t="n">
-        <v>11.55</v>
+        <v>11.54</v>
       </c>
       <c r="E137" t="n">
-        <v>11.55</v>
+        <v>11.38</v>
       </c>
       <c r="F137" t="n">
-        <v>43</v>
+        <v>36247.252</v>
       </c>
       <c r="G137" t="n">
-        <v>11.48233333333335</v>
+        <v>11.48050000000002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5602,9 +5404,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5622,19 +5422,19 @@
         <v>11.55</v>
       </c>
       <c r="C138" t="n">
-        <v>11.67</v>
+        <v>11.55</v>
       </c>
       <c r="D138" t="n">
-        <v>11.67</v>
+        <v>11.55</v>
       </c>
       <c r="E138" t="n">
         <v>11.55</v>
       </c>
       <c r="F138" t="n">
-        <v>24907.028</v>
+        <v>43</v>
       </c>
       <c r="G138" t="n">
-        <v>11.48766666666668</v>
+        <v>11.48233333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5643,9 +5443,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5660,22 +5458,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.68</v>
+        <v>11.55</v>
       </c>
       <c r="C139" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="D139" t="n">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="E139" t="n">
-        <v>11.68</v>
+        <v>11.55</v>
       </c>
       <c r="F139" t="n">
-        <v>43</v>
+        <v>24907.028</v>
       </c>
       <c r="G139" t="n">
-        <v>11.49166666666668</v>
+        <v>11.48766666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5684,9 +5482,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,22 +5497,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.43</v>
+        <v>11.68</v>
       </c>
       <c r="C140" t="n">
-        <v>11.56</v>
+        <v>11.68</v>
       </c>
       <c r="D140" t="n">
-        <v>11.56</v>
+        <v>11.68</v>
       </c>
       <c r="E140" t="n">
-        <v>11.43</v>
+        <v>11.68</v>
       </c>
       <c r="F140" t="n">
-        <v>15693</v>
+        <v>43</v>
       </c>
       <c r="G140" t="n">
-        <v>11.49233333333335</v>
+        <v>11.49166666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5725,9 +5521,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5745,19 +5539,19 @@
         <v>11.43</v>
       </c>
       <c r="C141" t="n">
-        <v>11.43</v>
+        <v>11.56</v>
       </c>
       <c r="D141" t="n">
-        <v>11.43</v>
+        <v>11.56</v>
       </c>
       <c r="E141" t="n">
         <v>11.43</v>
       </c>
       <c r="F141" t="n">
-        <v>9407</v>
+        <v>15693</v>
       </c>
       <c r="G141" t="n">
-        <v>11.49216666666668</v>
+        <v>11.49233333333335</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5766,9 +5560,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,22 +5575,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.33</v>
+        <v>11.43</v>
       </c>
       <c r="C142" t="n">
-        <v>11.33</v>
+        <v>11.43</v>
       </c>
       <c r="D142" t="n">
-        <v>11.33</v>
+        <v>11.43</v>
       </c>
       <c r="E142" t="n">
-        <v>11.33</v>
+        <v>11.43</v>
       </c>
       <c r="F142" t="n">
-        <v>87643.6419</v>
+        <v>9407</v>
       </c>
       <c r="G142" t="n">
-        <v>11.49183333333335</v>
+        <v>11.49216666666668</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5807,9 +5599,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,7 +5626,7 @@
         <v>11.33</v>
       </c>
       <c r="F143" t="n">
-        <v>10258</v>
+        <v>87643.6419</v>
       </c>
       <c r="G143" t="n">
         <v>11.49183333333335</v>
@@ -5848,9 +5638,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5865,22 +5653,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.23</v>
+        <v>11.33</v>
       </c>
       <c r="C144" t="n">
-        <v>11.21</v>
+        <v>11.33</v>
       </c>
       <c r="D144" t="n">
-        <v>11.23</v>
+        <v>11.33</v>
       </c>
       <c r="E144" t="n">
-        <v>11.21</v>
+        <v>11.33</v>
       </c>
       <c r="F144" t="n">
-        <v>61056.3106</v>
+        <v>10258</v>
       </c>
       <c r="G144" t="n">
-        <v>11.49000000000001</v>
+        <v>11.49183333333335</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5889,9 +5677,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,22 +5692,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.33</v>
+        <v>11.23</v>
       </c>
       <c r="C145" t="n">
-        <v>11.33</v>
+        <v>11.21</v>
       </c>
       <c r="D145" t="n">
-        <v>11.33</v>
+        <v>11.23</v>
       </c>
       <c r="E145" t="n">
-        <v>11.33</v>
+        <v>11.21</v>
       </c>
       <c r="F145" t="n">
-        <v>11045.6239</v>
+        <v>61056.3106</v>
       </c>
       <c r="G145" t="n">
-        <v>11.49016666666668</v>
+        <v>11.49000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5930,9 +5716,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,22 +5731,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.56</v>
+        <v>11.33</v>
       </c>
       <c r="C146" t="n">
-        <v>11.56</v>
+        <v>11.33</v>
       </c>
       <c r="D146" t="n">
-        <v>11.56</v>
+        <v>11.33</v>
       </c>
       <c r="E146" t="n">
-        <v>11.56</v>
+        <v>11.33</v>
       </c>
       <c r="F146" t="n">
-        <v>44</v>
+        <v>11045.6239</v>
       </c>
       <c r="G146" t="n">
-        <v>11.49433333333335</v>
+        <v>11.49016666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5971,9 +5755,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,22 +5770,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.25</v>
+        <v>11.56</v>
       </c>
       <c r="C147" t="n">
-        <v>11.21</v>
+        <v>11.56</v>
       </c>
       <c r="D147" t="n">
-        <v>11.25</v>
+        <v>11.56</v>
       </c>
       <c r="E147" t="n">
-        <v>11.21</v>
+        <v>11.56</v>
       </c>
       <c r="F147" t="n">
-        <v>82450.52929999999</v>
+        <v>44</v>
       </c>
       <c r="G147" t="n">
-        <v>11.49050000000001</v>
+        <v>11.49433333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6012,9 +5794,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,22 +5809,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.41</v>
+        <v>11.25</v>
       </c>
       <c r="C148" t="n">
-        <v>11.41</v>
+        <v>11.21</v>
       </c>
       <c r="D148" t="n">
-        <v>11.41</v>
+        <v>11.25</v>
       </c>
       <c r="E148" t="n">
-        <v>11.41</v>
+        <v>11.21</v>
       </c>
       <c r="F148" t="n">
-        <v>44</v>
+        <v>82450.52929999999</v>
       </c>
       <c r="G148" t="n">
-        <v>11.48766666666668</v>
+        <v>11.49050000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6053,9 +5833,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6070,22 +5848,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.24</v>
+        <v>11.41</v>
       </c>
       <c r="C149" t="n">
-        <v>11.24</v>
+        <v>11.41</v>
       </c>
       <c r="D149" t="n">
-        <v>11.24</v>
+        <v>11.41</v>
       </c>
       <c r="E149" t="n">
-        <v>11.24</v>
+        <v>11.41</v>
       </c>
       <c r="F149" t="n">
-        <v>20697.0193</v>
+        <v>44</v>
       </c>
       <c r="G149" t="n">
-        <v>11.47916666666668</v>
+        <v>11.48766666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6094,9 +5872,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,22 +5887,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.42</v>
+        <v>11.24</v>
       </c>
       <c r="C150" t="n">
-        <v>11.42</v>
+        <v>11.24</v>
       </c>
       <c r="D150" t="n">
-        <v>11.42</v>
+        <v>11.24</v>
       </c>
       <c r="E150" t="n">
-        <v>11.42</v>
+        <v>11.24</v>
       </c>
       <c r="F150" t="n">
-        <v>44</v>
+        <v>20697.0193</v>
       </c>
       <c r="G150" t="n">
-        <v>11.47033333333334</v>
+        <v>11.47916666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6135,9 +5911,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,22 +5926,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.38</v>
+        <v>11.42</v>
       </c>
       <c r="C151" t="n">
-        <v>11.38</v>
+        <v>11.42</v>
       </c>
       <c r="D151" t="n">
-        <v>11.38</v>
+        <v>11.42</v>
       </c>
       <c r="E151" t="n">
-        <v>11.38</v>
+        <v>11.42</v>
       </c>
       <c r="F151" t="n">
-        <v>8629.893</v>
+        <v>44</v>
       </c>
       <c r="G151" t="n">
-        <v>11.46250000000001</v>
+        <v>11.47033333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6176,9 +5950,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6193,22 +5965,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.37</v>
+        <v>11.38</v>
       </c>
       <c r="C152" t="n">
-        <v>11.52</v>
+        <v>11.38</v>
       </c>
       <c r="D152" t="n">
-        <v>11.52</v>
+        <v>11.38</v>
       </c>
       <c r="E152" t="n">
-        <v>11.36</v>
+        <v>11.38</v>
       </c>
       <c r="F152" t="n">
-        <v>55397</v>
+        <v>8629.893</v>
       </c>
       <c r="G152" t="n">
-        <v>11.45983333333334</v>
+        <v>11.46250000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6217,9 +5989,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,22 +6004,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.5</v>
+        <v>11.37</v>
       </c>
       <c r="C153" t="n">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="D153" t="n">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="E153" t="n">
-        <v>11.5</v>
+        <v>11.36</v>
       </c>
       <c r="F153" t="n">
-        <v>76540.1018</v>
+        <v>55397</v>
       </c>
       <c r="G153" t="n">
-        <v>11.46050000000001</v>
+        <v>11.45983333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6258,9 +6028,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6275,22 +6043,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="C154" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="D154" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="E154" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="F154" t="n">
-        <v>191426.2669</v>
+        <v>76540.1018</v>
       </c>
       <c r="G154" t="n">
-        <v>11.45550000000001</v>
+        <v>11.46050000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6299,9 +6067,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,22 +6082,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.67</v>
+        <v>11.54</v>
       </c>
       <c r="C155" t="n">
-        <v>11.67</v>
+        <v>11.55</v>
       </c>
       <c r="D155" t="n">
-        <v>11.67</v>
+        <v>11.55</v>
       </c>
       <c r="E155" t="n">
-        <v>11.67</v>
+        <v>11.54</v>
       </c>
       <c r="F155" t="n">
-        <v>8191.1566</v>
+        <v>191426.2669</v>
       </c>
       <c r="G155" t="n">
-        <v>11.45250000000001</v>
+        <v>11.45550000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6340,9 +6106,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6357,22 +6121,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="C156" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="D156" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="E156" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="F156" t="n">
-        <v>87</v>
+        <v>8191.1566</v>
       </c>
       <c r="G156" t="n">
-        <v>11.45333333333334</v>
+        <v>11.45250000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6381,9 +6145,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,22 +6160,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C157" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="D157" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="E157" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="F157" t="n">
-        <v>117.8273</v>
+        <v>87</v>
       </c>
       <c r="G157" t="n">
-        <v>11.45483333333334</v>
+        <v>11.45333333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6422,9 +6184,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,22 +6199,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.68</v>
+        <v>11.89</v>
       </c>
       <c r="C158" t="n">
-        <v>11.68</v>
+        <v>11.89</v>
       </c>
       <c r="D158" t="n">
-        <v>11.68</v>
+        <v>11.89</v>
       </c>
       <c r="E158" t="n">
-        <v>11.68</v>
+        <v>11.89</v>
       </c>
       <c r="F158" t="n">
-        <v>11353.1944</v>
+        <v>117.8273</v>
       </c>
       <c r="G158" t="n">
-        <v>11.45783333333334</v>
+        <v>11.45483333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6463,9 +6223,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6480,22 +6238,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.83</v>
+        <v>11.68</v>
       </c>
       <c r="C159" t="n">
-        <v>11.83</v>
+        <v>11.68</v>
       </c>
       <c r="D159" t="n">
-        <v>11.83</v>
+        <v>11.68</v>
       </c>
       <c r="E159" t="n">
-        <v>11.83</v>
+        <v>11.68</v>
       </c>
       <c r="F159" t="n">
-        <v>45</v>
+        <v>11353.1944</v>
       </c>
       <c r="G159" t="n">
-        <v>11.46333333333334</v>
+        <v>11.45783333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6504,9 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6521,22 +6277,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.87</v>
+        <v>11.83</v>
       </c>
       <c r="C160" t="n">
-        <v>11.87</v>
+        <v>11.83</v>
       </c>
       <c r="D160" t="n">
-        <v>11.87</v>
+        <v>11.83</v>
       </c>
       <c r="E160" t="n">
-        <v>11.87</v>
+        <v>11.83</v>
       </c>
       <c r="F160" t="n">
         <v>45</v>
       </c>
       <c r="G160" t="n">
-        <v>11.46950000000001</v>
+        <v>11.46333333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6545,9 +6301,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,22 +6316,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.55</v>
+        <v>11.87</v>
       </c>
       <c r="C161" t="n">
-        <v>11.55</v>
+        <v>11.87</v>
       </c>
       <c r="D161" t="n">
-        <v>11.55</v>
+        <v>11.87</v>
       </c>
       <c r="E161" t="n">
-        <v>11.55</v>
+        <v>11.87</v>
       </c>
       <c r="F161" t="n">
-        <v>25086.8452</v>
+        <v>45</v>
       </c>
       <c r="G161" t="n">
-        <v>11.47116666666667</v>
+        <v>11.46950000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6586,9 +6340,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6603,7 +6355,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.5</v>
+        <v>11.55</v>
       </c>
       <c r="C162" t="n">
         <v>11.55</v>
@@ -6612,13 +6364,13 @@
         <v>11.55</v>
       </c>
       <c r="E162" t="n">
-        <v>11.41</v>
+        <v>11.55</v>
       </c>
       <c r="F162" t="n">
-        <v>120686.6755</v>
+        <v>25086.8452</v>
       </c>
       <c r="G162" t="n">
-        <v>11.4745</v>
+        <v>11.47116666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6627,9 +6379,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6644,7 +6394,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C163" t="n">
         <v>11.55</v>
@@ -6653,13 +6403,13 @@
         <v>11.55</v>
       </c>
       <c r="E163" t="n">
-        <v>11.4</v>
+        <v>11.41</v>
       </c>
       <c r="F163" t="n">
-        <v>4140</v>
+        <v>120686.6755</v>
       </c>
       <c r="G163" t="n">
-        <v>11.47616666666667</v>
+        <v>11.4745</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6668,9 +6418,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,19 +6433,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C164" t="n">
-        <v>11.5</v>
+        <v>11.55</v>
       </c>
       <c r="D164" t="n">
-        <v>11.5</v>
+        <v>11.55</v>
       </c>
       <c r="E164" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F164" t="n">
-        <v>23404</v>
+        <v>4140</v>
       </c>
       <c r="G164" t="n">
         <v>11.47616666666667</v>
@@ -6709,9 +6457,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6726,22 +6472,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="C165" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="D165" t="n">
-        <v>11.55</v>
+        <v>11.5</v>
       </c>
       <c r="E165" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="F165" t="n">
-        <v>135</v>
+        <v>23404</v>
       </c>
       <c r="G165" t="n">
-        <v>11.477</v>
+        <v>11.47616666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6750,9 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6767,22 +6511,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>11.4</v>
+        <v>11.55</v>
       </c>
       <c r="C166" t="n">
-        <v>11.4</v>
+        <v>11.55</v>
       </c>
       <c r="D166" t="n">
-        <v>11.4</v>
+        <v>11.55</v>
       </c>
       <c r="E166" t="n">
-        <v>11.4</v>
+        <v>11.54</v>
       </c>
       <c r="F166" t="n">
-        <v>1159.6647</v>
+        <v>135</v>
       </c>
       <c r="G166" t="n">
-        <v>11.472</v>
+        <v>11.477</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6791,9 +6535,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,22 +6550,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="C167" t="n">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="D167" t="n">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="E167" t="n">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>1159.6647</v>
       </c>
       <c r="G167" t="n">
-        <v>11.46933333333333</v>
+        <v>11.472</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6832,9 +6574,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6849,22 +6589,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>11.55</v>
+        <v>11.54</v>
       </c>
       <c r="C168" t="n">
-        <v>11.55</v>
+        <v>11.54</v>
       </c>
       <c r="D168" t="n">
-        <v>11.55</v>
+        <v>11.54</v>
       </c>
       <c r="E168" t="n">
-        <v>11.55</v>
+        <v>11.54</v>
       </c>
       <c r="F168" t="n">
-        <v>32719.7556</v>
+        <v>50</v>
       </c>
       <c r="G168" t="n">
-        <v>11.46683333333333</v>
+        <v>11.46933333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6873,9 +6613,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,22 +6628,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="C169" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="D169" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="E169" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>32719.7556</v>
       </c>
       <c r="G169" t="n">
-        <v>11.4665</v>
+        <v>11.46683333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6914,9 +6652,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,22 +6667,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.67</v>
+        <v>11.78</v>
       </c>
       <c r="C170" t="n">
-        <v>11.67</v>
+        <v>11.78</v>
       </c>
       <c r="D170" t="n">
-        <v>11.67</v>
+        <v>11.78</v>
       </c>
       <c r="E170" t="n">
-        <v>11.67</v>
+        <v>11.78</v>
       </c>
       <c r="F170" t="n">
-        <v>9425.878320479864</v>
+        <v>50</v>
       </c>
       <c r="G170" t="n">
-        <v>11.463</v>
+        <v>11.4665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6955,9 +6691,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,22 +6706,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="C171" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="D171" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="E171" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="F171" t="n">
-        <v>43</v>
+        <v>9425.878320479864</v>
       </c>
       <c r="G171" t="n">
-        <v>11.46133333333333</v>
+        <v>11.463</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6996,9 +6730,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,22 +6745,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.61</v>
+        <v>11.78</v>
       </c>
       <c r="C172" t="n">
-        <v>11.51</v>
+        <v>11.78</v>
       </c>
       <c r="D172" t="n">
-        <v>11.61</v>
+        <v>11.78</v>
       </c>
       <c r="E172" t="n">
-        <v>11.51</v>
+        <v>11.78</v>
       </c>
       <c r="F172" t="n">
-        <v>13794.8974</v>
+        <v>43</v>
       </c>
       <c r="G172" t="n">
-        <v>11.45816666666666</v>
+        <v>11.46133333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7037,9 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7054,22 +6784,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>11.77</v>
+        <v>11.61</v>
       </c>
       <c r="C173" t="n">
-        <v>11.77</v>
+        <v>11.51</v>
       </c>
       <c r="D173" t="n">
-        <v>11.77</v>
+        <v>11.61</v>
       </c>
       <c r="E173" t="n">
-        <v>11.77</v>
+        <v>11.51</v>
       </c>
       <c r="F173" t="n">
-        <v>43</v>
+        <v>13794.8974</v>
       </c>
       <c r="G173" t="n">
-        <v>11.45933333333333</v>
+        <v>11.45816666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7078,9 +6808,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,22 +6823,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="C174" t="n">
-        <v>11.78</v>
+        <v>11.77</v>
       </c>
       <c r="D174" t="n">
-        <v>11.78</v>
+        <v>11.77</v>
       </c>
       <c r="E174" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="F174" t="n">
-        <v>56753.05</v>
+        <v>43</v>
       </c>
       <c r="G174" t="n">
-        <v>11.46683333333333</v>
+        <v>11.45933333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7119,9 +6847,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,7 +6862,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="C175" t="n">
         <v>11.78</v>
@@ -7145,13 +6871,13 @@
         <v>11.78</v>
       </c>
       <c r="E175" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="F175" t="n">
-        <v>19720</v>
+        <v>56753.05</v>
       </c>
       <c r="G175" t="n">
-        <v>11.47433333333333</v>
+        <v>11.46683333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7160,9 +6886,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,19 +6904,19 @@
         <v>11.78</v>
       </c>
       <c r="C176" t="n">
-        <v>11.68</v>
+        <v>11.78</v>
       </c>
       <c r="D176" t="n">
         <v>11.78</v>
       </c>
       <c r="E176" t="n">
-        <v>11.55</v>
+        <v>11.78</v>
       </c>
       <c r="F176" t="n">
-        <v>119194</v>
+        <v>19720</v>
       </c>
       <c r="G176" t="n">
-        <v>11.47466666666666</v>
+        <v>11.47433333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7201,9 +6925,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7221,19 +6943,19 @@
         <v>11.78</v>
       </c>
       <c r="C177" t="n">
-        <v>11.78</v>
+        <v>11.68</v>
       </c>
       <c r="D177" t="n">
         <v>11.78</v>
       </c>
       <c r="E177" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="F177" t="n">
-        <v>93</v>
+        <v>119194</v>
       </c>
       <c r="G177" t="n">
-        <v>11.48199999999999</v>
+        <v>11.47466666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7242,9 +6964,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7259,22 +6979,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>11.59</v>
+        <v>11.78</v>
       </c>
       <c r="C178" t="n">
-        <v>11.59</v>
+        <v>11.78</v>
       </c>
       <c r="D178" t="n">
-        <v>11.59</v>
+        <v>11.78</v>
       </c>
       <c r="E178" t="n">
-        <v>11.59</v>
+        <v>11.78</v>
       </c>
       <c r="F178" t="n">
-        <v>257.2245</v>
+        <v>93</v>
       </c>
       <c r="G178" t="n">
-        <v>11.48666666666666</v>
+        <v>11.48199999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7283,9 +7003,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,22 +7018,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="C179" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="D179" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="E179" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="F179" t="n">
-        <v>35157</v>
+        <v>257.2245</v>
       </c>
       <c r="G179" t="n">
-        <v>11.48783333333333</v>
+        <v>11.48666666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7324,9 +7042,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7341,22 +7057,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>11.31</v>
+        <v>11.4</v>
       </c>
       <c r="C180" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D180" t="n">
-        <v>11.31</v>
+        <v>11.4</v>
       </c>
       <c r="E180" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="F180" t="n">
-        <v>35100</v>
+        <v>35157</v>
       </c>
       <c r="G180" t="n">
-        <v>11.48716666666666</v>
+        <v>11.48783333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7365,9 +7081,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7382,19 +7096,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C181" t="n">
         <v>11.3</v>
       </c>
-      <c r="C181" t="n">
-        <v>11.25</v>
-      </c>
       <c r="D181" t="n">
-        <v>11.4</v>
+        <v>11.31</v>
       </c>
       <c r="E181" t="n">
-        <v>11.25</v>
+        <v>11.3</v>
       </c>
       <c r="F181" t="n">
-        <v>104842.7307</v>
+        <v>35100</v>
       </c>
       <c r="G181" t="n">
         <v>11.48716666666666</v>
@@ -7406,9 +7120,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,22 +7135,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>11.23</v>
+        <v>11.3</v>
       </c>
       <c r="C182" t="n">
-        <v>11.21</v>
+        <v>11.25</v>
       </c>
       <c r="D182" t="n">
-        <v>11.23</v>
+        <v>11.4</v>
       </c>
       <c r="E182" t="n">
-        <v>11.21</v>
+        <v>11.25</v>
       </c>
       <c r="F182" t="n">
-        <v>34906.9474</v>
+        <v>104842.7307</v>
       </c>
       <c r="G182" t="n">
-        <v>11.48799999999999</v>
+        <v>11.48716666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7447,9 +7159,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,22 +7174,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>11.39</v>
+        <v>11.23</v>
       </c>
       <c r="C183" t="n">
-        <v>11.39</v>
+        <v>11.21</v>
       </c>
       <c r="D183" t="n">
-        <v>11.39</v>
+        <v>11.23</v>
       </c>
       <c r="E183" t="n">
-        <v>11.39</v>
+        <v>11.21</v>
       </c>
       <c r="F183" t="n">
-        <v>45</v>
+        <v>34906.9474</v>
       </c>
       <c r="G183" t="n">
-        <v>11.48683333333332</v>
+        <v>11.48799999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7488,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,19 +7216,19 @@
         <v>11.39</v>
       </c>
       <c r="C184" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="D184" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="E184" t="n">
         <v>11.39</v>
       </c>
       <c r="F184" t="n">
-        <v>37955.2198</v>
+        <v>45</v>
       </c>
       <c r="G184" t="n">
-        <v>11.48849999999999</v>
+        <v>11.48683333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7529,9 +7237,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,22 +7252,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="C185" t="n">
         <v>11.4</v>
       </c>
-      <c r="C185" t="n">
-        <v>11.7</v>
-      </c>
       <c r="D185" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E185" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="F185" t="n">
-        <v>20542.6778</v>
+        <v>37955.2198</v>
       </c>
       <c r="G185" t="n">
-        <v>11.49516666666666</v>
+        <v>11.48849999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7570,9 +7276,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,7 +7291,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C186" t="n">
         <v>11.7</v>
@@ -7596,13 +7300,13 @@
         <v>11.7</v>
       </c>
       <c r="E186" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F186" t="n">
-        <v>20000</v>
+        <v>20542.6778</v>
       </c>
       <c r="G186" t="n">
-        <v>11.50183333333333</v>
+        <v>11.49516666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7611,9 +7315,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,10 +7342,10 @@
         <v>11.7</v>
       </c>
       <c r="F187" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G187" t="n">
-        <v>11.51083333333333</v>
+        <v>11.50183333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7652,9 +7354,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7669,22 +7369,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>11.51</v>
+        <v>11.7</v>
       </c>
       <c r="C188" t="n">
-        <v>11.51</v>
+        <v>11.7</v>
       </c>
       <c r="D188" t="n">
-        <v>11.51</v>
+        <v>11.7</v>
       </c>
       <c r="E188" t="n">
-        <v>11.51</v>
+        <v>11.7</v>
       </c>
       <c r="F188" t="n">
-        <v>2850.1122</v>
+        <v>10000</v>
       </c>
       <c r="G188" t="n">
-        <v>11.51666666666666</v>
+        <v>11.51083333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7693,9 +7393,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,10 +7420,10 @@
         <v>11.51</v>
       </c>
       <c r="F189" t="n">
-        <v>4900</v>
+        <v>2850.1122</v>
       </c>
       <c r="G189" t="n">
-        <v>11.52266666666666</v>
+        <v>11.51666666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7734,9 +7432,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7751,22 +7447,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="C190" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="D190" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="E190" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="F190" t="n">
-        <v>43</v>
+        <v>4900</v>
       </c>
       <c r="G190" t="n">
-        <v>11.53183333333333</v>
+        <v>11.52266666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7775,9 +7471,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,10 +7498,10 @@
         <v>11.7</v>
       </c>
       <c r="F191" t="n">
-        <v>3418</v>
+        <v>43</v>
       </c>
       <c r="G191" t="n">
-        <v>11.541</v>
+        <v>11.53183333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7816,9 +7510,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,10 +7537,10 @@
         <v>11.7</v>
       </c>
       <c r="F192" t="n">
-        <v>33775.5714</v>
+        <v>3418</v>
       </c>
       <c r="G192" t="n">
-        <v>11.55016666666667</v>
+        <v>11.541</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7857,9 +7549,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7877,19 +7567,19 @@
         <v>11.7</v>
       </c>
       <c r="C193" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D193" t="n">
-        <v>11.88</v>
+        <v>11.7</v>
       </c>
       <c r="E193" t="n">
         <v>11.7</v>
       </c>
       <c r="F193" t="n">
-        <v>52179.3086</v>
+        <v>33775.5714</v>
       </c>
       <c r="G193" t="n">
-        <v>11.554</v>
+        <v>11.55016666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7898,9 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,22 +7603,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>11.76</v>
+        <v>11.7</v>
       </c>
       <c r="C194" t="n">
-        <v>11.76</v>
+        <v>11.8</v>
       </c>
       <c r="D194" t="n">
-        <v>11.76</v>
+        <v>11.88</v>
       </c>
       <c r="E194" t="n">
-        <v>11.76</v>
+        <v>11.7</v>
       </c>
       <c r="F194" t="n">
-        <v>9648.028700000001</v>
+        <v>52179.3086</v>
       </c>
       <c r="G194" t="n">
-        <v>11.56433333333333</v>
+        <v>11.554</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7939,9 +7627,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,22 +7642,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="C195" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="D195" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="E195" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="F195" t="n">
-        <v>498.6778</v>
+        <v>9648.028700000001</v>
       </c>
       <c r="G195" t="n">
-        <v>11.56833333333333</v>
+        <v>11.56433333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7980,9 +7666,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,22 +7681,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>11.85</v>
+        <v>11.8</v>
       </c>
       <c r="C196" t="n">
-        <v>11.86</v>
+        <v>11.8</v>
       </c>
       <c r="D196" t="n">
-        <v>11.86</v>
+        <v>11.8</v>
       </c>
       <c r="E196" t="n">
-        <v>11.85</v>
+        <v>11.8</v>
       </c>
       <c r="F196" t="n">
-        <v>104232.5502</v>
+        <v>498.6778</v>
       </c>
       <c r="G196" t="n">
-        <v>11.57366666666667</v>
+        <v>11.56833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8021,9 +7705,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,7 +7720,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="C197" t="n">
         <v>11.86</v>
@@ -8047,13 +7729,13 @@
         <v>11.86</v>
       </c>
       <c r="E197" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="F197" t="n">
-        <v>130394.529</v>
+        <v>104232.5502</v>
       </c>
       <c r="G197" t="n">
-        <v>11.57883333333333</v>
+        <v>11.57366666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8062,9 +7744,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8082,19 +7762,19 @@
         <v>11.86</v>
       </c>
       <c r="C198" t="n">
-        <v>11.87</v>
+        <v>11.86</v>
       </c>
       <c r="D198" t="n">
-        <v>11.87</v>
+        <v>11.86</v>
       </c>
       <c r="E198" t="n">
         <v>11.86</v>
       </c>
       <c r="F198" t="n">
-        <v>114965.7815</v>
+        <v>130394.529</v>
       </c>
       <c r="G198" t="n">
-        <v>11.58216666666667</v>
+        <v>11.57883333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8103,9 +7783,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,22 +7798,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C199" t="n">
         <v>11.87</v>
       </c>
-      <c r="C199" t="n">
-        <v>11.88</v>
-      </c>
       <c r="D199" t="n">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="E199" t="n">
         <v>11.86</v>
       </c>
       <c r="F199" t="n">
-        <v>138301.5719</v>
+        <v>114965.7815</v>
       </c>
       <c r="G199" t="n">
-        <v>11.5855</v>
+        <v>11.58216666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8144,9 +7822,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,22 +7837,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C200" t="n">
         <v>11.88</v>
       </c>
-      <c r="C200" t="n">
-        <v>11.95</v>
-      </c>
       <c r="D200" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="E200" t="n">
-        <v>11.88</v>
+        <v>11.86</v>
       </c>
       <c r="F200" t="n">
-        <v>52866.3364</v>
+        <v>138301.5719</v>
       </c>
       <c r="G200" t="n">
-        <v>11.592</v>
+        <v>11.5855</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8185,9 +7861,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8202,22 +7876,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="C201" t="n">
-        <v>11.9</v>
+        <v>11.95</v>
       </c>
       <c r="D201" t="n">
-        <v>11.9</v>
+        <v>11.95</v>
       </c>
       <c r="E201" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="F201" t="n">
-        <v>1860</v>
+        <v>52866.3364</v>
       </c>
       <c r="G201" t="n">
-        <v>11.59983333333334</v>
+        <v>11.592</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8226,9 +7900,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8246,19 +7918,19 @@
         <v>11.9</v>
       </c>
       <c r="C202" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="D202" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="E202" t="n">
         <v>11.9</v>
       </c>
       <c r="F202" t="n">
-        <v>45852.1633</v>
+        <v>1860</v>
       </c>
       <c r="G202" t="n">
-        <v>11.61066666666667</v>
+        <v>11.59983333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8267,9 +7939,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,22 +7954,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="C203" t="n">
-        <v>12.04</v>
+        <v>11.98</v>
       </c>
       <c r="D203" t="n">
-        <v>12.04</v>
+        <v>11.98</v>
       </c>
       <c r="E203" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="F203" t="n">
-        <v>41413.9692</v>
+        <v>45852.1633</v>
       </c>
       <c r="G203" t="n">
-        <v>11.6225</v>
+        <v>11.61066666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8308,9 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8325,7 +7993,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>12.04</v>
+        <v>11.99</v>
       </c>
       <c r="C204" t="n">
         <v>12.04</v>
@@ -8334,13 +8002,13 @@
         <v>12.04</v>
       </c>
       <c r="E204" t="n">
-        <v>12.04</v>
+        <v>11.99</v>
       </c>
       <c r="F204" t="n">
-        <v>22769.3074</v>
+        <v>41413.9692</v>
       </c>
       <c r="G204" t="n">
-        <v>11.63633333333333</v>
+        <v>11.6225</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8349,9 +8017,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,22 +8032,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>12.09</v>
+        <v>12.04</v>
       </c>
       <c r="C205" t="n">
-        <v>12.1</v>
+        <v>12.04</v>
       </c>
       <c r="D205" t="n">
-        <v>12.1</v>
+        <v>12.04</v>
       </c>
       <c r="E205" t="n">
-        <v>12.09</v>
+        <v>12.04</v>
       </c>
       <c r="F205" t="n">
-        <v>19908.0438</v>
+        <v>22769.3074</v>
       </c>
       <c r="G205" t="n">
-        <v>11.64916666666667</v>
+        <v>11.63633333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8390,9 +8056,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8407,22 +8071,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>12.19</v>
+        <v>12.09</v>
       </c>
       <c r="C206" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D206" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E206" t="n">
-        <v>12.19</v>
+        <v>12.09</v>
       </c>
       <c r="F206" t="n">
-        <v>125955.6857</v>
+        <v>19908.0438</v>
       </c>
       <c r="G206" t="n">
-        <v>11.66316666666667</v>
+        <v>11.64916666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8431,9 +8095,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,22 +8110,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>12.39</v>
+        <v>12.19</v>
       </c>
       <c r="C207" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="D207" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="E207" t="n">
-        <v>12.39</v>
+        <v>12.19</v>
       </c>
       <c r="F207" t="n">
-        <v>181869.6994</v>
+        <v>125955.6857</v>
       </c>
       <c r="G207" t="n">
-        <v>11.688</v>
+        <v>11.66316666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8472,9 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,22 +8149,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>12.75</v>
+        <v>12.39</v>
       </c>
       <c r="C208" t="n">
         <v>12.7</v>
       </c>
       <c r="D208" t="n">
-        <v>12.98</v>
+        <v>12.7</v>
       </c>
       <c r="E208" t="n">
-        <v>12.7</v>
+        <v>12.39</v>
       </c>
       <c r="F208" t="n">
-        <v>291256.5998</v>
+        <v>181869.6994</v>
       </c>
       <c r="G208" t="n">
-        <v>11.7095</v>
+        <v>11.688</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8513,9 +8173,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8530,22 +8188,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.88</v>
+        <v>12.75</v>
       </c>
       <c r="C209" t="n">
-        <v>12.14</v>
+        <v>12.7</v>
       </c>
       <c r="D209" t="n">
-        <v>13</v>
+        <v>12.98</v>
       </c>
       <c r="E209" t="n">
-        <v>12.14</v>
+        <v>12.7</v>
       </c>
       <c r="F209" t="n">
-        <v>9741.538461538461</v>
+        <v>291256.5998</v>
       </c>
       <c r="G209" t="n">
-        <v>11.7245</v>
+        <v>11.7095</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8554,9 +8212,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,22 +8227,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>12.49</v>
+        <v>12.88</v>
       </c>
       <c r="C210" t="n">
-        <v>12.02</v>
+        <v>12.14</v>
       </c>
       <c r="D210" t="n">
-        <v>12.49</v>
+        <v>13</v>
       </c>
       <c r="E210" t="n">
-        <v>12.02</v>
+        <v>12.14</v>
       </c>
       <c r="F210" t="n">
-        <v>62146.5301</v>
+        <v>9741.538461538461</v>
       </c>
       <c r="G210" t="n">
-        <v>11.7345</v>
+        <v>11.7245</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8595,45 +8251,41 @@
         <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1.023229255774166</v>
-      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>12.26</v>
+        <v>12.49</v>
       </c>
       <c r="C211" t="n">
-        <v>12.8</v>
+        <v>12.02</v>
       </c>
       <c r="D211" t="n">
-        <v>12.8</v>
+        <v>12.49</v>
       </c>
       <c r="E211" t="n">
-        <v>12.26</v>
+        <v>12.02</v>
       </c>
       <c r="F211" t="n">
-        <v>91465.24786249999</v>
+        <v>62146.5301</v>
       </c>
       <c r="G211" t="n">
-        <v>11.75816666666667</v>
+        <v>11.7345</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -8647,22 +8299,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>12.48</v>
+        <v>12.26</v>
       </c>
       <c r="C212" t="n">
-        <v>12.37</v>
+        <v>12.8</v>
       </c>
       <c r="D212" t="n">
-        <v>12.58</v>
+        <v>12.8</v>
       </c>
       <c r="E212" t="n">
-        <v>12.37</v>
+        <v>12.26</v>
       </c>
       <c r="F212" t="n">
-        <v>17702.1158</v>
+        <v>91465.24786249999</v>
       </c>
       <c r="G212" t="n">
-        <v>11.77233333333334</v>
+        <v>11.75816666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8682,22 +8334,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.35</v>
+        <v>12.48</v>
       </c>
       <c r="C213" t="n">
-        <v>12.58</v>
+        <v>12.37</v>
       </c>
       <c r="D213" t="n">
         <v>12.58</v>
       </c>
       <c r="E213" t="n">
-        <v>12.35</v>
+        <v>12.37</v>
       </c>
       <c r="F213" t="n">
-        <v>99628.8906</v>
+        <v>17702.1158</v>
       </c>
       <c r="G213" t="n">
-        <v>11.79033333333334</v>
+        <v>11.77233333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8717,22 +8369,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>12.48</v>
+        <v>12.35</v>
       </c>
       <c r="C214" t="n">
-        <v>12.47</v>
+        <v>12.58</v>
       </c>
       <c r="D214" t="n">
-        <v>12.48</v>
+        <v>12.58</v>
       </c>
       <c r="E214" t="n">
-        <v>12.47</v>
+        <v>12.35</v>
       </c>
       <c r="F214" t="n">
-        <v>69093.4488</v>
+        <v>99628.8906</v>
       </c>
       <c r="G214" t="n">
-        <v>11.80566666666667</v>
+        <v>11.79033333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8755,19 +8407,19 @@
         <v>12.48</v>
       </c>
       <c r="C215" t="n">
-        <v>12.58</v>
+        <v>12.47</v>
       </c>
       <c r="D215" t="n">
-        <v>12.58</v>
+        <v>12.48</v>
       </c>
       <c r="E215" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="F215" t="n">
-        <v>48964.9014</v>
+        <v>69093.4488</v>
       </c>
       <c r="G215" t="n">
-        <v>11.82083333333334</v>
+        <v>11.80566666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8787,22 +8439,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>12.59</v>
+        <v>12.48</v>
       </c>
       <c r="C216" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="D216" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="E216" t="n">
-        <v>12.59</v>
+        <v>12.48</v>
       </c>
       <c r="F216" t="n">
-        <v>24261.7027</v>
+        <v>48964.9014</v>
       </c>
       <c r="G216" t="n">
-        <v>11.83233333333334</v>
+        <v>11.82083333333334</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8822,22 +8474,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.66</v>
+        <v>12.59</v>
       </c>
       <c r="C217" t="n">
-        <v>12.66</v>
+        <v>12.59</v>
       </c>
       <c r="D217" t="n">
-        <v>12.67</v>
+        <v>12.59</v>
       </c>
       <c r="E217" t="n">
-        <v>12.66</v>
+        <v>12.59</v>
       </c>
       <c r="F217" t="n">
-        <v>359724.0653</v>
+        <v>24261.7027</v>
       </c>
       <c r="G217" t="n">
-        <v>11.84516666666667</v>
+        <v>11.83233333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8857,22 +8509,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>12.76</v>
+        <v>12.66</v>
       </c>
       <c r="C218" t="n">
-        <v>12.76</v>
+        <v>12.66</v>
       </c>
       <c r="D218" t="n">
-        <v>12.76</v>
+        <v>12.67</v>
       </c>
       <c r="E218" t="n">
-        <v>12.75</v>
+        <v>12.66</v>
       </c>
       <c r="F218" t="n">
-        <v>62768.4839</v>
+        <v>359724.0653</v>
       </c>
       <c r="G218" t="n">
-        <v>11.86316666666667</v>
+        <v>11.84516666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8892,22 +8544,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>12.66</v>
+        <v>12.76</v>
       </c>
       <c r="C219" t="n">
-        <v>12.66</v>
+        <v>12.76</v>
       </c>
       <c r="D219" t="n">
-        <v>12.74</v>
+        <v>12.76</v>
       </c>
       <c r="E219" t="n">
-        <v>12.66</v>
+        <v>12.75</v>
       </c>
       <c r="F219" t="n">
-        <v>208930.5484</v>
+        <v>62768.4839</v>
       </c>
       <c r="G219" t="n">
-        <v>11.87700000000001</v>
+        <v>11.86316666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8930,19 +8582,19 @@
         <v>12.66</v>
       </c>
       <c r="C220" t="n">
-        <v>12.73</v>
+        <v>12.66</v>
       </c>
       <c r="D220" t="n">
-        <v>12.73</v>
+        <v>12.74</v>
       </c>
       <c r="E220" t="n">
         <v>12.66</v>
       </c>
       <c r="F220" t="n">
-        <v>194915.8033</v>
+        <v>208930.5484</v>
       </c>
       <c r="G220" t="n">
-        <v>11.89133333333334</v>
+        <v>11.87700000000001</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8962,22 +8614,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C221" t="n">
         <v>12.73</v>
       </c>
-      <c r="C221" t="n">
-        <v>13.17</v>
-      </c>
       <c r="D221" t="n">
-        <v>13.17</v>
+        <v>12.73</v>
       </c>
       <c r="E221" t="n">
-        <v>12.73</v>
+        <v>12.66</v>
       </c>
       <c r="F221" t="n">
-        <v>822800.5792110004</v>
+        <v>194915.8033</v>
       </c>
       <c r="G221" t="n">
-        <v>11.91833333333334</v>
+        <v>11.89133333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8997,7 +8649,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>13.16</v>
+        <v>12.73</v>
       </c>
       <c r="C222" t="n">
         <v>13.17</v>
@@ -9006,13 +8658,13 @@
         <v>13.17</v>
       </c>
       <c r="E222" t="n">
-        <v>12.7</v>
+        <v>12.73</v>
       </c>
       <c r="F222" t="n">
-        <v>203366.1794942732</v>
+        <v>822800.5792110004</v>
       </c>
       <c r="G222" t="n">
-        <v>11.94533333333334</v>
+        <v>11.91833333333334</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9032,22 +8684,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12.94</v>
+        <v>13.16</v>
       </c>
       <c r="C223" t="n">
-        <v>12.69</v>
+        <v>13.17</v>
       </c>
       <c r="D223" t="n">
-        <v>12.94</v>
+        <v>13.17</v>
       </c>
       <c r="E223" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="F223" t="n">
-        <v>31008.91051622875</v>
+        <v>203366.1794942732</v>
       </c>
       <c r="G223" t="n">
-        <v>11.96433333333334</v>
+        <v>11.94533333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9067,22 +8719,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>12.84</v>
+        <v>12.94</v>
       </c>
       <c r="C224" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="D224" t="n">
         <v>12.94</v>
       </c>
       <c r="E224" t="n">
-        <v>12.48</v>
+        <v>12.69</v>
       </c>
       <c r="F224" t="n">
-        <v>207240.368249961</v>
+        <v>31008.91051622875</v>
       </c>
       <c r="G224" t="n">
-        <v>11.98266666666668</v>
+        <v>11.96433333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9102,22 +8754,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12.59</v>
+        <v>12.84</v>
       </c>
       <c r="C225" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D225" t="n">
-        <v>12.83</v>
+        <v>12.94</v>
       </c>
       <c r="E225" t="n">
-        <v>12.59</v>
+        <v>12.48</v>
       </c>
       <c r="F225" t="n">
-        <v>99223.80036180826</v>
+        <v>207240.368249961</v>
       </c>
       <c r="G225" t="n">
-        <v>12.00350000000001</v>
+        <v>11.98266666666668</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9140,19 +8792,19 @@
         <v>12.59</v>
       </c>
       <c r="C226" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D226" t="n">
-        <v>12.79</v>
+        <v>12.83</v>
       </c>
       <c r="E226" t="n">
         <v>12.59</v>
       </c>
       <c r="F226" t="n">
-        <v>27301.3773</v>
+        <v>99223.80036180826</v>
       </c>
       <c r="G226" t="n">
-        <v>12.02516666666668</v>
+        <v>12.00350000000001</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9172,22 +8824,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>12.8</v>
+        <v>12.59</v>
       </c>
       <c r="C227" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="D227" t="n">
-        <v>13.43</v>
+        <v>12.79</v>
       </c>
       <c r="E227" t="n">
-        <v>12.8</v>
+        <v>12.59</v>
       </c>
       <c r="F227" t="n">
-        <v>1796627.581228169</v>
+        <v>27301.3773</v>
       </c>
       <c r="G227" t="n">
-        <v>12.05450000000001</v>
+        <v>12.02516666666668</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9207,22 +8859,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C228" t="n">
         <v>13.3</v>
       </c>
-      <c r="C228" t="n">
-        <v>13.2</v>
-      </c>
       <c r="D228" t="n">
-        <v>13.3</v>
+        <v>13.43</v>
       </c>
       <c r="E228" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="F228" t="n">
-        <v>75421.5376</v>
+        <v>1796627.581228169</v>
       </c>
       <c r="G228" t="n">
-        <v>12.08200000000001</v>
+        <v>12.05450000000001</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9242,22 +8894,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C229" t="n">
         <v>13.2</v>
       </c>
-      <c r="C229" t="n">
-        <v>13.64</v>
-      </c>
       <c r="D229" t="n">
-        <v>13.64</v>
+        <v>13.3</v>
       </c>
       <c r="E229" t="n">
-        <v>13.17</v>
+        <v>13.2</v>
       </c>
       <c r="F229" t="n">
-        <v>725851.3109</v>
+        <v>75421.5376</v>
       </c>
       <c r="G229" t="n">
-        <v>12.11300000000001</v>
+        <v>12.08200000000001</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9277,22 +8929,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13.63</v>
+        <v>13.2</v>
       </c>
       <c r="C230" t="n">
-        <v>13.39</v>
+        <v>13.64</v>
       </c>
       <c r="D230" t="n">
-        <v>13.63</v>
+        <v>13.64</v>
       </c>
       <c r="E230" t="n">
-        <v>13.2</v>
+        <v>13.17</v>
       </c>
       <c r="F230" t="n">
-        <v>348338.1811</v>
+        <v>725851.3109</v>
       </c>
       <c r="G230" t="n">
-        <v>12.14166666666668</v>
+        <v>12.11300000000001</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9312,22 +8964,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>13.3</v>
+        <v>13.63</v>
       </c>
       <c r="C231" t="n">
-        <v>13.3</v>
+        <v>13.39</v>
       </c>
       <c r="D231" t="n">
-        <v>13.3</v>
+        <v>13.63</v>
       </c>
       <c r="E231" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F231" t="n">
-        <v>174764.4741</v>
+        <v>348338.1811</v>
       </c>
       <c r="G231" t="n">
-        <v>12.16700000000001</v>
+        <v>12.14166666666668</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9347,22 +8999,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13.46</v>
+        <v>13.3</v>
       </c>
       <c r="C232" t="n">
-        <v>13.19</v>
+        <v>13.3</v>
       </c>
       <c r="D232" t="n">
-        <v>13.59</v>
+        <v>13.3</v>
       </c>
       <c r="E232" t="n">
-        <v>13.19</v>
+        <v>13.3</v>
       </c>
       <c r="F232" t="n">
-        <v>359284.7395</v>
+        <v>174764.4741</v>
       </c>
       <c r="G232" t="n">
-        <v>12.19500000000001</v>
+        <v>12.16700000000001</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9382,22 +9034,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13.2</v>
+        <v>13.46</v>
       </c>
       <c r="C233" t="n">
-        <v>12.53</v>
+        <v>13.19</v>
       </c>
       <c r="D233" t="n">
-        <v>13.2</v>
+        <v>13.59</v>
       </c>
       <c r="E233" t="n">
-        <v>12.53</v>
+        <v>13.19</v>
       </c>
       <c r="F233" t="n">
-        <v>256025.7806</v>
+        <v>359284.7395</v>
       </c>
       <c r="G233" t="n">
-        <v>12.20766666666668</v>
+        <v>12.19500000000001</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9417,22 +9069,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>12.85</v>
+        <v>13.2</v>
       </c>
       <c r="C234" t="n">
-        <v>12.96</v>
+        <v>12.53</v>
       </c>
       <c r="D234" t="n">
-        <v>12.96</v>
+        <v>13.2</v>
       </c>
       <c r="E234" t="n">
-        <v>12.85</v>
+        <v>12.53</v>
       </c>
       <c r="F234" t="n">
-        <v>15283.7589</v>
+        <v>256025.7806</v>
       </c>
       <c r="G234" t="n">
-        <v>12.22733333333335</v>
+        <v>12.20766666666668</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9452,7 +9104,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>12.81</v>
+        <v>12.85</v>
       </c>
       <c r="C235" t="n">
         <v>12.96</v>
@@ -9461,13 +9113,13 @@
         <v>12.96</v>
       </c>
       <c r="E235" t="n">
-        <v>12.53</v>
+        <v>12.85</v>
       </c>
       <c r="F235" t="n">
-        <v>104822.565</v>
+        <v>15283.7589</v>
       </c>
       <c r="G235" t="n">
-        <v>12.24700000000001</v>
+        <v>12.22733333333335</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9487,7 +9139,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>12.96</v>
+        <v>12.81</v>
       </c>
       <c r="C236" t="n">
         <v>12.96</v>
@@ -9496,13 +9148,13 @@
         <v>12.96</v>
       </c>
       <c r="E236" t="n">
-        <v>12.96</v>
+        <v>12.53</v>
       </c>
       <c r="F236" t="n">
-        <v>651.4408</v>
+        <v>104822.565</v>
       </c>
       <c r="G236" t="n">
-        <v>12.26833333333335</v>
+        <v>12.24700000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9522,22 +9174,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>12.31</v>
+        <v>12.96</v>
       </c>
       <c r="C237" t="n">
-        <v>12.4</v>
+        <v>12.96</v>
       </c>
       <c r="D237" t="n">
-        <v>12.4</v>
+        <v>12.96</v>
       </c>
       <c r="E237" t="n">
-        <v>12.31</v>
+        <v>12.96</v>
       </c>
       <c r="F237" t="n">
-        <v>62664.5115</v>
+        <v>651.4408</v>
       </c>
       <c r="G237" t="n">
-        <v>12.27866666666668</v>
+        <v>12.26833333333335</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9552,6 +9204,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C238" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D238" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="F238" t="n">
+        <v>62664.5115</v>
+      </c>
+      <c r="G238" t="n">
+        <v>12.27866666666668</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-23 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>115000</v>
       </c>
       <c r="G2" t="n">
+        <v>11.59066666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.73416666666669</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>56853.3192</v>
       </c>
       <c r="G3" t="n">
+        <v>11.57933333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.72200000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>18437.8858</v>
       </c>
       <c r="G4" t="n">
+        <v>11.54799999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.70983333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>4824.7277</v>
       </c>
       <c r="G5" t="n">
+        <v>11.53199999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.69916666666669</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>111341.5748</v>
       </c>
       <c r="G6" t="n">
+        <v>11.52999999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.69700000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>62906.5511</v>
       </c>
       <c r="G7" t="n">
+        <v>11.54866666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.68850000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>25301</v>
       </c>
       <c r="G8" t="n">
+        <v>11.56999999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.68150000000002</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>26060</v>
       </c>
       <c r="G9" t="n">
+        <v>11.58466666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.68100000000002</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>44829.2585</v>
       </c>
       <c r="G10" t="n">
+        <v>11.60133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.67933333333336</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>65900</v>
       </c>
       <c r="G11" t="n">
+        <v>11.61599999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.67716666666669</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>6933.0696</v>
       </c>
       <c r="G12" t="n">
+        <v>11.60799999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.67666666666669</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>27449.1586</v>
       </c>
       <c r="G13" t="n">
+        <v>11.58866666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.66966666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>42893.566</v>
       </c>
       <c r="G14" t="n">
+        <v>11.56333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.66383333333336</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
+        <v>11.55666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.65883333333336</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>63944.383</v>
       </c>
       <c r="G16" t="n">
+        <v>11.55666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.65883333333336</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>106795.7221</v>
       </c>
       <c r="G17" t="n">
+        <v>11.57199999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.66033333333336</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>17904.2779</v>
       </c>
       <c r="G18" t="n">
+        <v>11.58666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.65833333333336</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3000</v>
       </c>
       <c r="G19" t="n">
+        <v>11.61199999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.65900000000003</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>11043.2747</v>
       </c>
       <c r="G20" t="n">
+        <v>11.63133333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.66116666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>65870.03939999999</v>
       </c>
       <c r="G21" t="n">
+        <v>11.62133333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.65983333333336</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>23989.01842020288</v>
       </c>
       <c r="G22" t="n">
+        <v>11.63799999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.66533333333336</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>100</v>
       </c>
       <c r="G23" t="n">
+        <v>11.63466666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.66733333333336</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>98.3999</v>
       </c>
       <c r="G24" t="n">
+        <v>11.64666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.67716666666669</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>20000</v>
       </c>
       <c r="G25" t="n">
+        <v>11.64866666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.68383333333336</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>10000</v>
       </c>
       <c r="G26" t="n">
+        <v>11.66733333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.68950000000003</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>113000</v>
       </c>
       <c r="G27" t="n">
+        <v>11.664</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.69583333333336</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>44.444</v>
       </c>
       <c r="G28" t="n">
+        <v>11.676</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.70600000000003</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>46</v>
       </c>
       <c r="G29" t="n">
+        <v>11.70266666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.71116666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>12961</v>
       </c>
       <c r="G30" t="n">
+        <v>11.72933333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.71800000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>21170.5291</v>
       </c>
       <c r="G31" t="n">
+        <v>11.756</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.72316666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>60046.982</v>
       </c>
       <c r="G32" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.72733333333336</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>9805.571099999999</v>
       </c>
       <c r="G33" t="n">
+        <v>11.80066666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.72983333333336</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>44.4444</v>
       </c>
       <c r="G34" t="n">
+        <v>11.81333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.73050000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>394.4444</v>
       </c>
       <c r="G35" t="n">
+        <v>11.82933333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.72550000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>557.8115</v>
       </c>
       <c r="G36" t="n">
+        <v>11.86333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.72950000000002</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>664.7686</v>
       </c>
       <c r="G37" t="n">
+        <v>11.868</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.72883333333336</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>42868.583</v>
       </c>
       <c r="G38" t="n">
+        <v>11.87333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.72466666666669</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>7636.4257</v>
       </c>
       <c r="G39" t="n">
+        <v>11.88266666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.71883333333336</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>13702.1086</v>
       </c>
       <c r="G40" t="n">
+        <v>11.88133333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.70833333333336</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>28531</v>
       </c>
       <c r="G41" t="n">
+        <v>11.87666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.70033333333336</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3285</v>
       </c>
       <c r="G42" t="n">
+        <v>11.89333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.69833333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>12505.6991</v>
       </c>
       <c r="G43" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.69216666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>5000</v>
       </c>
       <c r="G44" t="n">
+        <v>11.87666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.68600000000002</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>44.4444</v>
       </c>
       <c r="G45" t="n">
+        <v>11.86133333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.68866666666669</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>44.4444</v>
       </c>
       <c r="G46" t="n">
+        <v>11.846</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.69050000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>7979.0294</v>
       </c>
       <c r="G47" t="n">
+        <v>11.828</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.69266666666669</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>21834.3212</v>
       </c>
       <c r="G48" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.69416666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>45.9963</v>
       </c>
       <c r="G49" t="n">
+        <v>11.792</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.69133333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>13058.3377</v>
       </c>
       <c r="G50" t="n">
+        <v>11.76933333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.69050000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>28487.0037</v>
       </c>
       <c r="G51" t="n">
+        <v>11.744</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.68966666666669</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>18084.8042</v>
       </c>
       <c r="G52" t="n">
+        <v>11.72733333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.69550000000002</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>155671.9319</v>
       </c>
       <c r="G53" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.69950000000002</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>45.9963</v>
       </c>
       <c r="G54" t="n">
+        <v>11.712</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.70650000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>175.0037</v>
       </c>
       <c r="G55" t="n">
+        <v>11.72266666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.71350000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>126173.3262</v>
       </c>
       <c r="G56" t="n">
+        <v>11.70933333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.71733333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>44.4444</v>
       </c>
       <c r="G57" t="n">
+        <v>11.704</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.71733333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>81756.8518</v>
       </c>
       <c r="G58" t="n">
+        <v>11.69066666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.71133333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>867.3026886383348</v>
       </c>
       <c r="G59" t="n">
+        <v>11.67933333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.70550000000002</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>7653.1143</v>
       </c>
       <c r="G60" t="n">
+        <v>11.65933333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.70166666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>300</v>
       </c>
       <c r="G61" t="n">
+        <v>11.64333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.70050000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>95459.30039999999</v>
       </c>
       <c r="G62" t="n">
+        <v>11.61466666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.69866666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>43</v>
       </c>
       <c r="G63" t="n">
+        <v>11.61133333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.70216666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>44</v>
       </c>
       <c r="G64" t="n">
+        <v>11.59266666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.70250000000001</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>22488</v>
       </c>
       <c r="G65" t="n">
+        <v>11.58133333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.70283333333335</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>69341.9325</v>
       </c>
       <c r="G66" t="n">
+        <v>11.562</v>
+      </c>
+      <c r="H66" t="n">
         <v>11.69766666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>867.3026</v>
       </c>
       <c r="G67" t="n">
+        <v>11.54533333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>11.69466666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>10000</v>
       </c>
       <c r="G68" t="n">
+        <v>11.53266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>11.69016666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1546.893</v>
       </c>
       <c r="G69" t="n">
+        <v>11.508</v>
+      </c>
+      <c r="H69" t="n">
         <v>11.68733333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>8062</v>
       </c>
       <c r="G70" t="n">
+        <v>11.50266666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>11.68883333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>7968.4292</v>
       </c>
       <c r="G71" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="H71" t="n">
         <v>11.69083333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>109763.7252</v>
       </c>
       <c r="G72" t="n">
+        <v>11.49066666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>11.68800000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>9875.2698</v>
       </c>
       <c r="G73" t="n">
+        <v>11.48466666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>11.68533333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1320</v>
       </c>
       <c r="G74" t="n">
+        <v>11.47666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>11.68383333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>30931.6558</v>
       </c>
       <c r="G75" t="n">
+        <v>11.46733333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>11.67933333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>6298.4444</v>
       </c>
       <c r="G76" t="n">
+        <v>11.45866666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>11.67600000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>10000</v>
       </c>
       <c r="G77" t="n">
+        <v>11.468</v>
+      </c>
+      <c r="H77" t="n">
         <v>11.67266666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>4620</v>
       </c>
       <c r="G78" t="n">
+        <v>11.452</v>
+      </c>
+      <c r="H78" t="n">
         <v>11.66850000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>90</v>
       </c>
       <c r="G79" t="n">
+        <v>11.44266666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>11.66016666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>304.317</v>
       </c>
       <c r="G80" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="H80" t="n">
         <v>11.65500000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>691.1351</v>
       </c>
       <c r="G81" t="n">
+        <v>11.45066666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>11.65500000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>2026.3127</v>
       </c>
       <c r="G82" t="n">
+        <v>11.45333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>11.64850000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>24493.0858</v>
       </c>
       <c r="G83" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="H83" t="n">
         <v>11.64400000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>21439.9596</v>
       </c>
       <c r="G84" t="n">
+        <v>11.44533333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>11.63700000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,24 +3607,21 @@
         <v>17289.2597</v>
       </c>
       <c r="G85" t="n">
+        <v>11.42066666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.63183333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>11.33</v>
+        <v>0</v>
       </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,24 +3645,21 @@
         <v>7793.2232</v>
       </c>
       <c r="G86" t="n">
+        <v>11.396</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.62300000000002</v>
       </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>11.32</v>
+        <v>0</v>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3435,24 +3683,21 @@
         <v>7793.2232</v>
       </c>
       <c r="G87" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.61950000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>11.32</v>
+        <v>0</v>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,24 +3721,21 @@
         <v>2187</v>
       </c>
       <c r="G88" t="n">
+        <v>11.392</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.61433333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>11.31</v>
+        <v>0</v>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3517,24 +3759,21 @@
         <v>92317.895</v>
       </c>
       <c r="G89" t="n">
+        <v>11.40333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.60900000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>11.44</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,24 +3797,21 @@
         <v>111</v>
       </c>
       <c r="G90" t="n">
+        <v>11.43133333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.60483333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>11.58</v>
+        <v>0</v>
       </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,22 +3835,21 @@
         <v>83568.1741</v>
       </c>
       <c r="G91" t="n">
+        <v>11.468</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.60400000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,22 +3873,21 @@
         <v>180.573</v>
       </c>
       <c r="G92" t="n">
+        <v>11.49266666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.60083333333335</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,22 +3911,21 @@
         <v>111</v>
       </c>
       <c r="G93" t="n">
+        <v>11.50866666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.59550000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,22 +3949,21 @@
         <v>44</v>
       </c>
       <c r="G94" t="n">
+        <v>11.516</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.58583333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,22 +3987,21 @@
         <v>13293.7685</v>
       </c>
       <c r="G95" t="n">
+        <v>11.54333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.58350000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,22 +4025,21 @@
         <v>444</v>
       </c>
       <c r="G96" t="n">
+        <v>11.56533333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.58050000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3833,22 +4063,21 @@
         <v>5889.0538</v>
       </c>
       <c r="G97" t="n">
+        <v>11.59266666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.57966666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,22 +4101,21 @@
         <v>4741.0172</v>
       </c>
       <c r="G98" t="n">
+        <v>11.62266666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.58133333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3911,22 +4139,21 @@
         <v>19626.8223</v>
       </c>
       <c r="G99" t="n">
+        <v>11.634</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.57483333333335</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,22 +4177,21 @@
         <v>2945</v>
       </c>
       <c r="G100" t="n">
+        <v>11.646</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.57300000000002</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3989,22 +4215,21 @@
         <v>9430</v>
       </c>
       <c r="G101" t="n">
+        <v>11.658</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.56833333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,22 +4253,21 @@
         <v>49153.6949</v>
       </c>
       <c r="G102" t="n">
+        <v>11.66733333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.56300000000002</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4067,22 +4291,21 @@
         <v>4741.0172</v>
       </c>
       <c r="G103" t="n">
+        <v>11.66133333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.55716666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,22 +4329,21 @@
         <v>3757.4542</v>
       </c>
       <c r="G104" t="n">
+        <v>11.65266666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.55300000000002</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,22 +4367,21 @@
         <v>8227.8974</v>
       </c>
       <c r="G105" t="n">
+        <v>11.636</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.54850000000002</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,22 +4405,21 @@
         <v>79931.2273</v>
       </c>
       <c r="G106" t="n">
+        <v>11.606</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.54400000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4223,22 +4443,21 @@
         <v>200</v>
       </c>
       <c r="G107" t="n">
+        <v>11.596</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.54283333333336</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,22 +4481,21 @@
         <v>10739.7796</v>
       </c>
       <c r="G108" t="n">
+        <v>11.59733333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.54233333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,22 +4519,21 @@
         <v>12856.2204</v>
       </c>
       <c r="G109" t="n">
+        <v>11.61333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.54116666666669</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,22 +4557,21 @@
         <v>1312.6896</v>
       </c>
       <c r="G110" t="n">
+        <v>11.60999999999999</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.54366666666669</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4379,22 +4595,21 @@
         <v>9528</v>
       </c>
       <c r="G111" t="n">
+        <v>11.61199999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.54750000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,22 +4633,21 @@
         <v>1362.6896</v>
       </c>
       <c r="G112" t="n">
+        <v>11.614</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.55133333333336</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,22 +4671,21 @@
         <v>115087.2076</v>
       </c>
       <c r="G113" t="n">
+        <v>11.60733333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.55316666666669</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,22 +4709,21 @@
         <v>57870.5607</v>
       </c>
       <c r="G114" t="n">
+        <v>11.62066666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.55200000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4535,22 +4747,21 @@
         <v>41106.326</v>
       </c>
       <c r="G115" t="n">
+        <v>11.60933333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.54466666666669</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,22 +4785,21 @@
         <v>6128.6504</v>
       </c>
       <c r="G116" t="n">
+        <v>11.59799999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.54050000000003</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,22 +4823,21 @@
         <v>50</v>
       </c>
       <c r="G117" t="n">
+        <v>11.61199999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.54000000000002</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,22 +4861,21 @@
         <v>27489.874</v>
       </c>
       <c r="G118" t="n">
+        <v>11.61133333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.53733333333336</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4691,22 +4899,21 @@
         <v>160261.6636</v>
       </c>
       <c r="G119" t="n">
+        <v>11.602</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.53366666666669</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,22 +4937,21 @@
         <v>206491.5558</v>
       </c>
       <c r="G120" t="n">
+        <v>11.59066666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.53133333333336</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,22 +4975,21 @@
         <v>24343.9073</v>
       </c>
       <c r="G121" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.52816666666669</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,22 +5013,21 @@
         <v>14185.1265</v>
       </c>
       <c r="G122" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.52666666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4847,22 +5051,21 @@
         <v>32414.9306</v>
       </c>
       <c r="G123" t="n">
+        <v>11.514</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.51800000000003</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,22 +5089,21 @@
         <v>63.4077</v>
       </c>
       <c r="G124" t="n">
+        <v>11.498</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.51750000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4925,22 +5127,21 @@
         <v>5196.5185</v>
       </c>
       <c r="G125" t="n">
+        <v>11.46466666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.51450000000002</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,22 +5165,21 @@
         <v>46768.6673</v>
       </c>
       <c r="G126" t="n">
+        <v>11.426</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.51350000000002</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5003,22 +5203,21 @@
         <v>59686.2418</v>
       </c>
       <c r="G127" t="n">
+        <v>11.38733333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.51183333333336</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,22 +5241,21 @@
         <v>105957.3537</v>
       </c>
       <c r="G128" t="n">
+        <v>11.35133333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.50783333333336</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5081,22 +5279,21 @@
         <v>16895.602</v>
       </c>
       <c r="G129" t="n">
+        <v>11.31533333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.50383333333336</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,22 +5317,21 @@
         <v>10739.7796</v>
       </c>
       <c r="G130" t="n">
+        <v>11.30333333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.49483333333336</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5159,22 +5355,21 @@
         <v>35740.6077</v>
       </c>
       <c r="G131" t="n">
+        <v>11.29133333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.48583333333335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,24 +5393,27 @@
         <v>118354.2658</v>
       </c>
       <c r="G132" t="n">
+        <v>11.25733333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.48166666666669</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
         <v>11.15</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,22 +5437,27 @@
         <v>105549.8255</v>
       </c>
       <c r="G133" t="n">
+        <v>11.24466666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.47733333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,22 +5481,27 @@
         <v>174</v>
       </c>
       <c r="G134" t="n">
+        <v>11.262</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.48000000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,22 +5525,27 @@
         <v>445536.7452</v>
       </c>
       <c r="G135" t="n">
+        <v>11.24933333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.47683333333335</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,22 +5569,27 @@
         <v>44</v>
       </c>
       <c r="G136" t="n">
+        <v>11.264</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.47950000000002</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,22 +5613,25 @@
         <v>36247.252</v>
       </c>
       <c r="G137" t="n">
+        <v>11.28333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.48050000000002</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,22 +5655,25 @@
         <v>43</v>
       </c>
       <c r="G138" t="n">
+        <v>11.30933333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.48233333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,22 +5697,25 @@
         <v>24907.028</v>
       </c>
       <c r="G139" t="n">
+        <v>11.32333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>11.48766666666668</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,22 +5739,25 @@
         <v>43</v>
       </c>
       <c r="G140" t="n">
+        <v>11.34866666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>11.49166666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5551,22 +5781,25 @@
         <v>15693</v>
       </c>
       <c r="G141" t="n">
+        <v>11.366</v>
+      </c>
+      <c r="H141" t="n">
         <v>11.49233333333335</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,22 +5823,25 @@
         <v>9407</v>
       </c>
       <c r="G142" t="n">
+        <v>11.37466666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>11.49216666666668</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,22 +5865,25 @@
         <v>87643.6419</v>
       </c>
       <c r="G143" t="n">
+        <v>11.386</v>
+      </c>
+      <c r="H143" t="n">
         <v>11.49183333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5668,22 +5907,25 @@
         <v>10258</v>
       </c>
       <c r="G144" t="n">
+        <v>11.39733333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>11.49183333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5707,22 +5949,25 @@
         <v>61056.3106</v>
       </c>
       <c r="G145" t="n">
+        <v>11.40133333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>11.49000000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5746,22 +5991,25 @@
         <v>11045.6239</v>
       </c>
       <c r="G146" t="n">
+        <v>11.41333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>11.49016666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,22 +6033,25 @@
         <v>44</v>
       </c>
       <c r="G147" t="n">
+        <v>11.44066666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>11.49433333333335</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,22 +6075,25 @@
         <v>82450.52929999999</v>
       </c>
       <c r="G148" t="n">
+        <v>11.44466666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>11.49050000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5863,22 +6117,25 @@
         <v>44</v>
       </c>
       <c r="G149" t="n">
+        <v>11.434</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.48766666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,22 +6159,27 @@
         <v>20697.0193</v>
       </c>
       <c r="G150" t="n">
+        <v>11.44066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>11.47916666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5941,22 +6203,27 @@
         <v>44</v>
       </c>
       <c r="G151" t="n">
+        <v>11.43133333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>11.47033333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5980,22 +6247,27 @@
         <v>8629.893</v>
       </c>
       <c r="G152" t="n">
+        <v>11.42066666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>11.46250000000001</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6019,22 +6291,25 @@
         <v>55397</v>
       </c>
       <c r="G153" t="n">
+        <v>11.41866666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>11.45983333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,22 +6333,25 @@
         <v>76540.1018</v>
       </c>
       <c r="G154" t="n">
+        <v>11.40733333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>11.46050000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6097,22 +6375,25 @@
         <v>191426.2669</v>
       </c>
       <c r="G155" t="n">
+        <v>11.39866666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>11.45550000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,22 +6417,27 @@
         <v>8191.1566</v>
       </c>
       <c r="G156" t="n">
+        <v>11.406</v>
+      </c>
+      <c r="H156" t="n">
         <v>11.45250000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6175,22 +6461,25 @@
         <v>87</v>
       </c>
       <c r="G157" t="n">
+        <v>11.43733333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>11.45333333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6214,22 +6503,25 @@
         <v>117.8273</v>
       </c>
       <c r="G158" t="n">
+        <v>11.47466666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>11.45483333333334</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6253,22 +6545,25 @@
         <v>11353.1944</v>
       </c>
       <c r="G159" t="n">
+        <v>11.498</v>
+      </c>
+      <c r="H159" t="n">
         <v>11.45783333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,22 +6587,25 @@
         <v>45</v>
       </c>
       <c r="G160" t="n">
+        <v>11.53933333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>11.46333333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6331,22 +6629,25 @@
         <v>45</v>
       </c>
       <c r="G161" t="n">
+        <v>11.57533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>11.46950000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6370,22 +6671,25 @@
         <v>25086.8452</v>
       </c>
       <c r="G162" t="n">
+        <v>11.57466666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>11.47116666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6409,22 +6713,25 @@
         <v>120686.6755</v>
       </c>
       <c r="G163" t="n">
+        <v>11.59733333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>11.4745</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6448,22 +6755,25 @@
         <v>4140</v>
       </c>
       <c r="G164" t="n">
+        <v>11.60666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>11.47616666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,22 +6797,25 @@
         <v>23404</v>
       </c>
       <c r="G165" t="n">
+        <v>11.624</v>
+      </c>
+      <c r="H165" t="n">
         <v>11.47616666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6526,22 +6839,25 @@
         <v>135</v>
       </c>
       <c r="G166" t="n">
+        <v>11.63266666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>11.477</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6565,22 +6881,25 @@
         <v>1159.6647</v>
       </c>
       <c r="G167" t="n">
+        <v>11.63400000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>11.472</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,22 +6923,25 @@
         <v>50</v>
       </c>
       <c r="G168" t="n">
+        <v>11.63533333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>11.46933333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,22 +6965,25 @@
         <v>32719.7556</v>
       </c>
       <c r="G169" t="n">
+        <v>11.63866666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>11.46683333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6682,22 +7007,25 @@
         <v>50</v>
       </c>
       <c r="G170" t="n">
+        <v>11.654</v>
+      </c>
+      <c r="H170" t="n">
         <v>11.4665</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,22 +7049,25 @@
         <v>9425.878320479864</v>
       </c>
       <c r="G171" t="n">
+        <v>11.654</v>
+      </c>
+      <c r="H171" t="n">
         <v>11.463</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6760,22 +7091,25 @@
         <v>43</v>
       </c>
       <c r="G172" t="n">
+        <v>11.646</v>
+      </c>
+      <c r="H172" t="n">
         <v>11.46133333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,22 +7133,25 @@
         <v>13794.8974</v>
       </c>
       <c r="G173" t="n">
+        <v>11.62066666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>11.45816666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,22 +7175,25 @@
         <v>43</v>
       </c>
       <c r="G174" t="n">
+        <v>11.62666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>11.45933333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6877,22 +7217,25 @@
         <v>56753.05</v>
       </c>
       <c r="G175" t="n">
+        <v>11.62333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>11.46683333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6916,22 +7259,25 @@
         <v>19720</v>
       </c>
       <c r="G176" t="n">
+        <v>11.61733333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>11.47433333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6955,22 +7301,25 @@
         <v>119194</v>
       </c>
       <c r="G177" t="n">
+        <v>11.626</v>
+      </c>
+      <c r="H177" t="n">
         <v>11.47466666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,22 +7343,25 @@
         <v>93</v>
       </c>
       <c r="G178" t="n">
+        <v>11.64133333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>11.48199999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7033,22 +7385,25 @@
         <v>257.2245</v>
       </c>
       <c r="G179" t="n">
+        <v>11.644</v>
+      </c>
+      <c r="H179" t="n">
         <v>11.48666666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7072,22 +7427,25 @@
         <v>35157</v>
       </c>
       <c r="G180" t="n">
+        <v>11.63733333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>11.48783333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7111,22 +7469,25 @@
         <v>35100</v>
       </c>
       <c r="G181" t="n">
+        <v>11.62066666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>11.48716666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7150,22 +7511,25 @@
         <v>104842.7307</v>
       </c>
       <c r="G182" t="n">
+        <v>11.61066666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>11.48716666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7189,22 +7553,25 @@
         <v>34906.9474</v>
       </c>
       <c r="G183" t="n">
+        <v>11.58866666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>11.48799999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7228,22 +7595,25 @@
         <v>45</v>
       </c>
       <c r="G184" t="n">
+        <v>11.578</v>
+      </c>
+      <c r="H184" t="n">
         <v>11.48683333333332</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7267,22 +7637,25 @@
         <v>37955.2198</v>
       </c>
       <c r="G185" t="n">
+        <v>11.55266666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>11.48849999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7306,22 +7679,25 @@
         <v>20542.6778</v>
       </c>
       <c r="G186" t="n">
+        <v>11.55466666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>11.49516666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7345,22 +7721,25 @@
         <v>20000</v>
       </c>
       <c r="G187" t="n">
+        <v>11.54933333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>11.50183333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,22 +7763,25 @@
         <v>10000</v>
       </c>
       <c r="G188" t="n">
+        <v>11.562</v>
+      </c>
+      <c r="H188" t="n">
         <v>11.51083333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7423,22 +7805,25 @@
         <v>2850.1122</v>
       </c>
       <c r="G189" t="n">
+        <v>11.54466666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>11.51666666666666</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7462,22 +7847,25 @@
         <v>4900</v>
       </c>
       <c r="G190" t="n">
+        <v>11.52666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>11.52266666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,22 +7889,25 @@
         <v>43</v>
       </c>
       <c r="G191" t="n">
+        <v>11.52133333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>11.53183333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7540,22 +7931,25 @@
         <v>3418</v>
       </c>
       <c r="G192" t="n">
+        <v>11.52266666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>11.541</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7579,22 +7973,25 @@
         <v>33775.5714</v>
       </c>
       <c r="G193" t="n">
+        <v>11.51733333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>11.55016666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7618,22 +8015,25 @@
         <v>52179.3086</v>
       </c>
       <c r="G194" t="n">
+        <v>11.53133333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>11.554</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7657,22 +8057,25 @@
         <v>9648.028700000001</v>
       </c>
       <c r="G195" t="n">
+        <v>11.55533333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>11.56433333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7696,22 +8099,25 @@
         <v>498.6778</v>
       </c>
       <c r="G196" t="n">
+        <v>11.58866666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>11.56833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7735,22 +8141,25 @@
         <v>104232.5502</v>
       </c>
       <c r="G197" t="n">
+        <v>11.62933333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>11.57366666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7774,22 +8183,25 @@
         <v>130394.529</v>
       </c>
       <c r="G198" t="n">
+        <v>11.67266666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>11.57883333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7813,22 +8225,25 @@
         <v>114965.7815</v>
       </c>
       <c r="G199" t="n">
+        <v>11.70466666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>11.58216666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7852,22 +8267,25 @@
         <v>138301.5719</v>
       </c>
       <c r="G200" t="n">
+        <v>11.73666666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>11.5855</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7891,22 +8309,25 @@
         <v>52866.3364</v>
       </c>
       <c r="G201" t="n">
+        <v>11.75333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>11.592</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7930,22 +8351,25 @@
         <v>1860</v>
       </c>
       <c r="G202" t="n">
+        <v>11.76666666666666</v>
+      </c>
+      <c r="H202" t="n">
         <v>11.59983333333334</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7969,22 +8393,25 @@
         <v>45852.1633</v>
       </c>
       <c r="G203" t="n">
+        <v>11.78533333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>11.61066666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,22 +8435,25 @@
         <v>41413.9692</v>
       </c>
       <c r="G204" t="n">
+        <v>11.82066666666666</v>
+      </c>
+      <c r="H204" t="n">
         <v>11.6225</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,22 +8477,25 @@
         <v>22769.3074</v>
       </c>
       <c r="G205" t="n">
+        <v>11.856</v>
+      </c>
+      <c r="H205" t="n">
         <v>11.63633333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8086,22 +8519,25 @@
         <v>19908.0438</v>
       </c>
       <c r="G206" t="n">
+        <v>11.88266666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>11.64916666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8125,22 +8561,25 @@
         <v>125955.6857</v>
       </c>
       <c r="G207" t="n">
+        <v>11.92933333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>11.66316666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8164,22 +8603,25 @@
         <v>181869.6994</v>
       </c>
       <c r="G208" t="n">
+        <v>11.996</v>
+      </c>
+      <c r="H208" t="n">
         <v>11.688</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,22 +8645,25 @@
         <v>291256.5998</v>
       </c>
       <c r="G209" t="n">
+        <v>12.056</v>
+      </c>
+      <c r="H209" t="n">
         <v>11.7095</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8242,22 +8687,27 @@
         <v>9741.538461538461</v>
       </c>
       <c r="G210" t="n">
+        <v>12.08133333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>11.7245</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8279,18 +8729,25 @@
         <v>62146.5301</v>
       </c>
       <c r="G211" t="n">
+        <v>12.096</v>
+      </c>
+      <c r="H211" t="n">
         <v>11.7345</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8314,18 +8771,25 @@
         <v>91465.24786249999</v>
       </c>
       <c r="G212" t="n">
+        <v>12.15866666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>11.75816666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8349,18 +8813,25 @@
         <v>17702.1158</v>
       </c>
       <c r="G213" t="n">
+        <v>12.19266666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>11.77233333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8384,18 +8855,25 @@
         <v>99628.8906</v>
       </c>
       <c r="G214" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="H214" t="n">
         <v>11.79033333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8419,18 +8897,25 @@
         <v>69093.4488</v>
       </c>
       <c r="G215" t="n">
+        <v>12.27933333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>11.80566666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8454,18 +8939,25 @@
         <v>48964.9014</v>
       </c>
       <c r="G216" t="n">
+        <v>12.32133333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>11.82083333333334</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8489,18 +8981,25 @@
         <v>24261.7027</v>
       </c>
       <c r="G217" t="n">
+        <v>12.36733333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>11.83233333333334</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8524,18 +9023,25 @@
         <v>359724.0653</v>
       </c>
       <c r="G218" t="n">
+        <v>12.41266666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>11.84516666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8559,18 +9065,25 @@
         <v>62768.4839</v>
       </c>
       <c r="G219" t="n">
+        <v>12.46066666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>11.86316666666667</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8594,18 +9107,25 @@
         <v>208930.5484</v>
       </c>
       <c r="G220" t="n">
+        <v>12.502</v>
+      </c>
+      <c r="H220" t="n">
         <v>11.87700000000001</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8629,18 +9149,25 @@
         <v>194915.8033</v>
       </c>
       <c r="G221" t="n">
+        <v>12.544</v>
+      </c>
+      <c r="H221" t="n">
         <v>11.89133333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8664,18 +9191,25 @@
         <v>822800.5792110004</v>
       </c>
       <c r="G222" t="n">
+        <v>12.59533333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>11.91833333333334</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8699,18 +9233,25 @@
         <v>203366.1794942732</v>
       </c>
       <c r="G223" t="n">
+        <v>12.62666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>11.94533333333334</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8734,18 +9275,25 @@
         <v>31008.91051622875</v>
       </c>
       <c r="G224" t="n">
+        <v>12.626</v>
+      </c>
+      <c r="H224" t="n">
         <v>11.96433333333334</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8769,18 +9317,25 @@
         <v>207240.368249961</v>
       </c>
       <c r="G225" t="n">
+        <v>12.65666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>11.98266666666668</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8804,18 +9359,25 @@
         <v>99223.80036180826</v>
       </c>
       <c r="G226" t="n">
+        <v>12.70866666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>12.00350000000001</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8839,18 +9401,25 @@
         <v>27301.3773</v>
       </c>
       <c r="G227" t="n">
+        <v>12.702</v>
+      </c>
+      <c r="H227" t="n">
         <v>12.02516666666668</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8874,18 +9443,25 @@
         <v>1796627.581228169</v>
       </c>
       <c r="G228" t="n">
+        <v>12.764</v>
+      </c>
+      <c r="H228" t="n">
         <v>12.05450000000001</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8909,18 +9485,25 @@
         <v>75421.5376</v>
       </c>
       <c r="G229" t="n">
+        <v>12.80533333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>12.08200000000001</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8944,18 +9527,25 @@
         <v>725851.3109</v>
       </c>
       <c r="G230" t="n">
+        <v>12.88333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>12.11300000000001</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8979,20 +9569,25 @@
         <v>348338.1811</v>
       </c>
       <c r="G231" t="n">
+        <v>12.93733333333333</v>
+      </c>
+      <c r="H231" t="n">
         <v>12.14166666666668</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9014,18 +9609,21 @@
         <v>174764.4741</v>
       </c>
       <c r="G232" t="n">
+        <v>12.98466666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>12.16700000000001</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9049,18 +9647,21 @@
         <v>359284.7395</v>
       </c>
       <c r="G233" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H233" t="n">
         <v>12.19500000000001</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9084,18 +9685,21 @@
         <v>256025.7806</v>
       </c>
       <c r="G234" t="n">
+        <v>13.00466666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>12.20766666666668</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9119,18 +9723,21 @@
         <v>15283.7589</v>
       </c>
       <c r="G235" t="n">
+        <v>13.02466666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>12.22733333333335</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9154,18 +9761,21 @@
         <v>104822.565</v>
       </c>
       <c r="G236" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H236" t="n">
         <v>12.24700000000001</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9189,18 +9799,21 @@
         <v>651.4408</v>
       </c>
       <c r="G237" t="n">
+        <v>13.026</v>
+      </c>
+      <c r="H237" t="n">
         <v>12.26833333333335</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9224,18 +9837,401 @@
         <v>62664.5115</v>
       </c>
       <c r="G238" t="n">
+        <v>12.97466666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>12.27866666666668</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C239" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="F239" t="n">
+        <v>290811.4117</v>
+      </c>
+      <c r="G239" t="n">
+        <v>13.00866666666667</v>
+      </c>
+      <c r="H239" t="n">
+        <v>12.30550000000002</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C240" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D240" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="E240" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="F240" t="n">
+        <v>151237.2939</v>
+      </c>
+      <c r="G240" t="n">
+        <v>13.00933333333334</v>
+      </c>
+      <c r="H240" t="n">
+        <v>12.32566666666668</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="C241" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D241" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="E241" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F241" t="n">
+        <v>43177</v>
+      </c>
+      <c r="G241" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="H241" t="n">
+        <v>12.34583333333335</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C242" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D242" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E242" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="F242" t="n">
+        <v>62832.75</v>
+      </c>
+      <c r="G242" t="n">
+        <v>12.98466666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>12.36866666666668</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C243" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="D243" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E243" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F243" t="n">
+        <v>166804.7561</v>
+      </c>
+      <c r="G243" t="n">
+        <v>12.94133333333334</v>
+      </c>
+      <c r="H243" t="n">
+        <v>12.39266666666668</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F244" t="n">
+        <v>81917.4075</v>
+      </c>
+      <c r="G244" t="n">
+        <v>12.90266666666667</v>
+      </c>
+      <c r="H244" t="n">
+        <v>12.41316666666668</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C245" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E245" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>96196.66800000001</v>
+      </c>
+      <c r="G245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H245" t="n">
+        <v>12.42483333333335</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>12</v>
+      </c>
+      <c r="D246" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>12</v>
+      </c>
+      <c r="F246" t="n">
+        <v>67493.8091</v>
+      </c>
+      <c r="G246" t="n">
+        <v>12.70733333333334</v>
+      </c>
+      <c r="H246" t="n">
+        <v>12.42983333333335</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C247" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F247" t="n">
+        <v>169.5794</v>
+      </c>
+      <c r="G247" t="n">
+        <v>12.654</v>
+      </c>
+      <c r="H247" t="n">
+        <v>12.44316666666668</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C248" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>87664.8057</v>
+      </c>
+      <c r="G248" t="n">
+        <v>12.608</v>
+      </c>
+      <c r="H248" t="n">
+        <v>12.45650000000001</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-23 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1116517.177268551</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>837264.5144685508</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>857659.0807685509</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>857759.0807685509</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>857759.0807685509</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>820125.5889685509</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>806440.6479685509</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>727629.5863685509</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>784482.9055685509</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>890999.7526685509</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>828093.2015685509</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>872163.4600685509</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>880126.6193685509</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4180,14 +4180,10 @@
         <v>425328.8954887539</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="J115" t="n">
-        <v>11.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4217,19 +4213,11 @@
         <v>343572.0436887539</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J116" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4258,19 +4246,11 @@
         <v>344439.3463773922</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,19 +4279,11 @@
         <v>336786.2320773922</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="J118" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4340,19 +4312,11 @@
         <v>337086.2320773922</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="J119" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4381,19 +4345,11 @@
         <v>241626.9316773922</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="J120" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4422,19 +4378,11 @@
         <v>241669.9316773922</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="J121" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4541,19 +4477,11 @@
         <v>149795.9991773922</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="J124" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4585,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4621,19 +4543,15 @@
         <v>150663.3017773922</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>11.4</v>
       </c>
       <c r="J126" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4662,17 +4580,17 @@
         <v>150663.3017773922</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>11.4</v>
       </c>
       <c r="J127" t="n">
-        <v>11.58</v>
+        <v>11.4</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4703,17 +4621,17 @@
         <v>158725.3017773922</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>11.4</v>
       </c>
       <c r="J128" t="n">
-        <v>11.58</v>
+        <v>11.4</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4744,19 +4662,11 @@
         <v>158725.3017773922</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J129" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4788,14 +4698,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4824,19 +4728,11 @@
         <v>58836.84637739216</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J131" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4868,14 +4764,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4907,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4946,14 +4830,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4982,19 +4860,11 @@
         <v>44203.63497739216</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5026,14 +4896,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5062,19 +4926,11 @@
         <v>39493.63497739216</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J137" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5103,19 +4959,15 @@
         <v>39797.95197739216</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>11.35</v>
       </c>
       <c r="J138" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.35</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5144,17 +4996,17 @@
         <v>40489.08707739216</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>11.44</v>
       </c>
       <c r="J139" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5185,11 +5037,13 @@
         <v>38462.77437739216</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11.52</v>
+      </c>
       <c r="J140" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5224,11 +5078,13 @@
         <v>13969.68857739216</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11.44</v>
+      </c>
       <c r="J141" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5263,11 +5119,13 @@
         <v>-7470.271022607838</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11.35</v>
+      </c>
       <c r="J142" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5302,11 +5160,13 @@
         <v>-24759.53072260784</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11.33</v>
+      </c>
       <c r="J143" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5345,7 +5205,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5380,13 +5240,11 @@
         <v>-32552.75392260784</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>11.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5421,13 +5279,11 @@
         <v>-30365.75392260784</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5462,13 +5318,11 @@
         <v>61952.14107739217</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>11.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5503,13 +5357,11 @@
         <v>62063.14107739217</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>11.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5548,7 +5400,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5587,7 +5439,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5626,7 +5478,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5665,7 +5517,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5700,11 +5552,11 @@
         <v>158589.5106773922</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5743,7 +5595,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5782,7 +5634,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5821,7 +5673,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5860,7 +5712,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5899,7 +5751,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5938,7 +5790,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5977,7 +5829,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6016,7 +5868,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6051,11 +5903,13 @@
         <v>84084.41327739216</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>11.35</v>
+      </c>
       <c r="J162" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6090,13 +5944,13 @@
         <v>92312.31067739216</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>11.45</v>
       </c>
       <c r="J163" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6135,7 +5989,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6174,7 +6028,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6213,7 +6067,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6252,7 +6106,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6291,7 +6145,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6326,11 +6180,11 @@
         <v>103353.0002773922</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6369,7 +6223,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6404,11 +6258,11 @@
         <v>-11734.20732260784</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6443,11 +6297,11 @@
         <v>-11734.20732260784</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6482,11 +6336,11 @@
         <v>-52840.53332260784</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6521,11 +6375,11 @@
         <v>-52840.53332260784</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6560,11 +6414,11 @@
         <v>-52790.53332260784</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6599,11 +6453,11 @@
         <v>-80280.40732260783</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6638,11 +6492,13 @@
         <v>-240542.0709226078</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>11.34</v>
+      </c>
       <c r="J177" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6677,13 +6533,13 @@
         <v>-34050.51512260785</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>11.31</v>
       </c>
       <c r="J178" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6718,11 +6574,13 @@
         <v>-9706.607822607846</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>11.33</v>
+      </c>
       <c r="J179" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6757,13 +6615,13 @@
         <v>-23891.73432260784</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>11.34</v>
       </c>
       <c r="J180" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6798,11 +6656,13 @@
         <v>-56306.66492260784</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>11.25</v>
+      </c>
       <c r="J181" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6837,11 +6697,13 @@
         <v>-56243.25722260784</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J182" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6876,11 +6738,13 @@
         <v>-61439.77572260784</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>11.46</v>
+      </c>
       <c r="J183" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6915,11 +6779,13 @@
         <v>-61439.77572260784</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J184" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6954,11 +6820,13 @@
         <v>-61439.77572260784</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J185" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6993,11 +6861,13 @@
         <v>-167397.1294226078</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J186" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7032,13 +6902,13 @@
         <v>-167397.1294226078</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>11.16</v>
       </c>
       <c r="J187" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7073,13 +6943,13 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>11.16</v>
       </c>
       <c r="J188" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7114,13 +6984,13 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>11.15</v>
       </c>
       <c r="J189" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7155,13 +7025,13 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>11.15</v>
       </c>
       <c r="J190" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7196,13 +7066,13 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>11.15</v>
       </c>
       <c r="J191" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7237,13 +7107,13 @@
         <v>-177962.9090226078</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>11.15</v>
       </c>
       <c r="J192" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7278,13 +7148,13 @@
         <v>-623499.6542226078</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>11.57</v>
       </c>
       <c r="J193" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7319,13 +7189,13 @@
         <v>-623455.6542226078</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>11.14</v>
       </c>
       <c r="J194" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7360,11 +7230,13 @@
         <v>-659702.9062226078</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>11.56</v>
+      </c>
       <c r="J195" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7399,11 +7271,13 @@
         <v>-659659.9062226078</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>11.54</v>
+      </c>
       <c r="J196" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7438,13 +7312,13 @@
         <v>-634752.8782226078</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>11.55</v>
       </c>
       <c r="J197" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7479,11 +7353,13 @@
         <v>-634709.8782226078</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J198" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7518,11 +7394,13 @@
         <v>-650402.8782226078</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>11.68</v>
+      </c>
       <c r="J199" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7557,11 +7435,13 @@
         <v>-659809.8782226078</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>11.56</v>
+      </c>
       <c r="J200" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7596,11 +7476,13 @@
         <v>-747453.5201226078</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>11.43</v>
+      </c>
       <c r="J201" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7635,11 +7517,13 @@
         <v>-747453.5201226078</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>11.33</v>
+      </c>
       <c r="J202" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7674,13 +7558,13 @@
         <v>-808509.8307226078</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>11.33</v>
       </c>
       <c r="J203" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7715,13 +7599,13 @@
         <v>-797464.2068226078</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>11.21</v>
       </c>
       <c r="J204" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7756,13 +7640,13 @@
         <v>-797420.2068226078</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>11.33</v>
       </c>
       <c r="J205" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7797,13 +7681,13 @@
         <v>-879870.7361226077</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>11.56</v>
       </c>
       <c r="J206" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7838,11 +7722,13 @@
         <v>-879826.7361226077</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>11.21</v>
+      </c>
       <c r="J207" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7877,11 +7763,13 @@
         <v>-900523.7554226078</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>11.41</v>
+      </c>
       <c r="J208" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7916,11 +7804,13 @@
         <v>-900479.7554226078</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>11.24</v>
+      </c>
       <c r="J209" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7955,11 +7845,13 @@
         <v>-909109.6484226078</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>11.42</v>
+      </c>
       <c r="J210" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7994,11 +7886,13 @@
         <v>-853712.6484226078</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>11.38</v>
+      </c>
       <c r="J211" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8033,11 +7927,13 @@
         <v>-930252.7502226077</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>11.52</v>
+      </c>
       <c r="J212" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8072,11 +7968,13 @@
         <v>-738826.4833226078</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>11.5</v>
+      </c>
       <c r="J213" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8111,11 +8009,13 @@
         <v>-730635.3267226078</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>11.55</v>
+      </c>
       <c r="J214" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8150,11 +8050,13 @@
         <v>-730548.3267226078</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J215" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8193,7 +8095,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8232,7 +8134,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8271,7 +8173,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8310,7 +8212,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8349,7 +8251,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8388,7 +8290,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8427,7 +8329,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8462,13 +8364,13 @@
         <v>-790420.1936226079</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>11.55</v>
       </c>
       <c r="J223" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8503,13 +8405,13 @@
         <v>-790285.1936226079</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>11.5</v>
       </c>
       <c r="J224" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8544,11 +8446,13 @@
         <v>-791444.8583226078</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>11.55</v>
+      </c>
       <c r="J225" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8583,11 +8487,13 @@
         <v>-791394.8583226078</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J226" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8622,11 +8528,13 @@
         <v>-758675.1027226078</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>11.54</v>
+      </c>
       <c r="J227" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8661,11 +8569,13 @@
         <v>-758625.1027226078</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>11.55</v>
+      </c>
       <c r="J228" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8700,11 +8610,13 @@
         <v>-768050.9810430877</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J229" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8739,11 +8651,13 @@
         <v>-768007.9810430877</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J230" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8778,11 +8692,13 @@
         <v>-781802.8784430877</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J231" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8817,11 +8733,13 @@
         <v>-781759.8784430877</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J232" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8856,11 +8774,13 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>11.77</v>
+      </c>
       <c r="J233" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8895,11 +8815,13 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J234" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8934,11 +8856,13 @@
         <v>-844200.8284430876</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>11.78</v>
+      </c>
       <c r="J235" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8973,11 +8897,13 @@
         <v>-844107.8284430876</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>11.68</v>
+      </c>
       <c r="J236" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9012,13 +8938,13 @@
         <v>-844365.0529430876</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>11.78</v>
       </c>
       <c r="J237" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9053,11 +8979,13 @@
         <v>-879522.0529430876</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>11.59</v>
+      </c>
       <c r="J238" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9092,13 +9020,13 @@
         <v>-914622.0529430876</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>11.4</v>
       </c>
       <c r="J239" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9133,13 +9061,13 @@
         <v>-1019464.783643088</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>11.3</v>
       </c>
       <c r="J240" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9174,13 +9102,13 @@
         <v>-1054371.731043088</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>11.25</v>
       </c>
       <c r="J241" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9215,13 +9143,13 @@
         <v>-1054326.731043088</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>11.21</v>
       </c>
       <c r="J242" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9256,13 +9184,13 @@
         <v>-1016371.511243088</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>11.39</v>
       </c>
       <c r="J243" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9297,11 +9225,13 @@
         <v>-995828.8334430876</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J244" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9336,11 +9266,13 @@
         <v>-995828.8334430876</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J245" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9375,11 +9307,13 @@
         <v>-995828.8334430876</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J246" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9414,11 +9348,13 @@
         <v>-998678.9456430876</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J247" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9453,11 +9389,13 @@
         <v>-998678.9456430876</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J248" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9492,11 +9430,13 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J249" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9531,11 +9471,13 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J250" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9570,11 +9512,13 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J251" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9609,13 +9553,13 @@
         <v>-946456.6370430876</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>11.7</v>
       </c>
       <c r="J252" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9650,13 +9594,13 @@
         <v>-956104.6657430877</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>11.8</v>
       </c>
       <c r="J253" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9691,13 +9635,13 @@
         <v>-955605.9879430877</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>11.76</v>
       </c>
       <c r="J254" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9732,11 +9676,13 @@
         <v>-851373.4377430878</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J255" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9775,7 +9721,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9810,11 +9756,13 @@
         <v>-736407.6562430877</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>11.86</v>
+      </c>
       <c r="J257" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9853,7 +9801,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9892,7 +9840,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9931,7 +9879,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9970,7 +9918,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10009,7 +9957,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10048,7 +9996,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10087,7 +10035,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10126,7 +10074,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10165,7 +10113,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10204,7 +10152,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10239,19 +10187,19 @@
         <v>-141841.7250046262</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>11.58</v>
+        <v>11.35</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
-        <v>1.043359240069085</v>
+        <v>1</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
@@ -10278,11 +10226,17 @@
         <v>-203988.2551046262</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10311,11 +10265,17 @@
         <v>-112523.0072421262</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10347,8 +10307,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10380,8 +10346,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10413,8 +10385,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10446,8 +10424,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10479,8 +10463,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10512,8 +10502,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10542,11 +10538,17 @@
         <v>396029.4720578738</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10578,8 +10580,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10608,11 +10616,17 @@
         <v>382014.7269578738</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10644,8 +10658,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10677,8 +10697,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10707,11 +10733,17 @@
         <v>1173806.395652646</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10743,8 +10775,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10773,11 +10811,17 @@
         <v>1065789.827764493</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10806,11 +10850,17 @@
         <v>1038488.450464493</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10839,11 +10889,17 @@
         <v>2835116.031692661</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +10928,17 @@
         <v>2759694.494092661</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10905,11 +10967,17 @@
         <v>3485545.804992661</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10938,11 +11006,17 @@
         <v>3137207.623892661</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10971,11 +11045,17 @@
         <v>2962443.149792661</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11004,11 +11084,17 @@
         <v>2603158.410292661</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11037,11 +11123,17 @@
         <v>2347132.629692661</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11070,11 +11162,17 @@
         <v>2362416.38859266</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11106,8 +11204,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11139,8 +11243,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11169,15 +11279,23 @@
         <v>2299751.87709266</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+        <v>1.087511013215859</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1.103231597845601</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11235,7 +11353,7 @@
         <v>2439325.994892661</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11268,7 +11386,7 @@
         <v>2396148.994892661</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11301,7 +11419,7 @@
         <v>2458981.744892661</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11334,7 +11452,7 @@
         <v>2625786.50099266</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11367,7 +11485,7 @@
         <v>2543869.09349266</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11400,7 +11518,7 @@
         <v>2447672.42549266</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11433,7 +11551,7 @@
         <v>2380178.61639266</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11466,7 +11584,7 @@
         <v>2380348.19579266</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11499,7 +11617,7 @@
         <v>2380348.19579266</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11510,6 +11628,6 @@
       <c r="M306" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-23 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1474,7 +1474,7 @@
         <v>1012825.543568551</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>704773.2181685508</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>722091.3615685508</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>837264.5144685508</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>867018.9194685508</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>857659.0807685509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>857759.0807685509</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -4543,14 +4543,10 @@
         <v>150663.3017773922</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4580,19 +4576,11 @@
         <v>150663.3017773922</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J127" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4621,19 +4609,11 @@
         <v>158725.3017773922</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J128" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4959,14 +4939,10 @@
         <v>39797.95197739216</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J138" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4996,1966 +4972,1634 @@
         <v>40489.08707739216</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>11.44</v>
       </c>
-      <c r="J139" t="n">
+      <c r="C140" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E140" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2026.3127</v>
+      </c>
+      <c r="G140" t="n">
+        <v>38462.77437739216</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>11.35</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="C141" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24493.0858</v>
+      </c>
+      <c r="G141" t="n">
+        <v>13969.68857739216</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C142" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21439.9596</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-7470.271022607838</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="F143" t="n">
+        <v>17289.2597</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-24759.53072260784</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7793.2232</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-24759.53072260784</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C145" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7793.2232</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-32552.75392260784</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C146" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2187</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-30365.75392260784</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="F147" t="n">
+        <v>92317.895</v>
+      </c>
+      <c r="G147" t="n">
+        <v>61952.14107739217</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F148" t="n">
+        <v>111</v>
+      </c>
+      <c r="G148" t="n">
+        <v>62063.14107739217</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F149" t="n">
+        <v>83568.1741</v>
+      </c>
+      <c r="G149" t="n">
+        <v>145631.3151773922</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F150" t="n">
+        <v>180.573</v>
+      </c>
+      <c r="G150" t="n">
+        <v>145450.7421773922</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F151" t="n">
+        <v>111</v>
+      </c>
+      <c r="G151" t="n">
+        <v>145339.7421773922</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F152" t="n">
+        <v>44</v>
+      </c>
+      <c r="G152" t="n">
+        <v>145295.7421773922</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F153" t="n">
+        <v>13293.7685</v>
+      </c>
+      <c r="G153" t="n">
+        <v>158589.5106773922</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F154" t="n">
+        <v>444</v>
+      </c>
+      <c r="G154" t="n">
+        <v>158589.5106773922</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5889.0538</v>
+      </c>
+      <c r="G155" t="n">
+        <v>158589.5106773922</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4741.0172</v>
+      </c>
+      <c r="G156" t="n">
+        <v>153848.4934773922</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>19626.8223</v>
+      </c>
+      <c r="G157" t="n">
+        <v>134221.6711773922</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2945</v>
+      </c>
+      <c r="G158" t="n">
+        <v>134221.6711773922</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9430</v>
+      </c>
+      <c r="G159" t="n">
+        <v>134221.6711773922</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F160" t="n">
+        <v>49153.6949</v>
+      </c>
+      <c r="G160" t="n">
+        <v>85067.97627739215</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4741.0172</v>
+      </c>
+      <c r="G161" t="n">
+        <v>80326.95907739215</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3757.4542</v>
+      </c>
+      <c r="G162" t="n">
+        <v>84084.41327739216</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8227.8974</v>
+      </c>
+      <c r="G163" t="n">
+        <v>92312.31067739216</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>79931.2273</v>
+      </c>
+      <c r="G164" t="n">
+        <v>92312.31067739216</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>200</v>
+      </c>
+      <c r="G165" t="n">
+        <v>92512.31067739216</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10739.7796</v>
+      </c>
+      <c r="G166" t="n">
+        <v>92512.31067739216</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12856.2204</v>
+      </c>
+      <c r="G167" t="n">
+        <v>92512.31067739216</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1312.6896</v>
+      </c>
+      <c r="G168" t="n">
+        <v>93825.00027739216</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9528</v>
+      </c>
+      <c r="G169" t="n">
+        <v>103353.0002773922</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1362.6896</v>
+      </c>
+      <c r="G170" t="n">
+        <v>103353.0002773922</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>115087.2076</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-11734.20732260784</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F172" t="n">
+        <v>57870.5607</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-11734.20732260784</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F173" t="n">
+        <v>41106.326</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-52840.53332260784</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F174" t="n">
+        <v>6128.6504</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-52840.53332260784</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-52790.53332260784</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F176" t="n">
+        <v>27489.874</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-80280.40732260783</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F177" t="n">
+        <v>160261.6636</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-240542.0709226078</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F178" t="n">
+        <v>206491.5558</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-34050.51512260785</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F179" t="n">
+        <v>24343.9073</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-9706.607822607846</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F180" t="n">
+        <v>14185.1265</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-23891.73432260784</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="F181" t="n">
+        <v>32414.9306</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-56306.66492260784</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F182" t="n">
+        <v>63.4077</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-56243.25722260784</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5196.5185</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-61439.77572260784</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>46768.6673</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-61439.77572260784</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>59686.2418</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-61439.77572260784</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="F186" t="n">
+        <v>105957.3537</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-167397.1294226078</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="F187" t="n">
+        <v>16895.602</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-167397.1294226078</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10739.7796</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-178136.9090226078</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="C140" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="D140" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="E140" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2026.3127</v>
-      </c>
-      <c r="G140" t="n">
-        <v>38462.77437739216</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="J140" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C141" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="D141" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E141" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="F141" t="n">
-        <v>24493.0858</v>
-      </c>
-      <c r="G141" t="n">
-        <v>13969.68857739216</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J141" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C142" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D142" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E142" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F142" t="n">
-        <v>21439.9596</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-7470.271022607838</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J142" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C143" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="D143" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E143" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="F143" t="n">
-        <v>17289.2597</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-24759.53072260784</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J143" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="C144" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="D144" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="E144" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7793.2232</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-24759.53072260784</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="C145" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="D145" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="E145" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="F145" t="n">
-        <v>7793.2232</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-32552.75392260784</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="C146" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="D146" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="E146" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2187</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-30365.75392260784</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="C147" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D147" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E147" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="F147" t="n">
-        <v>92317.895</v>
-      </c>
-      <c r="G147" t="n">
-        <v>61952.14107739217</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="C148" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D148" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="E148" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F148" t="n">
-        <v>111</v>
-      </c>
-      <c r="G148" t="n">
-        <v>62063.14107739217</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="C149" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D149" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E149" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F149" t="n">
-        <v>83568.1741</v>
-      </c>
-      <c r="G149" t="n">
-        <v>145631.3151773922</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C150" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D150" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E150" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F150" t="n">
-        <v>180.573</v>
-      </c>
-      <c r="G150" t="n">
-        <v>145450.7421773922</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C151" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D151" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F151" t="n">
-        <v>111</v>
-      </c>
-      <c r="G151" t="n">
-        <v>145339.7421773922</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C152" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D152" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E152" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F152" t="n">
-        <v>44</v>
-      </c>
-      <c r="G152" t="n">
-        <v>145295.7421773922</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C153" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D153" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E153" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F153" t="n">
-        <v>13293.7685</v>
-      </c>
-      <c r="G153" t="n">
-        <v>158589.5106773922</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C154" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D154" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E154" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F154" t="n">
-        <v>444</v>
-      </c>
-      <c r="G154" t="n">
-        <v>158589.5106773922</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F155" t="n">
-        <v>5889.0538</v>
-      </c>
-      <c r="G155" t="n">
-        <v>158589.5106773922</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4741.0172</v>
-      </c>
-      <c r="G156" t="n">
-        <v>153848.4934773922</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>19626.8223</v>
-      </c>
-      <c r="G157" t="n">
-        <v>134221.6711773922</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2945</v>
-      </c>
-      <c r="G158" t="n">
-        <v>134221.6711773922</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9430</v>
-      </c>
-      <c r="G159" t="n">
-        <v>134221.6711773922</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="D160" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="E160" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F160" t="n">
-        <v>49153.6949</v>
-      </c>
-      <c r="G160" t="n">
-        <v>85067.97627739215</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C161" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="D161" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4741.0172</v>
-      </c>
-      <c r="G161" t="n">
-        <v>80326.95907739215</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="C162" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="D162" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="E162" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3757.4542</v>
-      </c>
-      <c r="G162" t="n">
-        <v>84084.41327739216</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J162" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>8227.8974</v>
-      </c>
-      <c r="G163" t="n">
-        <v>92312.31067739216</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="J163" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>79931.2273</v>
-      </c>
-      <c r="G164" t="n">
-        <v>92312.31067739216</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F165" t="n">
-        <v>200</v>
-      </c>
-      <c r="G165" t="n">
-        <v>92512.31067739216</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>10739.7796</v>
-      </c>
-      <c r="G166" t="n">
-        <v>92512.31067739216</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>12856.2204</v>
-      </c>
-      <c r="G167" t="n">
-        <v>92512.31067739216</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1312.6896</v>
-      </c>
-      <c r="G168" t="n">
-        <v>93825.00027739216</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="F169" t="n">
-        <v>9528</v>
-      </c>
-      <c r="G169" t="n">
-        <v>103353.0002773922</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1362.6896</v>
-      </c>
-      <c r="G170" t="n">
-        <v>103353.0002773922</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="C171" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E171" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F171" t="n">
-        <v>115087.2076</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-11734.20732260784</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C172" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F172" t="n">
-        <v>57870.5607</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-11734.20732260784</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="C173" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D173" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="E173" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F173" t="n">
-        <v>41106.326</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-52840.53332260784</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C174" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D174" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E174" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F174" t="n">
-        <v>6128.6504</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-52840.53332260784</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C175" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D175" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F175" t="n">
-        <v>50</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-52790.53332260784</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F176" t="n">
-        <v>27489.874</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-80280.40732260783</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="F177" t="n">
-        <v>160261.6636</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-240542.0709226078</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="J177" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="F178" t="n">
-        <v>206491.5558</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-34050.51512260785</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="J178" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F179" t="n">
-        <v>24343.9073</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-9706.607822607846</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J179" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F180" t="n">
-        <v>14185.1265</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-23891.73432260784</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="J180" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="F181" t="n">
-        <v>32414.9306</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-56306.66492260784</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="J181" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F182" t="n">
-        <v>63.4077</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-56243.25722260784</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="J182" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>5196.5185</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-61439.77572260784</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="J183" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>46768.6673</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-61439.77572260784</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J184" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F185" t="n">
-        <v>59686.2418</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-61439.77572260784</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J185" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="F186" t="n">
-        <v>105957.3537</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-167397.1294226078</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J186" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="F187" t="n">
-        <v>16895.602</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-167397.1294226078</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="J187" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F188" t="n">
-        <v>10739.7796</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-178136.9090226078</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="J188" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6989,9 +6633,7 @@
       <c r="I189" t="n">
         <v>11.15</v>
       </c>
-      <c r="J189" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7030,9 +6672,7 @@
       <c r="I190" t="n">
         <v>11.15</v>
       </c>
-      <c r="J190" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7071,9 +6711,7 @@
       <c r="I191" t="n">
         <v>11.15</v>
       </c>
-      <c r="J191" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7112,9 +6750,7 @@
       <c r="I192" t="n">
         <v>11.15</v>
       </c>
-      <c r="J192" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7148,14 +6784,10 @@
         <v>-623499.6542226078</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="J193" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7194,9 +6826,7 @@
       <c r="I194" t="n">
         <v>11.14</v>
       </c>
-      <c r="J194" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7230,14 +6860,10 @@
         <v>-659702.9062226078</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="J195" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7271,14 +6897,10 @@
         <v>-659659.9062226078</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="J196" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,14 +6934,10 @@
         <v>-634752.8782226078</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J197" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,14 +6971,10 @@
         <v>-634709.8782226078</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J198" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7394,14 +7008,10 @@
         <v>-650402.8782226078</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="J199" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7435,14 +7045,10 @@
         <v>-659809.8782226078</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="J200" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7476,14 +7082,10 @@
         <v>-747453.5201226078</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="J201" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,14 +7119,10 @@
         <v>-747453.5201226078</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J202" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7558,14 +7156,10 @@
         <v>-808509.8307226078</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J203" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,14 +7193,10 @@
         <v>-797464.2068226078</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="J204" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,14 +7230,10 @@
         <v>-797420.2068226078</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J205" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7681,14 +7267,10 @@
         <v>-879870.7361226077</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="J206" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,14 +7304,10 @@
         <v>-879826.7361226077</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="J207" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7768,9 +7346,7 @@
       <c r="I208" t="n">
         <v>11.41</v>
       </c>
-      <c r="J208" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,14 +7380,10 @@
         <v>-900479.7554226078</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="J209" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,14 +7417,10 @@
         <v>-909109.6484226078</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="J210" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7886,14 +7454,10 @@
         <v>-853712.6484226078</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="J211" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7927,14 +7491,10 @@
         <v>-930252.7502226077</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="J212" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7968,14 +7528,10 @@
         <v>-738826.4833226078</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J213" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,14 +7565,10 @@
         <v>-730635.3267226078</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J214" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8050,14 +7602,10 @@
         <v>-730548.3267226078</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J215" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,9 +7679,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,9 +7716,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,9 +7753,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,9 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,9 +7827,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,9 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8364,14 +7898,10 @@
         <v>-790420.1936226079</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J223" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8405,14 +7935,10 @@
         <v>-790285.1936226079</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J224" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8446,14 +7972,10 @@
         <v>-791444.8583226078</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J225" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,14 +8009,10 @@
         <v>-791394.8583226078</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J226" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8528,14 +8046,10 @@
         <v>-758675.1027226078</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="J227" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8569,14 +8083,10 @@
         <v>-758625.1027226078</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J228" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,14 +8120,10 @@
         <v>-768050.9810430877</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J229" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8651,14 +8157,10 @@
         <v>-768007.9810430877</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J230" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8692,14 +8194,10 @@
         <v>-781802.8784430877</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J231" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,14 +8231,10 @@
         <v>-781759.8784430877</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J232" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8774,14 +8268,10 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J233" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8815,14 +8305,10 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J234" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8856,14 +8342,10 @@
         <v>-844200.8284430876</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J235" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8897,14 +8379,10 @@
         <v>-844107.8284430876</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="J236" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,14 +8416,10 @@
         <v>-844365.0529430876</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J237" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8979,14 +8453,10 @@
         <v>-879522.0529430876</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J238" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9020,14 +8490,10 @@
         <v>-914622.0529430876</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J239" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,9 +8532,7 @@
       <c r="I240" t="n">
         <v>11.3</v>
       </c>
-      <c r="J240" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9107,9 +8571,7 @@
       <c r="I241" t="n">
         <v>11.25</v>
       </c>
-      <c r="J241" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9148,9 +8610,7 @@
       <c r="I242" t="n">
         <v>11.21</v>
       </c>
-      <c r="J242" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9189,9 +8649,7 @@
       <c r="I243" t="n">
         <v>11.39</v>
       </c>
-      <c r="J243" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,9 +8688,7 @@
       <c r="I244" t="n">
         <v>11.4</v>
       </c>
-      <c r="J244" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9271,9 +8727,7 @@
       <c r="I245" t="n">
         <v>11.7</v>
       </c>
-      <c r="J245" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9307,14 +8761,10 @@
         <v>-995828.8334430876</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J246" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9348,14 +8798,10 @@
         <v>-998678.9456430876</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J247" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9394,9 +8840,7 @@
       <c r="I248" t="n">
         <v>11.51</v>
       </c>
-      <c r="J248" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9430,14 +8874,10 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J249" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9471,14 +8911,10 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J250" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9512,14 +8948,10 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J251" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9553,14 +8985,10 @@
         <v>-946456.6370430876</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J252" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9594,14 +9022,10 @@
         <v>-956104.6657430877</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J253" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9635,14 +9059,10 @@
         <v>-955605.9879430877</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="J254" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9676,14 +9096,10 @@
         <v>-851373.4377430878</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J255" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9717,12 +9133,12 @@
         <v>-851373.4377430878</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>11.35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9756,14 +9172,10 @@
         <v>-736407.6562430877</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J257" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9800,9 +9212,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9839,9 +9249,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9878,9 +9286,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9917,9 +9323,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9956,9 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,9 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10034,9 +9434,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10073,9 +9471,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10112,9 +9508,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10151,9 +9545,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10187,20 +9579,16 @@
         <v>-141841.7250046262</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>11.35</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -10226,17 +9614,11 @@
         <v>-203988.2551046262</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10265,17 +9647,11 @@
         <v>-112523.0072421262</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10304,17 +9680,11 @@
         <v>-130225.1230421262</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10346,14 +9716,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +9749,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10424,14 +9782,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10463,14 +9815,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10502,14 +9848,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10541,14 +9881,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10580,14 +9914,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10619,14 +9947,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10658,14 +9980,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10697,14 +10013,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10736,14 +10046,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10775,14 +10079,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10814,14 +10112,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10853,14 +10145,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10892,14 +10178,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10931,14 +10211,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10970,14 +10244,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +10277,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11048,14 +10310,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +10343,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +10376,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11165,14 +10409,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11204,14 +10442,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11243,14 +10475,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11279,23 +10505,15 @@
         <v>2299751.87709266</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
-        <v>1.087511013215859</v>
-      </c>
-      <c r="M296" t="n">
-        <v>1.103231597845601</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11353,7 +10571,7 @@
         <v>2439325.994892661</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11386,7 +10604,7 @@
         <v>2396148.994892661</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11419,7 +10637,7 @@
         <v>2458981.744892661</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11452,7 +10670,7 @@
         <v>2625786.50099266</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11485,7 +10703,7 @@
         <v>2543869.09349266</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11518,7 +10736,7 @@
         <v>2447672.42549266</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11551,7 +10769,7 @@
         <v>2380178.61639266</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11584,7 +10802,7 @@
         <v>2380348.19579266</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11617,7 +10835,7 @@
         <v>2380348.19579266</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11628,6 +10846,6 @@
       <c r="M306" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-23 BackTest ETZ.xlsx
@@ -1474,7 +1474,7 @@
         <v>1012825.543568551</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>704773.2181685508</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>722091.3615685508</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>837264.5144685508</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>867018.9194685508</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>857659.0807685509</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>857759.0807685509</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -6589,1620 +6589,1462 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F189" t="n">
+        <v>35740.6077</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-178136.9090226078</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
         <v>11.16</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
+      <c r="C190" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F190" t="n">
+        <v>118354.2658</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-178136.9090226078</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F191" t="n">
+        <v>105549.8255</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-178136.9090226078</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F192" t="n">
+        <v>174</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-177962.9090226078</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F193" t="n">
+        <v>445536.7452</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-623499.6542226078</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F194" t="n">
+        <v>44</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-623455.6542226078</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F195" t="n">
+        <v>36247.252</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-659702.9062226078</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F196" t="n">
+        <v>43</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-659659.9062226078</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F197" t="n">
+        <v>24907.028</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-634752.8782226078</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F198" t="n">
+        <v>43</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-634709.8782226078</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15693</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-650402.8782226078</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="E200" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F200" t="n">
+        <v>9407</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-659809.8782226078</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F201" t="n">
+        <v>87643.6419</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-747453.5201226078</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E202" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10258</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-747453.5201226078</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="E203" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="F203" t="n">
+        <v>61056.3106</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-808509.8307226078</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F204" t="n">
+        <v>11045.6239</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-797464.2068226078</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F205" t="n">
+        <v>44</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-797420.2068226078</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C206" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E206" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="F206" t="n">
+        <v>82450.52929999999</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-879870.7361226077</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E207" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F207" t="n">
+        <v>44</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-879826.7361226077</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="C208" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="F208" t="n">
+        <v>20697.0193</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-900523.7554226078</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="E209" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="F209" t="n">
+        <v>44</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-900479.7554226078</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E210" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F210" t="n">
+        <v>8629.893</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-909109.6484226078</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="E211" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F211" t="n">
+        <v>55397</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-853712.6484226078</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>76540.1018</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-930252.7502226077</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F213" t="n">
+        <v>191426.2669</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-738826.4833226078</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8191.1566</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-730635.3267226078</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F215" t="n">
+        <v>87</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-730548.3267226078</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C216" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D216" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F216" t="n">
+        <v>117.8273</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-730666.1540226078</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C217" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D217" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F217" t="n">
+        <v>11353.1944</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-742019.3484226079</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C218" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E218" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F218" t="n">
+        <v>45</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-741974.3484226079</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C219" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E219" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F219" t="n">
+        <v>45</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-741929.3484226079</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E220" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25086.8452</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-767016.1936226079</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D221" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F221" t="n">
+        <v>120686.6755</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-767016.1936226079</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C222" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4140</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-767016.1936226079</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C223" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23404</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-790420.1936226079</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C224" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D224" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F224" t="n">
+        <v>135</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-790285.1936226079</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C225" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1159.6647</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-791444.8583226078</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C226" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D226" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F226" t="n">
+        <v>50</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-791394.8583226078</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J226" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C227" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D227" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F227" t="n">
+        <v>32719.7556</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-758675.1027226078</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="J227" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D228" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F228" t="n">
+        <v>50</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-758625.1027226078</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J228" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C229" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D229" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F229" t="n">
+        <v>9425.878320479864</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-768050.9810430877</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C230" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D230" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F230" t="n">
+        <v>43</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-768007.9810430877</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J230" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C231" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D231" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E231" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F231" t="n">
+        <v>13794.8974</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-781802.8784430877</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J231" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C189" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D189" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F189" t="n">
-        <v>35740.6077</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-178136.9090226078</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C190" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D190" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="E190" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F190" t="n">
-        <v>118354.2658</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-178136.9090226078</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="C191" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D191" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F191" t="n">
-        <v>105549.8255</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-178136.9090226078</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="C192" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="D192" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="E192" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F192" t="n">
-        <v>174</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-177962.9090226078</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C193" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="D193" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="E193" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="F193" t="n">
-        <v>445536.7452</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-623499.6542226078</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C194" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D194" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E194" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="F194" t="n">
-        <v>44</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-623455.6542226078</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="C195" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="F195" t="n">
-        <v>36247.252</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-659702.9062226078</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C196" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D196" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E196" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F196" t="n">
-        <v>43</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-659659.9062226078</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C197" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D197" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E197" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F197" t="n">
-        <v>24907.028</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-634752.8782226078</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C198" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D198" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="E198" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F198" t="n">
-        <v>43</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-634709.8782226078</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="C199" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D199" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E199" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="F199" t="n">
-        <v>15693</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-650402.8782226078</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="C200" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="D200" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="E200" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="F200" t="n">
-        <v>9407</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-659809.8782226078</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C201" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D201" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E201" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F201" t="n">
-        <v>87643.6419</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-747453.5201226078</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C202" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D202" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E202" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F202" t="n">
-        <v>10258</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-747453.5201226078</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="C203" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="D203" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="E203" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="F203" t="n">
-        <v>61056.3106</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-808509.8307226078</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C204" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D204" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E204" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F204" t="n">
-        <v>11045.6239</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-797464.2068226078</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C205" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D205" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E205" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="F205" t="n">
-        <v>44</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-797420.2068226078</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C206" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="D206" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="E206" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="F206" t="n">
-        <v>82450.52929999999</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-879870.7361226077</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="C207" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="D207" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="E207" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F207" t="n">
-        <v>44</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-879826.7361226077</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="C208" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="D208" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="E208" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="F208" t="n">
-        <v>20697.0193</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-900523.7554226078</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="C209" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="D209" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="E209" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="F209" t="n">
-        <v>44</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-900479.7554226078</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="C210" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="D210" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="E210" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="F210" t="n">
-        <v>8629.893</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-909109.6484226078</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="C211" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="D211" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="E211" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F211" t="n">
-        <v>55397</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-853712.6484226078</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C212" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D212" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E212" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F212" t="n">
-        <v>76540.1018</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-930252.7502226077</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C213" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D213" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E213" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F213" t="n">
-        <v>191426.2669</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-738826.4833226078</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C214" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D214" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E214" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F214" t="n">
-        <v>8191.1566</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-730635.3267226078</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C215" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D215" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E215" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F215" t="n">
-        <v>87</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-730548.3267226078</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C216" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D216" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E216" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F216" t="n">
-        <v>117.8273</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-730666.1540226078</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C217" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D217" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="E217" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F217" t="n">
-        <v>11353.1944</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-742019.3484226079</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C218" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D218" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="E218" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F218" t="n">
-        <v>45</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-741974.3484226079</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="C219" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="D219" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E219" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F219" t="n">
-        <v>45</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-741929.3484226079</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C220" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D220" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E220" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F220" t="n">
-        <v>25086.8452</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-767016.1936226079</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C221" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D221" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E221" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F221" t="n">
-        <v>120686.6755</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-767016.1936226079</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C222" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D222" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E222" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4140</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-767016.1936226079</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C223" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D223" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E223" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F223" t="n">
-        <v>23404</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-790420.1936226079</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C224" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D224" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E224" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F224" t="n">
-        <v>135</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-790285.1936226079</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C225" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D225" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E225" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1159.6647</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-791444.8583226078</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C226" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D226" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E226" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F226" t="n">
-        <v>50</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-791394.8583226078</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C227" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D227" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E227" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F227" t="n">
-        <v>32719.7556</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-758675.1027226078</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C228" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D228" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E228" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F228" t="n">
-        <v>50</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-758625.1027226078</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C229" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D229" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E229" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F229" t="n">
-        <v>9425.878320479864</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-768050.9810430877</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C230" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D230" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E230" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F230" t="n">
-        <v>43</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-768007.9810430877</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C231" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D231" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E231" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="F231" t="n">
-        <v>13794.8974</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-781802.8784430877</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8231,10 +8073,14 @@
         <v>-781759.8784430877</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J232" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,10 +8114,14 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J233" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,10 +8155,14 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J234" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8342,10 +8196,14 @@
         <v>-844200.8284430876</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J235" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,10 +8237,14 @@
         <v>-844107.8284430876</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="J236" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8416,10 +8278,14 @@
         <v>-844365.0529430876</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J237" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,10 +8319,14 @@
         <v>-879522.0529430876</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="J238" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,10 +8360,14 @@
         <v>-914622.0529430876</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,7 +8406,9 @@
       <c r="I240" t="n">
         <v>11.3</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,7 +8447,9 @@
       <c r="I241" t="n">
         <v>11.25</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,7 +8488,9 @@
       <c r="I242" t="n">
         <v>11.21</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,7 +8529,9 @@
       <c r="I243" t="n">
         <v>11.39</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,7 +8570,9 @@
       <c r="I244" t="n">
         <v>11.4</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,7 +8611,9 @@
       <c r="I245" t="n">
         <v>11.7</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8761,10 +8647,14 @@
         <v>-995828.8334430876</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J246" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8798,10 +8688,14 @@
         <v>-998678.9456430876</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J247" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8840,7 +8734,9 @@
       <c r="I248" t="n">
         <v>11.51</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8874,10 +8770,14 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J249" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,10 +8811,14 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J250" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8948,10 +8852,14 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J251" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8985,10 +8893,14 @@
         <v>-946456.6370430876</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J252" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,10 +8934,14 @@
         <v>-956104.6657430877</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J253" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9059,10 +8975,14 @@
         <v>-955605.9879430877</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J254" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9096,10 +9016,14 @@
         <v>-851373.4377430878</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J255" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9138,7 +9062,9 @@
       <c r="I256" t="n">
         <v>11.86</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,10 +9098,14 @@
         <v>-736407.6562430877</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J257" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,10 +9139,14 @@
         <v>-598106.0843430877</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="J258" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9246,10 +9180,14 @@
         <v>-545239.7479430877</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="J259" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,10 +9221,14 @@
         <v>-547099.7479430877</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J260" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9320,10 +9262,14 @@
         <v>-501247.5846430877</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J261" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9357,10 +9303,14 @@
         <v>-459833.6154430877</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J262" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,7 +9347,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9434,7 +9386,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9471,7 +9425,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9508,7 +9464,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,7 +9503,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>11.67</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9579,677 +9539,803 @@
         <v>-141841.7250046262</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C269" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D269" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E269" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F269" t="n">
+        <v>62146.5301</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-203988.2551046262</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C270" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D270" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F270" t="n">
+        <v>91465.24786249999</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-112523.0072421262</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C271" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D271" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F271" t="n">
+        <v>17702.1158</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-130225.1230421262</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C272" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D272" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F272" t="n">
+        <v>99628.8906</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-30596.23244212622</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C273" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="D273" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="F273" t="n">
+        <v>69093.4488</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-99689.68124212621</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C274" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D274" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="F274" t="n">
+        <v>48964.9014</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-50724.77984212621</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C275" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D275" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F275" t="n">
+        <v>24261.7027</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-26463.07714212621</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C276" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="D276" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="E276" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="F276" t="n">
+        <v>359724.0653</v>
+      </c>
+      <c r="G276" t="n">
+        <v>333260.9881578738</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="C277" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="D277" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="E277" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F277" t="n">
+        <v>62768.4839</v>
+      </c>
+      <c r="G277" t="n">
+        <v>396029.4720578738</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C278" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="D278" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E278" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="F278" t="n">
+        <v>208930.5484</v>
+      </c>
+      <c r="G278" t="n">
+        <v>187098.9236578738</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C279" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="D279" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="F279" t="n">
+        <v>194915.8033</v>
+      </c>
+      <c r="G279" t="n">
+        <v>382014.7269578738</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C280" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="D280" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="E280" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F280" t="n">
+        <v>822800.5792110004</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1204815.306168874</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="C281" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="D281" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F281" t="n">
+        <v>203366.1794942732</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1204815.306168874</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="C282" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D282" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="F282" t="n">
+        <v>31008.91051622875</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1173806.395652646</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="C283" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="F283" t="n">
+        <v>207240.368249961</v>
+      </c>
+      <c r="G283" t="n">
+        <v>966566.0274026846</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C284" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D284" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E284" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F284" t="n">
+        <v>99223.80036180826</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1065789.827764493</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C285" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D285" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="E285" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F285" t="n">
+        <v>27301.3773</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1038488.450464493</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C286" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D286" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E286" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1796627.581228169</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2835116.031692661</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C287" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D287" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E287" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F287" t="n">
+        <v>75421.5376</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2759694.494092661</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D288" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E288" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="F288" t="n">
+        <v>725851.3109</v>
+      </c>
+      <c r="G288" t="n">
+        <v>3485545.804992661</v>
+      </c>
+      <c r="H288" t="n">
         <v>2</v>
       </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="C269" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="D269" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E269" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F269" t="n">
-        <v>62146.5301</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-203988.2551046262</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="C270" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D270" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E270" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="F270" t="n">
-        <v>91465.24786249999</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-112523.0072421262</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D271" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="E271" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F271" t="n">
-        <v>17702.1158</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-130225.1230421262</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C272" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="D272" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F272" t="n">
-        <v>99628.8906</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-30596.23244212622</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="C273" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="D273" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="F273" t="n">
-        <v>69093.4488</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-99689.68124212621</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="C274" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="D274" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="F274" t="n">
-        <v>48964.9014</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-50724.77984212621</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="C275" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="D275" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="F275" t="n">
-        <v>24261.7027</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-26463.07714212621</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="C276" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="D276" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="E276" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="F276" t="n">
-        <v>359724.0653</v>
-      </c>
-      <c r="G276" t="n">
-        <v>333260.9881578738</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="C277" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="D277" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="E277" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F277" t="n">
-        <v>62768.4839</v>
-      </c>
-      <c r="G277" t="n">
-        <v>396029.4720578738</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="C278" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="D278" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E278" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="F278" t="n">
-        <v>208930.5484</v>
-      </c>
-      <c r="G278" t="n">
-        <v>187098.9236578738</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="C279" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D279" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E279" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="F279" t="n">
-        <v>194915.8033</v>
-      </c>
-      <c r="G279" t="n">
-        <v>382014.7269578738</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C280" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="D280" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="E280" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F280" t="n">
-        <v>822800.5792110004</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1204815.306168874</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="C281" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="D281" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F281" t="n">
-        <v>203366.1794942732</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1204815.306168874</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="C282" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D282" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="F282" t="n">
-        <v>31008.91051622875</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1173806.395652646</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="C283" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D283" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="E283" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="F283" t="n">
-        <v>207240.368249961</v>
-      </c>
-      <c r="G283" t="n">
-        <v>966566.0274026846</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="C284" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D284" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="E284" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="F284" t="n">
-        <v>99223.80036180826</v>
-      </c>
-      <c r="G284" t="n">
-        <v>1065789.827764493</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="C285" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D285" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="E285" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="F285" t="n">
-        <v>27301.3773</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1038488.450464493</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C286" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D286" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="E286" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1796627.581228169</v>
-      </c>
-      <c r="G286" t="n">
-        <v>2835116.031692661</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C287" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E287" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F287" t="n">
-        <v>75421.5376</v>
-      </c>
-      <c r="G287" t="n">
-        <v>2759694.494092661</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C288" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="D288" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="E288" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="F288" t="n">
-        <v>725851.3109</v>
-      </c>
-      <c r="G288" t="n">
-        <v>3485545.804992661</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>1.163808911739503</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1.103231597845601</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10274,7 +10360,7 @@
         <v>3137207.623892661</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10307,7 +10393,7 @@
         <v>2962443.149792661</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10340,7 +10426,7 @@
         <v>2603158.410292661</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10373,7 +10459,7 @@
         <v>2347132.629692661</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10406,7 +10492,7 @@
         <v>2362416.38859266</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>

--- a/BackTest/2020-01-23 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-23 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M306"/>
+  <dimension ref="A1:L306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>772.8819999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1116517.177268551</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2617</v>
       </c>
       <c r="G3" t="n">
-        <v>1113900.177268551</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>74513.53539999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1039386.641868551</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>141</v>
       </c>
       <c r="G5" t="n">
-        <v>1039527.641868551</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2244.2254</v>
       </c>
       <c r="G6" t="n">
-        <v>1039527.641868551</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>80529.06419999999</v>
       </c>
       <c r="G7" t="n">
-        <v>958998.5776685508</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1481.4441</v>
       </c>
       <c r="G8" t="n">
-        <v>960480.0217685507</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1557.091</v>
       </c>
       <c r="G9" t="n">
-        <v>960480.0217685507</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,21 @@
         <v>2123.306</v>
       </c>
       <c r="G10" t="n">
-        <v>958356.7157685508</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +719,21 @@
         <v>323.2968</v>
       </c>
       <c r="G11" t="n">
-        <v>958680.0125685508</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +755,21 @@
         <v>214843.7689</v>
       </c>
       <c r="G12" t="n">
-        <v>743836.2436685507</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +791,19 @@
         <v>4233.1783</v>
       </c>
       <c r="G13" t="n">
-        <v>748069.4219685508</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +825,19 @@
         <v>180</v>
       </c>
       <c r="G14" t="n">
-        <v>747889.4219685508</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +859,19 @@
         <v>92</v>
       </c>
       <c r="G15" t="n">
-        <v>747797.4219685508</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +893,19 @@
         <v>3192.5655</v>
       </c>
       <c r="G16" t="n">
-        <v>750989.9874685508</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +927,19 @@
         <v>1040.4345</v>
       </c>
       <c r="G17" t="n">
-        <v>750989.9874685508</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +961,19 @@
         <v>32766.175</v>
       </c>
       <c r="G18" t="n">
-        <v>718223.8124685508</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +995,19 @@
         <v>27780.7267</v>
       </c>
       <c r="G19" t="n">
-        <v>690443.0857685508</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1029,19 @@
         <v>1523.234</v>
       </c>
       <c r="G20" t="n">
-        <v>688919.8517685507</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1063,19 @@
         <v>900</v>
       </c>
       <c r="G21" t="n">
-        <v>688919.8517685507</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1097,19 @@
         <v>192</v>
       </c>
       <c r="G22" t="n">
-        <v>688727.8517685507</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1131,19 @@
         <v>7417.4107</v>
       </c>
       <c r="G23" t="n">
-        <v>696145.2624685507</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1165,19 @@
         <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>696204.2624685507</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1199,21 @@
         <v>59</v>
       </c>
       <c r="G25" t="n">
-        <v>696145.2624685507</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1235,21 @@
         <v>33895.5034</v>
       </c>
       <c r="G26" t="n">
-        <v>696145.2624685507</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1271,21 @@
         <v>3784</v>
       </c>
       <c r="G27" t="n">
-        <v>699929.2624685507</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1307,19 @@
         <v>102738.8992</v>
       </c>
       <c r="G28" t="n">
-        <v>699929.2624685507</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1341,21 @@
         <v>48160.3037</v>
       </c>
       <c r="G29" t="n">
-        <v>748089.5661685508</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>11.59</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1377,19 @@
         <v>15069</v>
       </c>
       <c r="G30" t="n">
-        <v>763158.5661685508</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1411,19 @@
         <v>11379.8629</v>
       </c>
       <c r="G31" t="n">
-        <v>774538.4290685507</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1445,19 @@
         <v>133672.2957</v>
       </c>
       <c r="G32" t="n">
-        <v>908210.7247685507</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1479,19 @@
         <v>104614.8188</v>
       </c>
       <c r="G33" t="n">
-        <v>1012825.543568551</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1513,19 @@
         <v>308052.3254</v>
       </c>
       <c r="G34" t="n">
-        <v>704773.2181685508</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1547,19 @@
         <v>17318.1434</v>
       </c>
       <c r="G35" t="n">
-        <v>722091.3615685508</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1581,19 @@
         <v>115173.1529</v>
       </c>
       <c r="G36" t="n">
-        <v>837264.5144685508</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1615,19 @@
         <v>29704.405</v>
       </c>
       <c r="G37" t="n">
-        <v>866968.9194685508</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1649,19 @@
         <v>8689.7196</v>
       </c>
       <c r="G38" t="n">
-        <v>866968.9194685508</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1683,19 @@
         <v>50</v>
       </c>
       <c r="G39" t="n">
-        <v>867018.9194685508</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1717,19 @@
         <v>9359.8387</v>
       </c>
       <c r="G40" t="n">
-        <v>857659.0807685509</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1751,19 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>857759.0807685509</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1785,19 @@
         <v>14616.934</v>
       </c>
       <c r="G42" t="n">
-        <v>857759.0807685509</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1819,19 @@
         <v>37825.4918</v>
       </c>
       <c r="G43" t="n">
-        <v>819933.5889685509</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1853,19 @@
         <v>192</v>
       </c>
       <c r="G44" t="n">
-        <v>820125.5889685509</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1887,19 @@
         <v>13684.941</v>
       </c>
       <c r="G45" t="n">
-        <v>806440.6479685509</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1921,19 @@
         <v>1094.3329</v>
       </c>
       <c r="G46" t="n">
-        <v>806440.6479685509</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1955,19 @@
         <v>7042</v>
       </c>
       <c r="G47" t="n">
-        <v>813482.6479685509</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1989,19 @@
         <v>1094.3329</v>
       </c>
       <c r="G48" t="n">
-        <v>812388.3150685509</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2023,19 @@
         <v>55278.6316</v>
       </c>
       <c r="G49" t="n">
-        <v>812388.3150685509</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2057,19 @@
         <v>9779.364799999999</v>
       </c>
       <c r="G50" t="n">
-        <v>802608.9502685509</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2091,19 @@
         <v>778.7036000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>803387.6538685509</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2125,19 @@
         <v>580.7342</v>
       </c>
       <c r="G52" t="n">
-        <v>803387.6538685509</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2159,19 @@
         <v>263.7433</v>
       </c>
       <c r="G53" t="n">
-        <v>803387.6538685509</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2193,19 @@
         <v>33002.2934</v>
       </c>
       <c r="G54" t="n">
-        <v>803387.6538685509</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2227,19 @@
         <v>48</v>
       </c>
       <c r="G55" t="n">
-        <v>803435.6538685509</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2261,19 @@
         <v>41138.029</v>
       </c>
       <c r="G56" t="n">
-        <v>844573.6828685509</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2295,19 @@
         <v>28203.9035</v>
       </c>
       <c r="G57" t="n">
-        <v>872777.5863685509</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2329,19 @@
         <v>30100</v>
       </c>
       <c r="G58" t="n">
-        <v>842677.5863685509</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2363,19 @@
         <v>48</v>
       </c>
       <c r="G59" t="n">
-        <v>842629.5863685509</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2397,19 @@
         <v>115000</v>
       </c>
       <c r="G60" t="n">
-        <v>727629.5863685509</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2431,19 @@
         <v>56853.3192</v>
       </c>
       <c r="G61" t="n">
-        <v>784482.9055685509</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2465,19 @@
         <v>18437.8858</v>
       </c>
       <c r="G62" t="n">
-        <v>784482.9055685509</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2499,19 @@
         <v>4824.7277</v>
       </c>
       <c r="G63" t="n">
-        <v>779658.1778685509</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2533,19 @@
         <v>111341.5748</v>
       </c>
       <c r="G64" t="n">
-        <v>890999.7526685509</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2567,19 @@
         <v>62906.5511</v>
       </c>
       <c r="G65" t="n">
-        <v>828093.2015685509</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2601,19 @@
         <v>25301</v>
       </c>
       <c r="G66" t="n">
-        <v>853394.2015685509</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2635,19 @@
         <v>26060</v>
       </c>
       <c r="G67" t="n">
-        <v>827334.2015685509</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2669,19 @@
         <v>44829.2585</v>
       </c>
       <c r="G68" t="n">
-        <v>872163.4600685509</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2703,19 @@
         <v>65900</v>
       </c>
       <c r="G69" t="n">
-        <v>806263.4600685509</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2737,19 @@
         <v>6933.0696</v>
       </c>
       <c r="G70" t="n">
-        <v>806263.4600685509</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2771,19 @@
         <v>27449.1586</v>
       </c>
       <c r="G71" t="n">
-        <v>806263.4600685509</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2805,19 @@
         <v>42893.566</v>
       </c>
       <c r="G72" t="n">
-        <v>763369.8940685509</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2839,19 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>763469.8940685509</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2873,19 @@
         <v>63944.383</v>
       </c>
       <c r="G74" t="n">
-        <v>763469.8940685509</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2907,19 @@
         <v>106795.7221</v>
       </c>
       <c r="G75" t="n">
-        <v>870265.6161685509</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2941,19 @@
         <v>17904.2779</v>
       </c>
       <c r="G76" t="n">
-        <v>888169.8940685509</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2975,19 @@
         <v>3000</v>
       </c>
       <c r="G77" t="n">
-        <v>891169.8940685509</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3009,19 @@
         <v>11043.2747</v>
       </c>
       <c r="G78" t="n">
-        <v>880126.6193685509</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3043,19 @@
         <v>65870.03939999999</v>
       </c>
       <c r="G79" t="n">
-        <v>814256.5799685509</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3077,19 @@
         <v>23989.01842020288</v>
       </c>
       <c r="G80" t="n">
-        <v>838245.5983887538</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3111,19 @@
         <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>838145.5983887538</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3145,19 @@
         <v>98.3999</v>
       </c>
       <c r="G82" t="n">
-        <v>838243.9982887538</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3179,19 @@
         <v>20000</v>
       </c>
       <c r="G83" t="n">
-        <v>818243.9982887538</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3213,19 @@
         <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>828243.9982887538</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3247,19 @@
         <v>113000</v>
       </c>
       <c r="G85" t="n">
-        <v>715243.9982887538</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3281,19 @@
         <v>44.444</v>
       </c>
       <c r="G86" t="n">
-        <v>715288.4422887538</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3315,19 @@
         <v>46</v>
       </c>
       <c r="G87" t="n">
-        <v>715334.4422887538</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3349,19 @@
         <v>12961</v>
       </c>
       <c r="G88" t="n">
-        <v>728295.4422887538</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3383,19 @@
         <v>21170.5291</v>
       </c>
       <c r="G89" t="n">
-        <v>728295.4422887538</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3417,19 @@
         <v>60046.982</v>
       </c>
       <c r="G90" t="n">
-        <v>788342.4242887538</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3451,19 @@
         <v>9805.571099999999</v>
       </c>
       <c r="G91" t="n">
-        <v>778536.8531887538</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3485,19 @@
         <v>44.4444</v>
       </c>
       <c r="G92" t="n">
-        <v>778581.2975887539</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3519,19 @@
         <v>394.4444</v>
       </c>
       <c r="G93" t="n">
-        <v>778186.8531887538</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3553,19 @@
         <v>557.8115</v>
       </c>
       <c r="G94" t="n">
-        <v>778744.6646887538</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3587,19 @@
         <v>664.7686</v>
       </c>
       <c r="G95" t="n">
-        <v>778079.8960887538</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3621,19 @@
         <v>42868.583</v>
       </c>
       <c r="G96" t="n">
-        <v>735211.3130887538</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3655,19 @@
         <v>7636.4257</v>
       </c>
       <c r="G97" t="n">
-        <v>742847.7387887539</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3689,19 @@
         <v>13702.1086</v>
       </c>
       <c r="G98" t="n">
-        <v>729145.6301887538</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3723,19 @@
         <v>28531</v>
       </c>
       <c r="G99" t="n">
-        <v>757676.6301887538</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3757,19 @@
         <v>3285</v>
       </c>
       <c r="G100" t="n">
-        <v>754391.6301887538</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3791,19 @@
         <v>12505.6991</v>
       </c>
       <c r="G101" t="n">
-        <v>741885.9310887539</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3825,19 @@
         <v>5000</v>
       </c>
       <c r="G102" t="n">
-        <v>741885.9310887539</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3859,19 @@
         <v>44.4444</v>
       </c>
       <c r="G103" t="n">
-        <v>741930.3754887539</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3893,19 @@
         <v>44.4444</v>
       </c>
       <c r="G104" t="n">
-        <v>741930.3754887539</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3927,19 @@
         <v>7979.0294</v>
       </c>
       <c r="G105" t="n">
-        <v>741930.3754887539</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3961,19 @@
         <v>21834.3212</v>
       </c>
       <c r="G106" t="n">
-        <v>720096.0542887539</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3995,19 @@
         <v>45.9963</v>
       </c>
       <c r="G107" t="n">
-        <v>720142.0505887539</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4029,19 @@
         <v>13058.3377</v>
       </c>
       <c r="G108" t="n">
-        <v>707083.7128887539</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4063,19 @@
         <v>28487.0037</v>
       </c>
       <c r="G109" t="n">
-        <v>707083.7128887539</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4097,19 @@
         <v>18084.8042</v>
       </c>
       <c r="G110" t="n">
-        <v>707083.7128887539</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4131,19 @@
         <v>155671.9319</v>
       </c>
       <c r="G111" t="n">
-        <v>551411.7809887539</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4165,19 @@
         <v>45.9963</v>
       </c>
       <c r="G112" t="n">
-        <v>551457.7772887539</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4199,19 @@
         <v>175.0037</v>
       </c>
       <c r="G113" t="n">
-        <v>551457.7772887539</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4233,19 @@
         <v>126173.3262</v>
       </c>
       <c r="G114" t="n">
-        <v>425284.4510887539</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4267,19 @@
         <v>44.4444</v>
       </c>
       <c r="G115" t="n">
-        <v>425328.8954887539</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4301,19 @@
         <v>81756.8518</v>
       </c>
       <c r="G116" t="n">
-        <v>343572.0436887539</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4335,19 @@
         <v>867.3026886383348</v>
       </c>
       <c r="G117" t="n">
-        <v>344439.3463773922</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4369,19 @@
         <v>7653.1143</v>
       </c>
       <c r="G118" t="n">
-        <v>336786.2320773922</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4403,19 @@
         <v>300</v>
       </c>
       <c r="G119" t="n">
-        <v>337086.2320773922</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4437,19 @@
         <v>95459.30039999999</v>
       </c>
       <c r="G120" t="n">
-        <v>241626.9316773922</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4471,19 @@
         <v>43</v>
       </c>
       <c r="G121" t="n">
-        <v>241669.9316773922</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4505,19 @@
         <v>44</v>
       </c>
       <c r="G122" t="n">
-        <v>241625.9316773922</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4539,19 @@
         <v>22488</v>
       </c>
       <c r="G123" t="n">
-        <v>219137.9316773922</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4573,19 @@
         <v>69341.9325</v>
       </c>
       <c r="G124" t="n">
-        <v>149795.9991773922</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4607,19 @@
         <v>867.3026</v>
       </c>
       <c r="G125" t="n">
-        <v>150663.3017773922</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4641,19 @@
         <v>10000</v>
       </c>
       <c r="G126" t="n">
-        <v>150663.3017773922</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4675,19 @@
         <v>1546.893</v>
       </c>
       <c r="G127" t="n">
-        <v>150663.3017773922</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4709,21 @@
         <v>8062</v>
       </c>
       <c r="G128" t="n">
-        <v>158725.3017773922</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4745,19 @@
         <v>7968.4292</v>
       </c>
       <c r="G129" t="n">
-        <v>158725.3017773922</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4779,19 @@
         <v>109763.7252</v>
       </c>
       <c r="G130" t="n">
-        <v>48961.57657739216</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4813,19 @@
         <v>9875.2698</v>
       </c>
       <c r="G131" t="n">
-        <v>58836.84637739216</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4847,19 @@
         <v>1320</v>
       </c>
       <c r="G132" t="n">
-        <v>58836.84637739216</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4881,19 @@
         <v>30931.6558</v>
       </c>
       <c r="G133" t="n">
-        <v>27905.19057739216</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4915,19 @@
         <v>6298.4444</v>
       </c>
       <c r="G134" t="n">
-        <v>34203.63497739216</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4949,21 @@
         <v>10000</v>
       </c>
       <c r="G135" t="n">
-        <v>44203.63497739216</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4985,21 @@
         <v>4620</v>
       </c>
       <c r="G136" t="n">
-        <v>39583.63497739216</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5021,19 @@
         <v>90</v>
       </c>
       <c r="G137" t="n">
-        <v>39493.63497739216</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5055,21 @@
         <v>304.317</v>
       </c>
       <c r="G138" t="n">
-        <v>39797.95197739216</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>11.35</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5091,19 @@
         <v>691.1351</v>
       </c>
       <c r="G139" t="n">
-        <v>40489.08707739216</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5125,19 @@
         <v>2026.3127</v>
       </c>
       <c r="G140" t="n">
-        <v>38462.77437739216</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5159,21 @@
         <v>24493.0858</v>
       </c>
       <c r="G141" t="n">
-        <v>13969.68857739216</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>11.44</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5195,21 @@
         <v>21439.9596</v>
       </c>
       <c r="G142" t="n">
-        <v>-7470.271022607838</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>11.35</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5231,21 @@
         <v>17289.2597</v>
       </c>
       <c r="G143" t="n">
-        <v>-24759.53072260784</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>11.33</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5267,21 @@
         <v>7793.2232</v>
       </c>
       <c r="G144" t="n">
-        <v>-24759.53072260784</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>11.32</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5303,21 @@
         <v>7793.2232</v>
       </c>
       <c r="G145" t="n">
-        <v>-32552.75392260784</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>11.32</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5339,19 @@
         <v>2187</v>
       </c>
       <c r="G146" t="n">
-        <v>-30365.75392260784</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5373,19 @@
         <v>92317.895</v>
       </c>
       <c r="G147" t="n">
-        <v>61952.14107739217</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5407,19 @@
         <v>111</v>
       </c>
       <c r="G148" t="n">
-        <v>62063.14107739217</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5441,19 @@
         <v>83568.1741</v>
       </c>
       <c r="G149" t="n">
-        <v>145631.3151773922</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5475,19 @@
         <v>180.573</v>
       </c>
       <c r="G150" t="n">
-        <v>145450.7421773922</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5509,19 @@
         <v>111</v>
       </c>
       <c r="G151" t="n">
-        <v>145339.7421773922</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5543,19 @@
         <v>44</v>
       </c>
       <c r="G152" t="n">
-        <v>145295.7421773922</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5577,19 @@
         <v>13293.7685</v>
       </c>
       <c r="G153" t="n">
-        <v>158589.5106773922</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5611,19 @@
         <v>444</v>
       </c>
       <c r="G154" t="n">
-        <v>158589.5106773922</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5645,19 @@
         <v>5889.0538</v>
       </c>
       <c r="G155" t="n">
-        <v>158589.5106773922</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5679,19 @@
         <v>4741.0172</v>
       </c>
       <c r="G156" t="n">
-        <v>153848.4934773922</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5713,19 @@
         <v>19626.8223</v>
       </c>
       <c r="G157" t="n">
-        <v>134221.6711773922</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5747,19 @@
         <v>2945</v>
       </c>
       <c r="G158" t="n">
-        <v>134221.6711773922</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5781,19 @@
         <v>9430</v>
       </c>
       <c r="G159" t="n">
-        <v>134221.6711773922</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5815,19 @@
         <v>49153.6949</v>
       </c>
       <c r="G160" t="n">
-        <v>85067.97627739215</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5849,19 @@
         <v>4741.0172</v>
       </c>
       <c r="G161" t="n">
-        <v>80326.95907739215</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5883,19 @@
         <v>3757.4542</v>
       </c>
       <c r="G162" t="n">
-        <v>84084.41327739216</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5917,19 @@
         <v>8227.8974</v>
       </c>
       <c r="G163" t="n">
-        <v>92312.31067739216</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5951,19 @@
         <v>79931.2273</v>
       </c>
       <c r="G164" t="n">
-        <v>92312.31067739216</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5985,19 @@
         <v>200</v>
       </c>
       <c r="G165" t="n">
-        <v>92512.31067739216</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +6019,19 @@
         <v>10739.7796</v>
       </c>
       <c r="G166" t="n">
-        <v>92512.31067739216</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +6053,19 @@
         <v>12856.2204</v>
       </c>
       <c r="G167" t="n">
-        <v>92512.31067739216</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +6087,19 @@
         <v>1312.6896</v>
       </c>
       <c r="G168" t="n">
-        <v>93825.00027739216</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +6121,19 @@
         <v>9528</v>
       </c>
       <c r="G169" t="n">
-        <v>103353.0002773922</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +6155,19 @@
         <v>1362.6896</v>
       </c>
       <c r="G170" t="n">
-        <v>103353.0002773922</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +6189,19 @@
         <v>115087.2076</v>
       </c>
       <c r="G171" t="n">
-        <v>-11734.20732260784</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6223,19 @@
         <v>57870.5607</v>
       </c>
       <c r="G172" t="n">
-        <v>-11734.20732260784</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6257,19 @@
         <v>41106.326</v>
       </c>
       <c r="G173" t="n">
-        <v>-52840.53332260784</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6291,19 @@
         <v>6128.6504</v>
       </c>
       <c r="G174" t="n">
-        <v>-52840.53332260784</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6325,19 @@
         <v>50</v>
       </c>
       <c r="G175" t="n">
-        <v>-52790.53332260784</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6359,19 @@
         <v>27489.874</v>
       </c>
       <c r="G176" t="n">
-        <v>-80280.40732260783</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6393,21 @@
         <v>160261.6636</v>
       </c>
       <c r="G177" t="n">
-        <v>-240542.0709226078</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6429,19 @@
         <v>206491.5558</v>
       </c>
       <c r="G178" t="n">
-        <v>-34050.51512260785</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6463,19 @@
         <v>24343.9073</v>
       </c>
       <c r="G179" t="n">
-        <v>-9706.607822607846</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6497,19 @@
         <v>14185.1265</v>
       </c>
       <c r="G180" t="n">
-        <v>-23891.73432260784</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6531,21 @@
         <v>32414.9306</v>
       </c>
       <c r="G181" t="n">
-        <v>-56306.66492260784</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6567,21 @@
         <v>63.4077</v>
       </c>
       <c r="G182" t="n">
-        <v>-56243.25722260784</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6603,19 @@
         <v>5196.5185</v>
       </c>
       <c r="G183" t="n">
-        <v>-61439.77572260784</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6637,21 @@
         <v>46768.6673</v>
       </c>
       <c r="G184" t="n">
-        <v>-61439.77572260784</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6673,21 @@
         <v>59686.2418</v>
       </c>
       <c r="G185" t="n">
-        <v>-61439.77572260784</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6709,21 @@
         <v>105957.3537</v>
       </c>
       <c r="G186" t="n">
-        <v>-167397.1294226078</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6745,21 @@
         <v>16895.602</v>
       </c>
       <c r="G187" t="n">
-        <v>-167397.1294226078</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6781,21 @@
         <v>10739.7796</v>
       </c>
       <c r="G188" t="n">
-        <v>-178136.9090226078</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6817,21 @@
         <v>35740.6077</v>
       </c>
       <c r="G189" t="n">
-        <v>-178136.9090226078</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6853,21 @@
         <v>118354.2658</v>
       </c>
       <c r="G190" t="n">
-        <v>-178136.9090226078</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6889,21 @@
         <v>105549.8255</v>
       </c>
       <c r="G191" t="n">
-        <v>-178136.9090226078</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6925,21 @@
         <v>174</v>
       </c>
       <c r="G192" t="n">
-        <v>-177962.9090226078</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6961,21 @@
         <v>445536.7452</v>
       </c>
       <c r="G193" t="n">
-        <v>-623499.6542226078</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>11.57</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6997,21 @@
         <v>44</v>
       </c>
       <c r="G194" t="n">
-        <v>-623455.6542226078</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +7033,19 @@
         <v>36247.252</v>
       </c>
       <c r="G195" t="n">
-        <v>-659702.9062226078</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +7067,19 @@
         <v>43</v>
       </c>
       <c r="G196" t="n">
-        <v>-659659.9062226078</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +7101,19 @@
         <v>24907.028</v>
       </c>
       <c r="G197" t="n">
-        <v>-634752.8782226078</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +7135,19 @@
         <v>43</v>
       </c>
       <c r="G198" t="n">
-        <v>-634709.8782226078</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +7169,19 @@
         <v>15693</v>
       </c>
       <c r="G199" t="n">
-        <v>-650402.8782226078</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +7203,19 @@
         <v>9407</v>
       </c>
       <c r="G200" t="n">
-        <v>-659809.8782226078</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +7237,19 @@
         <v>87643.6419</v>
       </c>
       <c r="G201" t="n">
-        <v>-747453.5201226078</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +7271,19 @@
         <v>10258</v>
       </c>
       <c r="G202" t="n">
-        <v>-747453.5201226078</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +7305,19 @@
         <v>61056.3106</v>
       </c>
       <c r="G203" t="n">
-        <v>-808509.8307226078</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7339,19 @@
         <v>11045.6239</v>
       </c>
       <c r="G204" t="n">
-        <v>-797464.2068226078</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7373,19 @@
         <v>44</v>
       </c>
       <c r="G205" t="n">
-        <v>-797420.2068226078</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7407,19 @@
         <v>82450.52929999999</v>
       </c>
       <c r="G206" t="n">
-        <v>-879870.7361226077</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7441,21 @@
         <v>44</v>
       </c>
       <c r="G207" t="n">
-        <v>-879826.7361226077</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>11.21</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7477,19 @@
         <v>20697.0193</v>
       </c>
       <c r="G208" t="n">
-        <v>-900523.7554226078</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7511,19 @@
         <v>44</v>
       </c>
       <c r="G209" t="n">
-        <v>-900479.7554226078</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7545,19 @@
         <v>8629.893</v>
       </c>
       <c r="G210" t="n">
-        <v>-909109.6484226078</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7579,19 @@
         <v>55397</v>
       </c>
       <c r="G211" t="n">
-        <v>-853712.6484226078</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7613,19 @@
         <v>76540.1018</v>
       </c>
       <c r="G212" t="n">
-        <v>-930252.7502226077</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7647,19 @@
         <v>191426.2669</v>
       </c>
       <c r="G213" t="n">
-        <v>-738826.4833226078</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7681,19 @@
         <v>8191.1566</v>
       </c>
       <c r="G214" t="n">
-        <v>-730635.3267226078</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7715,19 @@
         <v>87</v>
       </c>
       <c r="G215" t="n">
-        <v>-730548.3267226078</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7749,19 @@
         <v>117.8273</v>
       </c>
       <c r="G216" t="n">
-        <v>-730666.1540226078</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7783,19 @@
         <v>11353.1944</v>
       </c>
       <c r="G217" t="n">
-        <v>-742019.3484226079</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7817,19 @@
         <v>45</v>
       </c>
       <c r="G218" t="n">
-        <v>-741974.3484226079</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7851,19 @@
         <v>45</v>
       </c>
       <c r="G219" t="n">
-        <v>-741929.3484226079</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7885,19 @@
         <v>25086.8452</v>
       </c>
       <c r="G220" t="n">
-        <v>-767016.1936226079</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7919,19 @@
         <v>120686.6755</v>
       </c>
       <c r="G221" t="n">
-        <v>-767016.1936226079</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7953,19 @@
         <v>4140</v>
       </c>
       <c r="G222" t="n">
-        <v>-767016.1936226079</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7987,19 @@
         <v>23404</v>
       </c>
       <c r="G223" t="n">
-        <v>-790420.1936226079</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +8021,19 @@
         <v>135</v>
       </c>
       <c r="G224" t="n">
-        <v>-790285.1936226079</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +8055,19 @@
         <v>1159.6647</v>
       </c>
       <c r="G225" t="n">
-        <v>-791444.8583226078</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,22 +8089,19 @@
         <v>50</v>
       </c>
       <c r="G226" t="n">
-        <v>-791394.8583226078</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J226" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7877,26 +8123,19 @@
         <v>32719.7556</v>
       </c>
       <c r="G227" t="n">
-        <v>-758675.1027226078</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="J227" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7918,26 +8157,19 @@
         <v>50</v>
       </c>
       <c r="G228" t="n">
-        <v>-758625.1027226078</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J228" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7959,18 +8191,19 @@
         <v>9425.878320479864</v>
       </c>
       <c r="G229" t="n">
-        <v>-768050.9810430877</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7992,22 +8225,19 @@
         <v>43</v>
       </c>
       <c r="G230" t="n">
-        <v>-768007.9810430877</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J230" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8029,26 +8259,19 @@
         <v>13794.8974</v>
       </c>
       <c r="G231" t="n">
-        <v>-781802.8784430877</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J231" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8070,26 +8293,19 @@
         <v>43</v>
       </c>
       <c r="G232" t="n">
-        <v>-781759.8784430877</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J232" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8111,26 +8327,19 @@
         <v>56753.05</v>
       </c>
       <c r="G233" t="n">
-        <v>-725006.8284430876</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J233" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8152,26 +8361,19 @@
         <v>19720</v>
       </c>
       <c r="G234" t="n">
-        <v>-725006.8284430876</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J234" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8193,26 +8395,19 @@
         <v>119194</v>
       </c>
       <c r="G235" t="n">
-        <v>-844200.8284430876</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J235" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8234,26 +8429,19 @@
         <v>93</v>
       </c>
       <c r="G236" t="n">
-        <v>-844107.8284430876</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="J236" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8275,26 +8463,19 @@
         <v>257.2245</v>
       </c>
       <c r="G237" t="n">
-        <v>-844365.0529430876</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J237" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8316,26 +8497,19 @@
         <v>35157</v>
       </c>
       <c r="G238" t="n">
-        <v>-879522.0529430876</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J238" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8357,26 +8531,19 @@
         <v>35100</v>
       </c>
       <c r="G239" t="n">
-        <v>-914622.0529430876</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J239" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8398,26 +8565,19 @@
         <v>104842.7307</v>
       </c>
       <c r="G240" t="n">
-        <v>-1019464.783643088</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J240" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8439,26 +8599,19 @@
         <v>34906.9474</v>
       </c>
       <c r="G241" t="n">
-        <v>-1054371.731043088</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="J241" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8480,26 +8633,19 @@
         <v>45</v>
       </c>
       <c r="G242" t="n">
-        <v>-1054326.731043088</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="J242" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8521,26 +8667,19 @@
         <v>37955.2198</v>
       </c>
       <c r="G243" t="n">
-        <v>-1016371.511243088</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="J243" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8562,26 +8701,19 @@
         <v>20542.6778</v>
       </c>
       <c r="G244" t="n">
-        <v>-995828.8334430876</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J244" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8603,26 +8735,19 @@
         <v>20000</v>
       </c>
       <c r="G245" t="n">
-        <v>-995828.8334430876</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J245" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8644,26 +8769,19 @@
         <v>10000</v>
       </c>
       <c r="G246" t="n">
-        <v>-995828.8334430876</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J246" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8685,26 +8803,19 @@
         <v>2850.1122</v>
       </c>
       <c r="G247" t="n">
-        <v>-998678.9456430876</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J247" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8726,26 +8837,19 @@
         <v>4900</v>
       </c>
       <c r="G248" t="n">
-        <v>-998678.9456430876</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J248" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8767,26 +8871,19 @@
         <v>43</v>
       </c>
       <c r="G249" t="n">
-        <v>-998635.9456430876</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J249" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8808,26 +8905,19 @@
         <v>3418</v>
       </c>
       <c r="G250" t="n">
-        <v>-998635.9456430876</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J250" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8849,26 +8939,19 @@
         <v>33775.5714</v>
       </c>
       <c r="G251" t="n">
-        <v>-998635.9456430876</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J251" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8890,26 +8973,19 @@
         <v>52179.3086</v>
       </c>
       <c r="G252" t="n">
-        <v>-946456.6370430876</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J252" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8931,26 +9007,19 @@
         <v>9648.028700000001</v>
       </c>
       <c r="G253" t="n">
-        <v>-956104.6657430877</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J253" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8972,26 +9041,19 @@
         <v>498.6778</v>
       </c>
       <c r="G254" t="n">
-        <v>-955605.9879430877</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="J254" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9013,26 +9075,19 @@
         <v>104232.5502</v>
       </c>
       <c r="G255" t="n">
-        <v>-851373.4377430878</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J255" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9054,26 +9109,19 @@
         <v>130394.529</v>
       </c>
       <c r="G256" t="n">
-        <v>-851373.4377430878</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J256" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9095,26 +9143,19 @@
         <v>114965.7815</v>
       </c>
       <c r="G257" t="n">
-        <v>-736407.6562430877</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J257" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9136,26 +9177,19 @@
         <v>138301.5719</v>
       </c>
       <c r="G258" t="n">
-        <v>-598106.0843430877</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J258" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9177,26 +9211,19 @@
         <v>52866.3364</v>
       </c>
       <c r="G259" t="n">
-        <v>-545239.7479430877</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="J259" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9218,26 +9245,19 @@
         <v>1860</v>
       </c>
       <c r="G260" t="n">
-        <v>-547099.7479430877</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J260" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9259,26 +9279,19 @@
         <v>45852.1633</v>
       </c>
       <c r="G261" t="n">
-        <v>-501247.5846430877</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J261" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9300,26 +9313,19 @@
         <v>41413.9692</v>
       </c>
       <c r="G262" t="n">
-        <v>-459833.6154430877</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="J262" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9341,24 +9347,19 @@
         <v>22769.3074</v>
       </c>
       <c r="G263" t="n">
-        <v>-459833.6154430877</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9380,24 +9381,19 @@
         <v>19908.0438</v>
       </c>
       <c r="G264" t="n">
-        <v>-439925.5716430877</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9419,24 +9415,19 @@
         <v>125955.6857</v>
       </c>
       <c r="G265" t="n">
-        <v>-313969.8859430877</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9458,24 +9449,19 @@
         <v>181869.6994</v>
       </c>
       <c r="G266" t="n">
-        <v>-132100.1865430877</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9497,24 +9483,19 @@
         <v>291256.5998</v>
       </c>
       <c r="G267" t="n">
-        <v>-132100.1865430877</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9536,24 +9517,19 @@
         <v>9741.538461538461</v>
       </c>
       <c r="G268" t="n">
-        <v>-141841.7250046262</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9575,24 +9551,19 @@
         <v>62146.5301</v>
       </c>
       <c r="G269" t="n">
-        <v>-203988.2551046262</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9614,24 +9585,19 @@
         <v>91465.24786249999</v>
       </c>
       <c r="G270" t="n">
-        <v>-112523.0072421262</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9653,24 +9619,19 @@
         <v>17702.1158</v>
       </c>
       <c r="G271" t="n">
-        <v>-130225.1230421262</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9692,24 +9653,19 @@
         <v>99628.8906</v>
       </c>
       <c r="G272" t="n">
-        <v>-30596.23244212622</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9731,24 +9687,19 @@
         <v>69093.4488</v>
       </c>
       <c r="G273" t="n">
-        <v>-99689.68124212621</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9770,24 +9721,19 @@
         <v>48964.9014</v>
       </c>
       <c r="G274" t="n">
-        <v>-50724.77984212621</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9809,24 +9755,19 @@
         <v>24261.7027</v>
       </c>
       <c r="G275" t="n">
-        <v>-26463.07714212621</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9848,24 +9789,19 @@
         <v>359724.0653</v>
       </c>
       <c r="G276" t="n">
-        <v>333260.9881578738</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9887,24 +9823,19 @@
         <v>62768.4839</v>
       </c>
       <c r="G277" t="n">
-        <v>396029.4720578738</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9926,24 +9857,19 @@
         <v>208930.5484</v>
       </c>
       <c r="G278" t="n">
-        <v>187098.9236578738</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9965,24 +9891,19 @@
         <v>194915.8033</v>
       </c>
       <c r="G279" t="n">
-        <v>382014.7269578738</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10004,24 +9925,19 @@
         <v>822800.5792110004</v>
       </c>
       <c r="G280" t="n">
-        <v>1204815.306168874</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10043,24 +9959,19 @@
         <v>203366.1794942732</v>
       </c>
       <c r="G281" t="n">
-        <v>1204815.306168874</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10082,24 +9993,19 @@
         <v>31008.91051622875</v>
       </c>
       <c r="G282" t="n">
-        <v>1173806.395652646</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10121,24 +10027,19 @@
         <v>207240.368249961</v>
       </c>
       <c r="G283" t="n">
-        <v>966566.0274026846</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10160,24 +10061,19 @@
         <v>99223.80036180826</v>
       </c>
       <c r="G284" t="n">
-        <v>1065789.827764493</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10199,24 +10095,19 @@
         <v>27301.3773</v>
       </c>
       <c r="G285" t="n">
-        <v>1038488.450464493</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10238,24 +10129,19 @@
         <v>1796627.581228169</v>
       </c>
       <c r="G286" t="n">
-        <v>2835116.031692661</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10277,24 +10163,19 @@
         <v>75421.5376</v>
       </c>
       <c r="G287" t="n">
-        <v>2759694.494092661</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10316,26 +10197,19 @@
         <v>725851.3109</v>
       </c>
       <c r="G288" t="n">
-        <v>3485545.804992661</v>
-      </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1.163808911739503</v>
-      </c>
-      <c r="M288" t="n">
-        <v>1.103231597845601</v>
-      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10357,18 +10231,17 @@
         <v>348338.1811</v>
       </c>
       <c r="G289" t="n">
-        <v>3137207.623892661</v>
-      </c>
-      <c r="H289" t="n">
         <v>2</v>
       </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10390,18 +10263,15 @@
         <v>174764.4741</v>
       </c>
       <c r="G290" t="n">
-        <v>2962443.149792661</v>
-      </c>
-      <c r="H290" t="n">
         <v>2</v>
       </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10423,18 +10293,15 @@
         <v>359284.7395</v>
       </c>
       <c r="G291" t="n">
-        <v>2603158.410292661</v>
-      </c>
-      <c r="H291" t="n">
         <v>2</v>
       </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10456,18 +10323,15 @@
         <v>256025.7806</v>
       </c>
       <c r="G292" t="n">
-        <v>2347132.629692661</v>
-      </c>
-      <c r="H292" t="n">
         <v>2</v>
       </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10489,18 +10353,15 @@
         <v>15283.7589</v>
       </c>
       <c r="G293" t="n">
-        <v>2362416.38859266</v>
-      </c>
-      <c r="H293" t="n">
         <v>2</v>
       </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10522,18 +10383,15 @@
         <v>104822.565</v>
       </c>
       <c r="G294" t="n">
-        <v>2362416.38859266</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10555,18 +10413,15 @@
         <v>651.4408</v>
       </c>
       <c r="G295" t="n">
-        <v>2362416.38859266</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10588,18 +10443,15 @@
         <v>62664.5115</v>
       </c>
       <c r="G296" t="n">
-        <v>2299751.87709266</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10621,18 +10473,15 @@
         <v>290811.4117</v>
       </c>
       <c r="G297" t="n">
-        <v>2590563.28879266</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10654,18 +10503,15 @@
         <v>151237.2939</v>
       </c>
       <c r="G298" t="n">
-        <v>2439325.994892661</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10687,18 +10533,15 @@
         <v>43177</v>
       </c>
       <c r="G299" t="n">
-        <v>2396148.994892661</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10720,18 +10563,15 @@
         <v>62832.75</v>
       </c>
       <c r="G300" t="n">
-        <v>2458981.744892661</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10753,18 +10593,15 @@
         <v>166804.7561</v>
       </c>
       <c r="G301" t="n">
-        <v>2625786.50099266</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10786,18 +10623,15 @@
         <v>81917.4075</v>
       </c>
       <c r="G302" t="n">
-        <v>2543869.09349266</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10819,18 +10653,15 @@
         <v>96196.66800000001</v>
       </c>
       <c r="G303" t="n">
-        <v>2447672.42549266</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10852,18 +10683,15 @@
         <v>67493.8091</v>
       </c>
       <c r="G304" t="n">
-        <v>2380178.61639266</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10885,18 +10713,15 @@
         <v>169.5794</v>
       </c>
       <c r="G305" t="n">
-        <v>2380348.19579266</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10918,18 +10743,15 @@
         <v>87664.8057</v>
       </c>
       <c r="G306" t="n">
-        <v>2380348.19579266</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
